--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31323573" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ31445207" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31573782" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31699477" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ31864718" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ32007585" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ32158520" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ32308864" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ32464150" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ32598736" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ32734399" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ32877489" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ33027942" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ33173791" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ33309659" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ33445354" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33576605" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33725659" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ33872535" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ34041972" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ34211894" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ34344108" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ34496891" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ34641654" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ34785467" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ34912889" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ35046287" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ35177424" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ35303100" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ35425398" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ35586746" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ35729396" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ35857388" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ35985759" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ36122425" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ36251129" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ36380707" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ36511781" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ36644190" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ36778802" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ36920885" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ37101774" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ37265049" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ37411059" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ37565963" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ37756615" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ37908545" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ38054021" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ38215179" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ38344581" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ47141428" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ47257836" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ47388604" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ47525649" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ47669283" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ47843062" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ47998785" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48137730" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ48276562" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ48423083" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ48579106" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ48737431" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ48976303" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ49135854" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ49287406" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ49442788" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ49610912" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ49773332" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ49928806" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ50082832" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ50246111" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ50406848" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ50563411" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ50721932" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ50878030" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ51040980" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ51200496" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ51357719" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ51517239" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ51675461" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ51832280" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ51985309" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ52129197" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ52275245" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ52424767" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ52568183" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ52724705" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ52891291" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ53060144" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ53210290" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ53366330" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ53523861" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ53683858" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ53906946" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ54065985" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ54226608" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ54375188" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ54525624" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ54682518" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ54839158" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ47141428" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ47257836" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ47388604" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ47525649" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ47669283" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ47843062" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ47998785" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48137730" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ48276562" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ48423083" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ48579106" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ48737431" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ48976303" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ49135854" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ49287406" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ49442788" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ49610912" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ49773332" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ49928806" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ50082832" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ50246111" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ50406848" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ50563411" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ50721932" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ50878030" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ51040980" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ51200496" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ51357719" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ51517239" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ51675461" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ51832280" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ51985309" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ52129197" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ52275245" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ52424767" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ52568183" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ52724705" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ52891291" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ53060144" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ53210290" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ53366330" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ53523861" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ53683858" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ53906946" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ54065985" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ54226608" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ54375188" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ54525624" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ54682518" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ54839158" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ54497764" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ54615479" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ54716991" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ54823275" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ54924238" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ55026643" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55127261" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55228247" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55327295" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ55426247" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ55526736" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ55624193" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ55724226" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ55822741" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ55923395" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ56021908" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ56118273" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ56215448" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ56313959" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ56412686" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ56515793" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ56627119" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ56740764" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ56848568" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ56979440" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ57129102" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ57295243" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ57487613" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ57631295" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ57751957" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ57875759" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ58006380" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ58132306" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ58263648" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ58397833" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ58528703" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ58718223" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ58846385" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ58983308" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ59113247" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ59245690" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ59388353" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ59556028" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ59697642" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ59829502" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ59960173" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ00117105" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ00246321" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ00379242" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ00514088" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2411.851746023396</v>
+        <v>2408.411439944995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07641155204849732</v>
+        <v>0.07277938854269428</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.799823996175</v>
+        <v>100.9206447662113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07693069378163744</v>
+        <v>0.07341371593839767</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.01274600191121</v>
+        <v>44.28513211364213</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226306139344287</v>
+        <v>0.1779661919154569</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1656563339593449</v>
+        <v>-0.1667548110304328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1081387096061746</v>
+        <v>0.04268943116629503</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.1737138413087e-06</v>
+        <v>-8.372893066438157e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8821838642174324</v>
+        <v>0.8763327584302526</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.78792871852416</v>
+        <v>4.795160608402515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6265401351765654</v>
+        <v>0.6244340345914886</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.21778744122047</v>
+        <v>22.21315184754991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000749104578753219</v>
+        <v>0.000710447966686931</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1153.173802070325</v>
+        <v>-1149.09230412229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3873659164668738</v>
+        <v>0.3801352914149096</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2436.735245406954</v>
+        <v>-2433.424415347195</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00157771873586167</v>
+        <v>0.001097767521552651</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-52.2282809686817</v>
+        <v>10288.87203587618</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98580573574075</v>
+        <v>2.074298617000513e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10286.56737929077</v>
+        <v>-0.4208560884090531</v>
       </c>
       <c r="C12" t="n">
-        <v>2.65677579229498e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.4063179017074532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9815014659877059</v>
+        <v>0.9807471785873471</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3212.909062103525</v>
+        <v>3249.584829489302</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02836145662992256</v>
+        <v>0.02565610780270741</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.9693031936083</v>
+        <v>150.9247543261538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006868090275537739</v>
+        <v>0.006958166310221865</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.19398610193652</v>
+        <v>48.25254905384229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1482948884274289</v>
+        <v>0.1523157838532083</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1210716030455376</v>
+        <v>-0.1028300461900128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1936939699324894</v>
+        <v>0.1553976699082796</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.71749631608776e-05</v>
+        <v>1.934597997726936e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7393724107193977</v>
+        <v>0.7043897225425813</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.59703311513308</v>
+        <v>-8.375353723331163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3813817850537912</v>
+        <v>0.3909339506201095</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.23865296154736</v>
+        <v>21.35855891104318</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002316416673729865</v>
+        <v>0.002084789786177058</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1595.114424471216</v>
+        <v>-1618.787194922629</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2339203755750529</v>
+        <v>0.2248000454905139</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1582.608066867669</v>
+        <v>-1663.120784859348</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04925413537003181</v>
+        <v>0.02881460914123555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>826.7745161438302</v>
+        <v>8564.195162018787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7540329487790547</v>
+        <v>1.171295891199468e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8605.77203082493</v>
+        <v>-14.37431032402888</v>
       </c>
       <c r="C12" t="n">
-        <v>1.253525591212424e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.59812254943854</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3968555882383566</v>
+        <v>0.4021399697749346</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3627.002188921265</v>
+        <v>3711.95469699563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01005551784638603</v>
+        <v>0.007883610661435456</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.551953331897</v>
+        <v>109.7562212285392</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04363853194898143</v>
+        <v>0.04744080729260519</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.86292487409546</v>
+        <v>57.8211807266259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07916924292613875</v>
+        <v>0.09223601697200488</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1792687148698439</v>
+        <v>-0.1489315156980873</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06006789119445404</v>
+        <v>0.04953642458529444</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.482789321045642e-06</v>
+        <v>4.053027452454504e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9788278348189214</v>
+        <v>0.940981162115494</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.076824803988986</v>
+        <v>-1.849884748302337</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8325641701438509</v>
+        <v>0.8500927854990934</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.90581142283053</v>
+        <v>13.134272447181</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02680798425512862</v>
+        <v>0.02350972226819822</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1657.043208014893</v>
+        <v>-1753.825401670395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2161080272891335</v>
+        <v>0.1853054895446545</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2043.116058445361</v>
+        <v>-2164.242595766013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01710199779823146</v>
+        <v>0.008686216471092568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.474998695331</v>
+        <v>8742.823222924657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5960036521197152</v>
+        <v>1.146421297766516e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8782.106884080866</v>
+        <v>-1.031258064300573</v>
       </c>
       <c r="C12" t="n">
-        <v>1.137869661979543e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.8344833408191406</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9647215055296263</v>
+        <v>0.9562850176968201</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2988.026413040132</v>
+        <v>3099.140243946314</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01868101797316622</v>
+        <v>0.01327076634460529</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.0667771411594</v>
+        <v>140.3489883082828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004779768299647652</v>
+        <v>0.005378289104054835</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.08655685018811</v>
+        <v>38.49985663710508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1747539741738492</v>
+        <v>0.2102507114302454</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04048797587761437</v>
+        <v>-0.01492502286919191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6327993192406867</v>
+        <v>0.8314568502249687</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.556873425128238e-05</v>
+        <v>-8.089389902545423e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1299895410629784</v>
+        <v>0.1462349426126734</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.95760300119607</v>
+        <v>-12.73549547384398</v>
       </c>
       <c r="C7" t="n">
-        <v>0.134818973114028</v>
+        <v>0.1400804456211279</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00206115225049</v>
+        <v>15.16296450218424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002931020938214934</v>
+        <v>0.002535830367689517</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.37588674677681</v>
+        <v>1.696386490818441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9340297752439517</v>
+        <v>0.9988086502554265</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2073.975808360718</v>
+        <v>-2199.990347631591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004196483080303122</v>
+        <v>0.001331126443582408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1394.811691914274</v>
+        <v>7862.252183533265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.588655238064189</v>
+        <v>8.486119545845799e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7894.495097567165</v>
+        <v>14.68291342536392</v>
       </c>
       <c r="C12" t="n">
-        <v>8.39427203011995e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>14.42592594792512</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3912821126353035</v>
+        <v>0.3814770833361505</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4308.227266921722</v>
+        <v>4322.284585317693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003297731725211298</v>
+        <v>0.002961669692580005</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.28120843147923</v>
+        <v>74.67074949932629</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1968482897012488</v>
+        <v>0.1964834508549248</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.53801832041457</v>
+        <v>55.06389204641624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1319314296157026</v>
+        <v>0.1109030706891904</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1282671591043838</v>
+        <v>-0.1210801744896462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2397523235758889</v>
+        <v>0.1464931968257521</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.132514462584074e-05</v>
+        <v>1.21253424392972e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8453444157882755</v>
+        <v>0.83247659549637</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.826531143444752</v>
+        <v>-6.776822303305745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5090795325843618</v>
+        <v>0.5101415410797864</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.82156225046721</v>
+        <v>12.87069487551228</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02290323427861076</v>
+        <v>0.021429054380386</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2840.205619782638</v>
+        <v>-2845.651978692078</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06898460084348063</v>
+        <v>0.06728605206512563</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2218.589512617363</v>
+        <v>-2246.880216804554</v>
       </c>
       <c r="C10" t="n">
-        <v>0.009736281625785667</v>
+        <v>0.005546941363897242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>311.997415990995</v>
+        <v>9833.910059008103</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9181652209422529</v>
+        <v>7.358286531281283e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9841.540457387026</v>
+        <v>-9.571521810870976</v>
       </c>
       <c r="C12" t="n">
-        <v>8.42710966509316e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.625954703496177</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6028832186665223</v>
+        <v>0.6034496692308837</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2903.293972219333</v>
+        <v>2870.533243952958</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02643507613599171</v>
+        <v>0.02744675806064746</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.5624289110794</v>
+        <v>142.4046714504753</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01326529046400599</v>
+        <v>0.01078987918447261</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.4842481339309</v>
+        <v>66.33107692894325</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08967090509287219</v>
+        <v>0.04523261454141135</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08936006303643905</v>
+        <v>-0.1195763024314844</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4015595809506878</v>
+        <v>0.1474685180991047</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.926417330511159e-05</v>
+        <v>5.517454284554487e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3436524449500649</v>
+        <v>0.3713607855728357</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.833295118290021</v>
+        <v>-8.705960682650694</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3563647998257135</v>
+        <v>0.3616903459274269</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.0472501984866</v>
+        <v>14.85200655374091</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00786755979545847</v>
+        <v>0.008298393693246501</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-719.2578864371811</v>
+        <v>-689.2100593689391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5954141000276018</v>
+        <v>0.609370239990086</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1865.688176626838</v>
+        <v>-1785.547387115392</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01454326464051201</v>
+        <v>0.01575416748576207</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1265.219629784788</v>
+        <v>9485.563075838918</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6531165643470025</v>
+        <v>7.187913956120116e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9456.712792049446</v>
+        <v>1.390322716111598</v>
       </c>
       <c r="C12" t="n">
-        <v>8.979034972930405e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.119632047020545</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9075621907886481</v>
+        <v>0.9388686099843666</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3673.894026337414</v>
+        <v>3603.932355127987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009887163298050112</v>
+        <v>0.01072871768324967</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.54956690221562</v>
+        <v>86.63133768792714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.169357835025588</v>
+        <v>0.1444440020988954</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.04172189132436</v>
+        <v>75.22869128664473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07531897089032441</v>
+        <v>0.03344631658267031</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0776207566604345</v>
+        <v>-0.102983850569127</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4225710885820636</v>
+        <v>0.2097973642452089</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.162431946174362e-05</v>
+        <v>6.654846413641684e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8508344559583667</v>
+        <v>0.9128808504854449</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0471452141512172</v>
+        <v>-0.4027567131909839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9963001443418973</v>
+        <v>0.968233925942022</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.52631575619477</v>
+        <v>19.15200290631022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004410321885725906</v>
+        <v>0.004815136023442492</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2229.348754048101</v>
+        <v>-2157.791307947972</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1087874505805631</v>
+        <v>0.1174830100849384</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3016.606931378861</v>
+        <v>-2913.781976929981</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004141980746764564</v>
+        <v>0.0004142961856196299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1409.779109088365</v>
+        <v>8986.460298645481</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6193295061935016</v>
+        <v>9.723891961682228e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8934.634412090452</v>
+        <v>-11.53971174756898</v>
       </c>
       <c r="C12" t="n">
-        <v>1.300761168143699e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.43288072152271</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5169316775605353</v>
+        <v>0.5118220029847493</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4267.913522887786</v>
+        <v>4336.310178405549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00263288253854996</v>
+        <v>0.002130349934865058</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.34830653787499</v>
+        <v>91.16571504172461</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09283072324143973</v>
+        <v>0.0991093665314961</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.92696198449465</v>
+        <v>34.94650095816505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2471256547946924</v>
+        <v>0.3150932973754739</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1230305048418518</v>
+        <v>-0.08766237267439775</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2182333552487692</v>
+        <v>0.2762519442148366</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.810813415715304e-05</v>
+        <v>-5.166278344440969e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3734599765009231</v>
+        <v>0.4212305599645043</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.242392924877977</v>
+        <v>-6.640764845455475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4771132094101552</v>
+        <v>0.511371438920363</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.08420684997969</v>
+        <v>13.35475064835795</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02095969030341594</v>
+        <v>0.01785670101125553</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1495.175176790623</v>
+        <v>-1565.392154790306</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2850130030618004</v>
+        <v>0.2603002881482171</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2561.369600867122</v>
+        <v>-2731.182404575742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003937801985363274</v>
+        <v>0.0011868521090054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1687.15514034404</v>
+        <v>9437.631836802524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5469709338016346</v>
+        <v>6.244093910485641e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9542.76925494743</v>
+        <v>-3.822011752041831</v>
       </c>
       <c r="C12" t="n">
-        <v>5.717662199583284e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.642910805117218</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7940780922185251</v>
+        <v>0.8289703443809492</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2241.801605130838</v>
+        <v>2189.013433021539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1235985550477723</v>
+        <v>0.1288499968553584</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.42589334829481</v>
+        <v>73.88226140599855</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2493072385356451</v>
+        <v>0.2063652927488156</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.29475385480353</v>
+        <v>63.90428804879091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1480121415913407</v>
+        <v>0.07774875877346943</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07547487074799183</v>
+        <v>-0.09163950950730826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4505076478361716</v>
+        <v>0.2877634684005886</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.60727778394397e-06</v>
+        <v>1.773472977538562e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.968229773463505</v>
+        <v>0.9782972790009832</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.512590503620469</v>
+        <v>-2.723541111271679</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8040223183765218</v>
+        <v>0.786818670983368</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.33769184700371</v>
+        <v>23.05536327908541</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0004548222291005905</v>
+        <v>0.0004515821250450077</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1218.384842943374</v>
+        <v>-1198.121551411169</v>
       </c>
       <c r="C9" t="n">
-        <v>0.414830918005991</v>
+        <v>0.4206469846599415</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2108.658738627082</v>
+        <v>-2046.429827154632</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0133255080932474</v>
+        <v>0.01326537232882465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1038.157461656128</v>
+        <v>9858.768405066336</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7481508742683575</v>
+        <v>7.628146497719108e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9842.894418559717</v>
+        <v>2.607199876735361</v>
       </c>
       <c r="C12" t="n">
-        <v>9.120963590444325e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.90265710798991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8838511232203107</v>
+        <v>0.8951417718040524</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3780.549144785949</v>
+        <v>3674.466233972034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001580805754077357</v>
+        <v>0.001903885211167985</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.3717045789574</v>
+        <v>155.3702189084889</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002672712520987896</v>
+        <v>0.00209047530276401</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.60635983622973</v>
+        <v>41.0000798095019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3590589633012512</v>
+        <v>0.1963641228063385</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0843941780582227</v>
+        <v>-0.1251741416635175</v>
       </c>
       <c r="C5" t="n">
-        <v>0.374995683008735</v>
+        <v>0.09680161587873894</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.328932195487192e-05</v>
+        <v>6.536939314333683e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.214355754495781</v>
+        <v>0.2579908583566877</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.11852119447544</v>
+        <v>-12.12713922495747</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1889568325567853</v>
+        <v>0.1878037974769146</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.87079350208522</v>
+        <v>12.59761942708159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01115093882377105</v>
+        <v>0.01250754719539872</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1265.429007215011</v>
+        <v>-1225.101722578026</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3070018291655694</v>
+        <v>0.3211749466832522</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1523.97272609519</v>
+        <v>-1403.267235663306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04170621681497817</v>
+        <v>0.05325815371971232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1825.744993411275</v>
+        <v>9647.071516864897</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4832629495326347</v>
+        <v>3.156639968810717e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9581.932381115636</v>
+        <v>-9.170876466503842</v>
       </c>
       <c r="C12" t="n">
-        <v>4.4632683084872e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.390063392446869</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5662775024161122</v>
+        <v>0.5745699830575737</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2446.225921186179</v>
+        <v>2519.162991284413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06841747584802542</v>
+        <v>0.05778893210733246</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.381382155069</v>
+        <v>172.4445575024331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001538833684807035</v>
+        <v>0.001629728163868971</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.91336387625427</v>
+        <v>75.9416660499524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0178936170249846</v>
+        <v>0.01570095923634811</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1226241193549661</v>
+        <v>-0.1002418204542924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1639074171149828</v>
+        <v>0.152754833700653</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.772863530041546e-06</v>
+        <v>-4.345991600832586e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8770196813053317</v>
+        <v>0.9299248360986061</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3220783405656</v>
+        <v>-0.2988832940720094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9713309778310506</v>
+        <v>0.9733134030283199</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.34627246030224</v>
+        <v>15.50659035425774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005385179276290897</v>
+        <v>0.00470502058392695</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1455.584301504976</v>
+        <v>-1520.380516818854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2267056246471959</v>
+        <v>0.2017456923282632</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2592.078946611126</v>
+        <v>-2684.775668824609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006793508060215458</v>
+        <v>0.0002338862627117902</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1056.782830510303</v>
+        <v>7526.999731682863</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6722076208842949</v>
+        <v>7.655611623681233e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7536.543097478005</v>
+        <v>16.61742450956888</v>
       </c>
       <c r="C12" t="n">
-        <v>8.062426872560564e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>16.4814442866367</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3383424714994432</v>
+        <v>0.3328317687178145</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2142.595869262092</v>
+        <v>2222.371425358685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08970674391060371</v>
+        <v>0.07540656832308266</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.1382780580348</v>
+        <v>117.5260790638888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01985422801307607</v>
+        <v>0.02210204762468587</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.53139002901945</v>
+        <v>91.68960222189861</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004409729609393777</v>
+        <v>0.003312324990506509</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1048564258323481</v>
+        <v>-0.07931576109540292</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2204317922726229</v>
+        <v>0.2507959960345122</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.415899908166485e-05</v>
+        <v>1.726538997463983e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7753669190184898</v>
+        <v>0.7251662504469254</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.061854642093142</v>
+        <v>-2.798125970761365</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7323298348588427</v>
+        <v>0.7535461202806479</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.84570097332648</v>
+        <v>18.15639715559835</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0006816081315743429</v>
+        <v>0.0004890910954033467</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2080.284533774656</v>
+        <v>-2117.808293131983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1097523522962146</v>
+        <v>0.1020485044810823</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2098.327116193806</v>
+        <v>-2204.160342887825</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00499079355356761</v>
+        <v>0.002114756230315474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1293.567105631317</v>
+        <v>8439.177011517972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6102481541931076</v>
+        <v>6.389684940585469e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8470.388891629831</v>
+        <v>10.40504001489938</v>
       </c>
       <c r="C12" t="n">
-        <v>6.449077826852826e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10.37356427704397</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5354872321056503</v>
+        <v>0.5331197378005044</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4527.131965314986</v>
+        <v>4544.63143104418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001927981457816593</v>
+        <v>0.001668296006829817</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.3428338134455</v>
+        <v>60.78591904466592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3111974465662733</v>
+        <v>0.3120469243198937</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.66635626118126</v>
+        <v>76.30580466525473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03126475995081054</v>
+        <v>0.02328701778918442</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1103626254837345</v>
+        <v>-0.103090111389563</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3043742993375222</v>
+        <v>0.2150666073300554</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.508972811854102e-05</v>
+        <v>-1.375896965729977e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.794058696615128</v>
+        <v>0.8067877978802788</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.230611869100027</v>
+        <v>-8.216874503072251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4095503668374139</v>
+        <v>0.4085775768054405</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.89236012331493</v>
+        <v>10.92591727995042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07100233616483921</v>
+        <v>0.06875339682642441</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1411.34783539125</v>
+        <v>-1436.413317482791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32714973416494</v>
+        <v>0.310469523752071</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2513.410568433238</v>
+        <v>-2537.524315031273</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002178440066286833</v>
+        <v>0.001248818179222034</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>319.5666952737683</v>
+        <v>8457.179268920558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9143742566723707</v>
+        <v>5.884311141623083e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8464.674377728188</v>
+        <v>-4.93036958267453</v>
       </c>
       <c r="C12" t="n">
-        <v>6.473130696217584e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.89707879615699</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7933214075810266</v>
+        <v>0.7911755497634053</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2320.840005340905</v>
+        <v>2298.778513961074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07664677292682304</v>
+        <v>0.07591011166496078</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.5148858537711</v>
+        <v>137.2433305218336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0197715395167258</v>
+        <v>0.01817361811912769</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.048961920499</v>
+        <v>79.97170324830552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03050681668236261</v>
+        <v>0.01497020246178623</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1159344432417069</v>
+        <v>-0.1226445314610424</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1974346281178764</v>
+        <v>0.09654357557057978</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.163280204111202e-06</v>
+        <v>1.104341707721399e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9667900177962705</v>
+        <v>0.9827719121919898</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8456708953190644</v>
+        <v>0.7869323770473571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9267930886278101</v>
+        <v>0.9315345525184071</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.85158264812829</v>
+        <v>15.80741292051613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002121839763169029</v>
+        <v>0.002054891755833982</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1741.539593083214</v>
+        <v>-1723.837272655935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1575229248168798</v>
+        <v>0.1577115680938064</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2377.643769680543</v>
+        <v>-2347.074464775211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002423505866148605</v>
+        <v>0.001643056157614546</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-325.07890844538</v>
+        <v>9438.557172835051</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8955094058601745</v>
+        <v>1.70724512486562e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9427.532733689739</v>
+        <v>12.00200161569453</v>
       </c>
       <c r="C12" t="n">
-        <v>2.142055193320556e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.05727239924158</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4940365978857284</v>
+        <v>0.4943107074375979</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3782.474005753018</v>
+        <v>3746.378798755115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005708437607948795</v>
+        <v>0.005786262552575225</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.22951326640356</v>
+        <v>85.03824781187335</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1393565266516015</v>
+        <v>0.1272825712430413</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.28911103159409</v>
+        <v>53.49109177866974</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1821987296204243</v>
+        <v>0.1135136441538161</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07097856840428965</v>
+        <v>-0.09246123425403395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.524483097654254</v>
+        <v>0.2602672147584303</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.583346062547671e-07</v>
+        <v>-2.374121433321103e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9934212134748189</v>
+        <v>0.9655643615989515</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.320808936989827</v>
+        <v>-5.290434837344243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5876855153316527</v>
+        <v>0.5885190680206691</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.47354075002418</v>
+        <v>15.29832048903645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00508014203039217</v>
+        <v>0.005142820830145187</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2107.146748796783</v>
+        <v>-2090.652133090566</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1524657300869564</v>
+        <v>0.1539456127171704</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2313.598541022571</v>
+        <v>-2258.599510193589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004669034176249063</v>
+        <v>0.004323092704969921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-884.9556607681898</v>
+        <v>9665.264898562218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7752240260883517</v>
+        <v>5.281585779296662e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9661.251609378949</v>
+        <v>-6.214936071068177</v>
       </c>
       <c r="C12" t="n">
-        <v>6.044099344670166e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.258076605313969</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7345307714267277</v>
+        <v>0.7354119825125145</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4289.010519834424</v>
+        <v>4248.3094360021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001392215935105485</v>
+        <v>0.001405620902522175</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.0886198896379</v>
+        <v>148.8634588862587</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00670694132607595</v>
+        <v>0.006199548764256073</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56296510101371</v>
+        <v>23.70491786046853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5953167183479091</v>
+        <v>0.4876954581741654</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1437992665690352</v>
+        <v>-0.1617364156348323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1357079856936877</v>
+        <v>0.03440910985494024</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.986828748147428e-05</v>
+        <v>8.688336799940748e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1572839066420251</v>
+        <v>0.1649345797012407</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.403846448976285</v>
+        <v>-8.74315718657024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3947137764570986</v>
+        <v>0.3713238933857745</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.20905149283367</v>
+        <v>14.11439352088955</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008725859922245659</v>
+        <v>0.008827062011082321</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1817.466423413389</v>
+        <v>-1797.400394821733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1626640491309872</v>
+        <v>0.1653514847428174</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2091.439864224946</v>
+        <v>-1999.21751300558</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01905873323834107</v>
+        <v>0.01680763384644528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-845.5343888852467</v>
+        <v>7489.605864925558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7592196008812717</v>
+        <v>8.549748393845501e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7418.656688257524</v>
+        <v>-6.907485190954191</v>
       </c>
       <c r="C12" t="n">
-        <v>1.325537898232106e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.562023507690263</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7102676011082298</v>
+        <v>0.6941952630771608</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4388.410864614598</v>
+        <v>4464.895674229701</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005252352566186438</v>
+        <v>0.004108801898098058</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.78857359315667</v>
+        <v>95.64219446364569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07529348440269981</v>
+        <v>0.08071032492382907</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.030327172717</v>
+        <v>53.85373263826231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1085316912922913</v>
+        <v>0.1105667404710749</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0688482573502798</v>
+        <v>-0.04684561802914722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49924274036261</v>
+        <v>0.579605816484003</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.677221211888297e-05</v>
+        <v>-7.073376126812168e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2562956602256723</v>
+        <v>0.2809568471003235</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.92173469859003</v>
+        <v>-11.79568131434992</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2315673310824768</v>
+        <v>0.2347959251827043</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.17958214819249</v>
+        <v>10.35266067192912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1623743350091691</v>
+        <v>0.1533421520306918</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-500.8111737932768</v>
+        <v>-627.7910924291868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7321950553946488</v>
+        <v>0.6589931441101468</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2203.367778247487</v>
+        <v>-2301.228074451516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006895205704433577</v>
+        <v>0.002969196437458441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1266.384191557868</v>
+        <v>8425.408257169518</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6963421537418941</v>
+        <v>2.051691635236791e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8403.524935454128</v>
+        <v>-2.981719255058575</v>
       </c>
       <c r="C12" t="n">
-        <v>2.364176517641727e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-3.051426859675004</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8667838723259847</v>
+        <v>0.869387597586665</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2741.157442388907</v>
+        <v>2786.83275334057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04109328239774324</v>
+        <v>0.03661547558877334</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.31728587441017</v>
+        <v>92.75530942433718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09124349727119598</v>
+        <v>0.09851471273590406</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.51618863486216</v>
+        <v>87.21382234166173</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01105879966604164</v>
+        <v>0.009853937794606443</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09307567801180987</v>
+        <v>-0.07275148930824958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3178609004441774</v>
+        <v>0.35107607688534</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.275012387275863e-05</v>
+        <v>-1.803839103917145e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6981371276693791</v>
+        <v>0.7528957879727551</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.814289537347314</v>
+        <v>-6.728916395543532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4911370049610094</v>
+        <v>0.4951383338675497</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.19536883073999</v>
+        <v>17.46291819785747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004549832046168592</v>
+        <v>0.003653707667895593</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-789.3798280883484</v>
+        <v>-853.5529364423637</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5512905244352542</v>
+        <v>0.515099997210696</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2253.043954859279</v>
+        <v>-2317.802135088575</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003030509451328553</v>
+        <v>0.001764833101289221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1031.954909856001</v>
+        <v>10068.0128990659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.687171642929421</v>
+        <v>1.086956858864812e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10114.94033853862</v>
+        <v>1.43044821101789</v>
       </c>
       <c r="C12" t="n">
-        <v>1.132249260529963e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.123194014955111</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9506518183915071</v>
+        <v>0.9369273216390051</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3998.212490289641</v>
+        <v>3982.211940706997</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002363672627292222</v>
+        <v>0.002250335598655921</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.4716689784503</v>
+        <v>143.1505399000239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01329628715791094</v>
+        <v>0.0121322249542509</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.1317239347721</v>
+        <v>39.84911639810943</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3250307529731973</v>
+        <v>0.2676520535684493</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07828028474494603</v>
+        <v>-0.08538066095403973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4216984580145809</v>
+        <v>0.2718080665009096</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.674437991850823e-06</v>
+        <v>-6.713981827436561e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9155705664145795</v>
+        <v>0.8985151367354153</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.479567586468027</v>
+        <v>-8.524803073340731</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3809405403449044</v>
+        <v>0.376305487029127</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.51469886230873</v>
+        <v>15.45654265501307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004033257409239059</v>
+        <v>0.003888839338516784</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-923.4911822350962</v>
+        <v>-910.7279226624809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4675864947940257</v>
+        <v>0.4706036265229193</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2298.009429163706</v>
+        <v>-2271.58830643548</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006597529473132248</v>
+        <v>0.005273496260162601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-332.2318461578807</v>
+        <v>8967.553228163764</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9032970005137171</v>
+        <v>7.802164880063799e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8946.339331989118</v>
+        <v>-14.94147361127357</v>
       </c>
       <c r="C12" t="n">
-        <v>1.086510522931048e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-14.8430374520139</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3987421212086943</v>
+        <v>0.3933901218167621</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3027.532269433455</v>
+        <v>2983.67868670088</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05380637253209101</v>
+        <v>0.05669007830796954</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.87753448373</v>
+        <v>131.4964768596142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01800956377516225</v>
+        <v>0.01445102923800632</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.35061498747518</v>
+        <v>54.54679113183674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2206861354246372</v>
+        <v>0.1166199944168594</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03137587895156771</v>
+        <v>-0.07935577478098658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7639468476971585</v>
+        <v>0.3252563786276993</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.752553328144669e-05</v>
+        <v>2.979048398832819e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5682005129989078</v>
+        <v>0.6454364769857355</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.772187724381569</v>
+        <v>-9.891166625909595</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3223289666113276</v>
+        <v>0.3155631062013165</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.37084278594612</v>
+        <v>16.00018375215576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01054724508584793</v>
+        <v>0.01195572822805</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1602.333248386648</v>
+        <v>-1596.118662518779</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2890013494746567</v>
+        <v>0.2899984648659111</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2395.509024424902</v>
+        <v>-2231.25944191506</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00418334150091833</v>
+        <v>0.005386398488382996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2044.641079168266</v>
+        <v>10912.03030582318</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4701818093695982</v>
+        <v>4.20599024511984e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10891.86093565058</v>
+        <v>0.8452654816944545</v>
       </c>
       <c r="C12" t="n">
-        <v>4.802617666242284e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1.741241248789109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9261857996612789</v>
+        <v>0.9639859981577288</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3265.811714211421</v>
+        <v>3321.45586256764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01481027941010269</v>
+        <v>0.01250103477323142</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.47532015565456</v>
+        <v>77.06385393431192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1547833947852792</v>
+        <v>0.1601988500837611</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.56645602594421</v>
+        <v>57.56242149786024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06996833197836112</v>
+        <v>0.07065705173879938</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1452641441422612</v>
+        <v>-0.1176908580710529</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1488840285894292</v>
+        <v>0.1186531172103052</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.743025050562015e-05</v>
+        <v>-1.37816857345475e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7419983099175891</v>
+        <v>0.7911906887533602</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.055728674573012</v>
+        <v>-3.090521133685943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7538144291196385</v>
+        <v>0.7503531552345728</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.60740643232779</v>
+        <v>19.73922753400709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003285503281624362</v>
+        <v>0.002964963108854066</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1570.611325647344</v>
+        <v>-1628.318096172237</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2283877597213282</v>
+        <v>0.2078494797830316</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2213.575555666677</v>
+        <v>-2303.360384409355</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004509234505542695</v>
+        <v>0.002065332766845221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.308035740661</v>
+        <v>9991.523084534021</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6769301113964172</v>
+        <v>3.991814070645551e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10046.38012767874</v>
+        <v>-6.927812199560378</v>
       </c>
       <c r="C12" t="n">
-        <v>4.289725801533929e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.35563912657301</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6901931896892832</v>
+        <v>0.7060512154839879</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2951.09790227541</v>
+        <v>3051.32186667115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02418733737601697</v>
+        <v>0.01823071647046095</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.0959585878983</v>
+        <v>114.3378668963281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02839203718077263</v>
+        <v>0.03253510862730419</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.20002033742425</v>
+        <v>70.90831045969125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02604568879331282</v>
+        <v>0.02531547275843995</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07109038599688361</v>
+        <v>-0.05137762127519821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4347353009560739</v>
+        <v>0.5337785773421635</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.169752836739849e-05</v>
+        <v>-5.72639994702974e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.318265528646006</v>
+        <v>0.3482934857910904</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.82790167971832</v>
+        <v>-6.95405711041043</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4129492966922818</v>
+        <v>0.4587723058817299</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.14427686875606</v>
+        <v>13.54653495533421</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01163554850564261</v>
+        <v>0.008433158561527853</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-736.7689505473661</v>
+        <v>-821.7201331809581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5650965202457277</v>
+        <v>0.5166719945052307</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1949.50943419645</v>
+        <v>-2060.050330376484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008923663159537932</v>
+        <v>0.003917650826795744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1608.248131100107</v>
+        <v>6400.858324132579</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6010672491727824</v>
+        <v>0.0001460135215482771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6350.240047578967</v>
+        <v>17.019744825337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001748837353826629</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.62720639321818</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2995986174029631</v>
+        <v>0.3140616300195046</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4286.391935955126</v>
+        <v>4275.320270214276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006121474269113297</v>
+        <v>0.005706063206724767</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.16213754144127</v>
+        <v>95.56497932533208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1009609490675056</v>
+        <v>0.09598698356415535</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.2716451082335</v>
+        <v>35.1980767896556</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3763001947673813</v>
+        <v>0.3191390424643311</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1363185760720334</v>
+        <v>-0.13943538094507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1518678403212579</v>
+        <v>0.07787477314891017</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.693300681991899e-06</v>
+        <v>2.943114419903418e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9525730317641863</v>
+        <v>0.9612485478450725</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.477874903838416</v>
+        <v>-4.515382664692188</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6558279691826966</v>
+        <v>0.65128475491474</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.69139250138988</v>
+        <v>12.6696691983141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04844315019286867</v>
+        <v>0.04762781173823285</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2217.653648700456</v>
+        <v>-2204.107023223985</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1218233191141413</v>
+        <v>0.1179498696549483</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2601.462310046597</v>
+        <v>-2586.300565568064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003939433901900633</v>
+        <v>0.002700574566990152</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-160.3818519139504</v>
+        <v>9331.691523549951</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9526240049136391</v>
+        <v>1.484074703080689e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9324.849353592985</v>
+        <v>-1.231424086917201</v>
       </c>
       <c r="C12" t="n">
-        <v>1.855066621669357e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-1.189656672761274</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9511803103082344</v>
+        <v>0.9492474298956601</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3793.972024097877</v>
+        <v>3845.482890096702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005344275131088255</v>
+        <v>0.004255893153881982</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.76730809231918</v>
+        <v>94.67818947411999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1035021673756439</v>
+        <v>0.1070238026307032</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.36078138680482</v>
+        <v>73.39516747486552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03585455501936448</v>
+        <v>0.03007626289158723</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1410017461841929</v>
+        <v>-0.1256090721376523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1449612889823766</v>
+        <v>0.1114702376120741</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.51182424122902e-06</v>
+        <v>-3.041970165641976e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9170088307370043</v>
+        <v>0.9602406542368438</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.042981459925812</v>
+        <v>-1.96974596042973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8351444121098996</v>
+        <v>0.8403789456822165</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.88990419766112</v>
+        <v>11.99426124034443</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03329671953672193</v>
+        <v>0.03084223104365914</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1785.803275860804</v>
+        <v>-1849.168474480933</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2045979145917446</v>
+        <v>0.1817330448383062</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2562.744557213836</v>
+        <v>-2629.324880971007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002428725368414222</v>
+        <v>0.001145155253278562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>749.7632235904537</v>
+        <v>8951.809784563331</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7812618315164044</v>
+        <v>4.571314669397491e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8973.382732673366</v>
+        <v>1.08669516505816</v>
       </c>
       <c r="C12" t="n">
-        <v>4.922634137123933e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9853725347298905</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9570895853170138</v>
+        <v>0.9525110514077577</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4349.8732832814</v>
+        <v>4325.532828680183</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005889378672996577</v>
+        <v>0.00581397417385817</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.7140425705495</v>
+        <v>114.9138022104019</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05086897215568825</v>
+        <v>0.0463672717709103</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44876647964082</v>
+        <v>67.05407353137244</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09610346895027029</v>
+        <v>0.06285079665420436</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05625483801813469</v>
+        <v>-0.06846778280967508</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5887330577609302</v>
+        <v>0.3976160730734135</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.563446860336536e-05</v>
+        <v>-1.733872587916444e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7814949489722184</v>
+        <v>0.7544411171118202</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.902987597860516</v>
+        <v>-6.88769581362039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4874144248426447</v>
+        <v>0.4867962290778611</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.76436813368488</v>
+        <v>11.66068313804546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06764897865907325</v>
+        <v>0.06804733203240908</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1553.131395365439</v>
+        <v>-1531.094273546229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2665511426159285</v>
+        <v>0.2699429141815597</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2886.878231241946</v>
+        <v>-2850.926008973433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0005990867028011361</v>
+        <v>0.0004735517964108456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-535.8867453522007</v>
+        <v>8525.753305120361</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8510985640171876</v>
+        <v>1.398811831826425e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8538.527061645607</v>
+        <v>-6.366993221532049</v>
       </c>
       <c r="C12" t="n">
-        <v>1.502883118359066e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-6.435230025360536</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7351245368804304</v>
+        <v>0.7368714832399512</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3578.879022831371</v>
+        <v>3640.68131471776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009399546838319223</v>
+        <v>0.007699583018891544</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.8336507493526</v>
+        <v>72.39516109569124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1754937458272701</v>
+        <v>0.1893692017778849</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.53821316931687</v>
+        <v>57.20216809620101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08851492922825024</v>
+        <v>0.09088673791803373</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1471631652593102</v>
+        <v>-0.1247755878711314</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1319226170731355</v>
+        <v>0.1222954891048913</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.946379268976115e-05</v>
+        <v>-3.484604980239738e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5405516914118865</v>
+        <v>0.581958249729126</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.703926042726536</v>
+        <v>1.964072060525439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8655165842825073</v>
+        <v>0.8444521378289334</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.54187847025253</v>
+        <v>17.80463494432001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008136984778203116</v>
+        <v>0.006812586552185688</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2181.075432891298</v>
+        <v>-2256.140845329543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.126467921895638</v>
+        <v>0.1099768809772674</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2374.825065638666</v>
+        <v>-2470.802256812874</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003956792729778801</v>
+        <v>0.001740378832143944</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1166.360124487933</v>
+        <v>10016.80529712871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.680694405336405</v>
+        <v>4.395409188366127e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10021.30435115942</v>
+        <v>-12.53819716006405</v>
       </c>
       <c r="C12" t="n">
-        <v>4.788357283272255e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-12.63642227212827</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4746472856699614</v>
+        <v>0.4766769495903596</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2840.167427174286</v>
+        <v>2785.906173827092</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03548399505223123</v>
+        <v>0.03616221616681178</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.7796315523863</v>
+        <v>143.9393074682596</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01710634855943266</v>
+        <v>0.01420963464748925</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.73487962099205</v>
+        <v>68.89977267807878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08444846918944716</v>
+        <v>0.04220840724855617</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07301818967645651</v>
+        <v>-0.0882286020622854</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4537167386493032</v>
+        <v>0.2591208816649913</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.346486104906631e-06</v>
+        <v>1.732092621926706e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9525046495574265</v>
+        <v>0.9751719239977918</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.960402614241307</v>
+        <v>-6.035086982807076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5455533831437862</v>
+        <v>0.5389613731388045</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.20328559662081</v>
+        <v>15.09831601563141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008530723041486995</v>
+        <v>0.00858881423264935</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1017.838000151806</v>
+        <v>-976.4734850791315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4538531278576725</v>
+        <v>0.4678278650511406</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2101.398050322488</v>
+        <v>-2034.855210006318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01449792308051922</v>
+        <v>0.01285464344798983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-753.1072872813979</v>
+        <v>8787.564666996492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7927847518905711</v>
+        <v>2.019114933457399e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8754.500171306374</v>
+        <v>8.501742095568972</v>
       </c>
       <c r="C12" t="n">
-        <v>2.638943266071441e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.702755728372814</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6568217066758952</v>
+        <v>0.6629142419731416</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3821.138617345863</v>
+        <v>3787.597831944562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004705155551575028</v>
+        <v>0.004815981250696531</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.3126190273212</v>
+        <v>127.3466268097041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02815630856790181</v>
+        <v>0.02447285338440205</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.88756197773598</v>
+        <v>52.15519358794099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1924244329033957</v>
+        <v>0.1302448036780878</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07216643023475386</v>
+        <v>-0.09346754532231594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4864192113715496</v>
+        <v>0.2585856786202774</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.26914812667641e-05</v>
+        <v>5.822796406644465e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3317460177294766</v>
+        <v>0.3556408165766985</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.52244684764443</v>
+        <v>-16.54130563289843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.110498667676242</v>
+        <v>0.1089301880995275</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.69142114957808</v>
+        <v>14.57854828057688</v>
       </c>
       <c r="C8" t="n">
-        <v>0.006775003334305047</v>
+        <v>0.006907306279769448</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-391.2423894625272</v>
+        <v>-350.6605020269017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7691741172130918</v>
+        <v>0.7910588301007337</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1738.657338669643</v>
+        <v>-1670.388404737244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03064200112316552</v>
+        <v>0.03137000995985764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-976.1697064563377</v>
+        <v>8099.765585930332</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7322276520629123</v>
+        <v>2.16129510668147e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8057.977598308419</v>
+        <v>-5.574265105025788</v>
       </c>
       <c r="C12" t="n">
-        <v>2.76233255658267e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-5.107763367685152</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7792133167667092</v>
+        <v>0.7582311471609554</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2912.237257235378</v>
+        <v>2976.441951684187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01897090990675587</v>
+        <v>0.01573770286002177</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.1137159608839</v>
+        <v>113.340770598866</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02319611460044191</v>
+        <v>0.02464708184310546</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.62809187489358</v>
+        <v>46.54387751888792</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1029006570272175</v>
+        <v>0.11915130961945</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1681637452090981</v>
+        <v>-0.1422602144233104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05552417961681761</v>
+        <v>0.04908327324221846</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.626611268711785e-06</v>
+        <v>1.04469843776728e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9184041000059258</v>
+        <v>0.8466254002387161</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.158585792523265</v>
+        <v>-3.78208702231905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6254123687835542</v>
+        <v>0.6550170673080598</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.17348883316439</v>
+        <v>15.40489034178546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002051669516738857</v>
+        <v>0.001637614847156191</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2044.10638358351</v>
+        <v>-2092.150364874956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09865530207440625</v>
+        <v>0.08931822654236646</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2071.621053256275</v>
+        <v>-2188.469243817403</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004649852207786019</v>
+        <v>0.001683609879084995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1296.009861227803</v>
+        <v>9750.258935398046</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5993807765889678</v>
+        <v>5.967051340809827e-11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9830.537560822911</v>
+        <v>9.921440250043528</v>
       </c>
       <c r="C12" t="n">
-        <v>6.242943186338518e-11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9.568027738548842</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5522239811097174</v>
+        <v>0.5362125556722775</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3790.236944928556</v>
+        <v>3760.698719296528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002979680057050567</v>
+        <v>0.002775964775951437</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.2194488181705</v>
+        <v>142.7957861657696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01064839659140159</v>
+        <v>0.009902792032216588</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.7032588067412</v>
+        <v>35.75396172574134</v>
       </c>
       <c r="C4" t="n">
-        <v>0.338518868013002</v>
+        <v>0.2718980010557172</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1340804385272948</v>
+        <v>-0.1427651312504263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1547832246573459</v>
+        <v>0.0592761675376984</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.824676389118011e-05</v>
+        <v>5.607375362244553e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3496429859990789</v>
+        <v>0.353704929357713</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.516292780514487</v>
+        <v>-8.476666256299058</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3601138974959347</v>
+        <v>0.3604181668643642</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.60959964706897</v>
+        <v>12.5695777138545</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01757055594358285</v>
+        <v>0.01737859597129927</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1562.375800515752</v>
+        <v>-1546.588957247143</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2318040640070373</v>
+        <v>0.2334082789919673</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2062.648818770371</v>
+        <v>-2032.476024012856</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00730716020423268</v>
+        <v>0.006092590233211689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-411.7396735297898</v>
+        <v>8907.973100755311</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8764056954294921</v>
+        <v>4.31018724818829e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8871.605516775768</v>
+        <v>0.6611474749544612</v>
       </c>
       <c r="C12" t="n">
-        <v>6.553701525101611e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6633617244940453</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9683637284130022</v>
+        <v>0.9683543172437868</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4399.11884316649</v>
+        <v>4342.718840820405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003447301203823276</v>
+        <v>0.003477812683137361</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.2836474896853</v>
+        <v>151.3314958847436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008424285196608334</v>
+        <v>0.006950255932468358</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.31584268380917</v>
+        <v>76.4534569809845</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04925627488586996</v>
+        <v>0.02418070334864546</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07369072583040126</v>
+        <v>-0.09303846377010233</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4658906391307732</v>
+        <v>0.2252134951187443</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.791128883091463e-06</v>
+        <v>3.219236710928308e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9590756190087579</v>
+        <v>0.9952045899325821</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.060470282350837</v>
+        <v>-2.038760989980089</v>
       </c>
       <c r="C7" t="n">
-        <v>0.831223442949798</v>
+        <v>0.8324089505186244</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.32061858790824</v>
+        <v>11.21439797949312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0599743807211101</v>
+        <v>0.06102957865354956</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1727.641593939386</v>
+        <v>-1682.97663764192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2081632644730871</v>
+        <v>0.2157100631444943</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2658.022106418382</v>
+        <v>-2595.74574130535</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000942942253961312</v>
+        <v>0.0007741902257707333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-816.3733292454208</v>
+        <v>9637.049007436712</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7679824516459337</v>
+        <v>4.113181401500594e-09</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9625.095092372421</v>
+        <v>-23.74250673581263</v>
       </c>
       <c r="C12" t="n">
-        <v>4.88130601144691e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.88986904706745</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2063718117183844</v>
+        <v>0.2074591733283122</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2690.70334319526</v>
+        <v>2716.856862440467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03799652350266364</v>
+        <v>0.03598471160827164</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.12615621138318</v>
+        <v>63.18911103607735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1722694277494567</v>
+        <v>0.2020440959391884</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.5824966110368</v>
+        <v>72.16117492131312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01048202466141501</v>
+        <v>0.01581077219660495</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09387986126154059</v>
+        <v>-0.05455670206388755</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2809504016616111</v>
+        <v>0.4646334789079446</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.068264317353946e-05</v>
+        <v>-6.104345289941723e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2281230308307386</v>
+        <v>0.2886845555318551</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.053781552135172</v>
+        <v>-6.728879230288973</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4288066448772249</v>
+        <v>0.5033867932330416</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38943061892219</v>
+        <v>22.21459480933948</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007808270269996185</v>
+        <v>0.0004236409184538777</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-963.8925810030723</v>
+        <v>-1065.256414406131</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4353604378269199</v>
+        <v>0.3863110160611721</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1773.985496088523</v>
+        <v>-1961.829481304934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01904410515236447</v>
+        <v>0.006979285492266839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2163.538418123112</v>
+        <v>8579.780237320243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3780294503479629</v>
+        <v>3.243984869201994e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8566.788792715031</v>
+        <v>0.2068215255140817</v>
       </c>
       <c r="C12" t="n">
-        <v>3.470376733672137e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-0.06119525852865237</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9969947177830323</v>
+        <v>0.9898331900887571</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3344.832147908751</v>
+        <v>3325.558871652001</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01922021437917868</v>
+        <v>0.01879073975271083</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.0342896039383</v>
+        <v>75.3751286607491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2145400999756013</v>
+        <v>0.1976624156514896</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.49342048041266</v>
+        <v>60.3737758252014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1335215945210347</v>
+        <v>0.09335072614478554</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09656551521895207</v>
+        <v>-0.1044659178027376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3746311145187063</v>
+        <v>0.241400175975482</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.459033039269178e-05</v>
+        <v>-2.532523463833958e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6693293858584237</v>
+        <v>0.6572967479221927</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.053759966050084</v>
+        <v>-8.06885870744088</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4196497927710147</v>
+        <v>0.4170520587214193</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.952939216226</v>
+        <v>14.91543175987023</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008512708990358416</v>
+        <v>0.008346999106655416</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1007.630436671351</v>
+        <v>-991.880013160355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4769547357016781</v>
+        <v>0.4805959102915606</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2283.647833049975</v>
+        <v>-2253.870839424027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.007311127915971377</v>
+        <v>0.005715806417852799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-404.0349603246996</v>
+        <v>8588.090645436861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8983666637273586</v>
+        <v>4.008315490431496e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8579.202761641083</v>
+        <v>12.21817902219335</v>
       </c>
       <c r="C12" t="n">
-        <v>4.628356136170139e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12.46591924645035</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5260521586448808</v>
+        <v>0.5307986377201268</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4480.30201134585</v>
+        <v>4481.156123015141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009144931535162807</v>
+        <v>0.000807334149905342</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.847571060691</v>
+        <v>117.8085027449936</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03861816428574708</v>
+        <v>0.03650857880903888</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.85274452433926</v>
+        <v>40.77355016580841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2649476664219964</v>
+        <v>0.2254295096306203</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1298915480455571</v>
+        <v>-0.1295801381057826</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1843823869139458</v>
+        <v>0.1049043626017956</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.658603372584906e-05</v>
+        <v>7.66268813547742e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2430106639681167</v>
+        <v>0.2380468234847613</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.39770712684026</v>
+        <v>-15.39185735689318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1249436129083068</v>
+        <v>0.1216204825008607</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.40294381766049</v>
+        <v>12.40583555686236</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02465128268988884</v>
+        <v>0.02346533893833263</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1147.165924503591</v>
+        <v>-1147.646540039455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3859120062517591</v>
+        <v>0.3829342754449416</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1529.391640493035</v>
+        <v>-1530.859289782929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0725265474911452</v>
+        <v>0.05772504376159142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.15769227661167</v>
+        <v>7817.635761140867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.995567215422882</v>
+        <v>2.997317027632701e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7818.505185158162</v>
+        <v>-11.29695101447307</v>
       </c>
       <c r="C12" t="n">
-        <v>3.584803091532775e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.29976641935693</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5400173534721125</v>
+        <v>0.5384624362783509</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3328.511083676743</v>
+        <v>3262.239017905933</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01781448228501869</v>
+        <v>0.01863885358872482</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.067769258311</v>
+        <v>127.5029053119305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03615095625779549</v>
+        <v>0.03098439514031873</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.74883655076377</v>
+        <v>50.09844497231184</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2834002758125919</v>
+        <v>0.1682555490671196</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08143299403108877</v>
+        <v>-0.1017190591634553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4178129918556677</v>
+        <v>0.2124359446158003</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.339353109252984e-05</v>
+        <v>9.645781366516831e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8343119435915788</v>
+        <v>0.8781318702306496</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.859001744938332</v>
+        <v>-4.065402488912691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.692842501800973</v>
+        <v>0.6757664991618015</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.06308356008249</v>
+        <v>14.87420173556878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009325284977643638</v>
+        <v>0.00965518418202614</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1662.46531157113</v>
+        <v>-1600.37980611989</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2437128767614545</v>
+        <v>0.256349607984824</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2710.121991349118</v>
+        <v>-2619.374414918714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002256956080734744</v>
+        <v>0.001915480366976007</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1033.541743444049</v>
+        <v>9174.625329913493</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7286206549833382</v>
+        <v>4.494561418877833e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9136.68564213076</v>
+        <v>6.263935569120591</v>
       </c>
       <c r="C12" t="n">
-        <v>5.944224957904768e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>6.485159409742565</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7315543308049715</v>
+        <v>0.7394128775907161</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4053.096009937573</v>
+        <v>4087.105080773554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002849849940484695</v>
+        <v>0.002491483145920842</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.95198193271941</v>
+        <v>86.80472329950877</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1304317744442349</v>
+        <v>0.1366914360956335</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.67008193435846</v>
+        <v>42.67118744962531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1921323356856853</v>
+        <v>0.2071191784913343</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1258472691410564</v>
+        <v>-0.1059295822145521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1998486618917404</v>
+        <v>0.1948726171005468</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.242718059863546e-06</v>
+        <v>1.150696602807686e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9078084856733222</v>
+        <v>0.8510441037926854</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.37543012023234</v>
+        <v>-12.01006695439363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2333241476580908</v>
+        <v>0.2436748863754024</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.59850266869455</v>
+        <v>15.80518622901449</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004637305590682757</v>
+        <v>0.003830626376940647</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1514.226671813897</v>
+        <v>-1569.709414272296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2808425058837051</v>
+        <v>0.2593966190938239</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2005.086707017716</v>
+        <v>-2092.666332480059</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01633886683060895</v>
+        <v>0.008815074969756035</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1018.68374256774</v>
+        <v>9484.212121998611</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71148480422078</v>
+        <v>1.059246885106645e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9539.32877601363</v>
+        <v>-9.518441267304553</v>
       </c>
       <c r="C12" t="n">
-        <v>1.138473449772117e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-10.00791083861068</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5872530471465697</v>
+        <v>0.6035490527747041</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5291.826165803303</v>
+        <v>5273.898250195251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001728468642754833</v>
+        <v>0.0001525395272802255</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.0378434044292</v>
+        <v>108.9454412136779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06186446837527261</v>
+        <v>0.05583836583748972</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.41533155717121</v>
+        <v>53.00579336650043</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1809161173143426</v>
+        <v>0.1302055528764286</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1037362280380922</v>
+        <v>-0.1099149568935509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3081188843709816</v>
+        <v>0.178421254637817</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.289800256667632e-06</v>
+        <v>6.625983260824078e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.894955167939508</v>
+        <v>0.903455276578392</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.705802847935546</v>
+        <v>-6.750209140579269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5116692276780588</v>
+        <v>0.5069328566002167</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.48628892460451</v>
+        <v>10.41972229520076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06686434141704192</v>
+        <v>0.06580439043107729</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2101.898835656353</v>
+        <v>-2090.944632612964</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1139224204410054</v>
+        <v>0.1132850432253362</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2590.133528476061</v>
+        <v>-2571.332408949594</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001480115310374153</v>
+        <v>0.001146900259837669</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-299.2759476683682</v>
+        <v>7922.417942053492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9184696959249807</v>
+        <v>3.136273207850059e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7910.421906657821</v>
+        <v>-20.04746523875376</v>
       </c>
       <c r="C12" t="n">
-        <v>3.708817461097601e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-20.06982292437168</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.289071133351662</v>
+        <v>0.2877940069484947</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1609.472096587343</v>
+        <v>1572.937916107404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.23312211958854</v>
+        <v>0.2418533723680853</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.97100671768673</v>
+        <v>74.37800552515098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2212304307223142</v>
+        <v>0.1956599278092104</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.64078863456908</v>
+        <v>95.24422486271391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01747829328429785</v>
+        <v>0.006334366384981598</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.043093110345687</v>
+        <v>-0.07640539054844404</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6781196390386597</v>
+        <v>0.3392904848841716</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.906831312860273e-05</v>
+        <v>-3.26488242677025e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.584554359154806</v>
+        <v>0.5344166541726127</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2048354037051254</v>
+        <v>0.3258619298761367</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9831764905143394</v>
+        <v>0.9731567500009295</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.95813521922155</v>
+        <v>22.67362595478779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003133340051613667</v>
+        <v>0.0003362741348954283</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-762.0969945838769</v>
+        <v>-732.1651997136769</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5584653394216794</v>
+        <v>0.572535106122916</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2612.256035580229</v>
+        <v>-2521.513756389644</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001169905901264113</v>
+        <v>0.001244908833038128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1358.684121517574</v>
+        <v>11388.4204758268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6143548905417525</v>
+        <v>1.418789509138176e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11378.00476402016</v>
+        <v>8.08071670821877</v>
       </c>
       <c r="C12" t="n">
-        <v>1.661677295146773e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.663793749858224</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6286099064224534</v>
+        <v>0.6502890592512354</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3524.682490081531</v>
+        <v>3521.9537160225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006872077592224653</v>
+        <v>0.006159307915544742</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4209249930254</v>
+        <v>127.4952795896711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01802472297201421</v>
+        <v>0.01703752188180736</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.88523077420786</v>
+        <v>34.09297417675512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3433989654995269</v>
+        <v>0.2971221189998575</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1234613977845622</v>
+        <v>-0.1242317548704379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1651147735324063</v>
+        <v>0.08184819419231583</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.347332320314074e-06</v>
+        <v>-6.502501623139849e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9049722534637088</v>
+        <v>0.9003049106124036</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.787330993924341</v>
+        <v>-4.790560113608628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5817961510016026</v>
+        <v>0.5800187542602162</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.644576029075</v>
+        <v>12.64064038064851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01481282102518379</v>
+        <v>0.01434456511529791</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1403.264267204328</v>
+        <v>-1400.172047523505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.293633090230072</v>
+        <v>0.2867864821543955</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2375.267322010375</v>
+        <v>-2371.821738297996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002445807068888759</v>
+        <v>0.001450844197725806</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.07279330732854</v>
+        <v>9962.264417498991</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9883356809412271</v>
+        <v>2.279846428360023e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9961.348582918217</v>
+        <v>5.922229181843974</v>
       </c>
       <c r="C12" t="n">
-        <v>2.750177925091641e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.924961266015313</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7263709663209567</v>
+        <v>0.7255022650812282</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2680.239806903687</v>
+        <v>2795.611424970222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06651793570429258</v>
+        <v>0.05357719071952267</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.0163350857098</v>
+        <v>129.2864114491125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.010572319382523</v>
+        <v>0.01220902949000081</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.88065931527181</v>
+        <v>71.47033306492976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01958872994177983</v>
+        <v>0.02340778802951432</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0646559926012243</v>
+        <v>-0.02905232885583239</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5143136138366681</v>
+        <v>0.7277906793248988</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.99410064616813e-05</v>
+        <v>-6.604336521895252e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3548670643417586</v>
+        <v>0.429885919147123</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.11921058327292</v>
+        <v>-6.74284197448954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4593182515486363</v>
+        <v>0.4817103538521114</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.68141335645116</v>
+        <v>15.84944132787626</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01359553504298626</v>
+        <v>0.01239324460883197</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1413.62604322345</v>
+        <v>-1518.775597629271</v>
       </c>
       <c r="C9" t="n">
-        <v>0.295822699519191</v>
+        <v>0.2573029034175665</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1924.712279835639</v>
+        <v>-2102.041740177215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01841053984361752</v>
+        <v>0.006507955537428172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2063.345300321197</v>
+        <v>7503.732423936979</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5030751418137616</v>
+        <v>1.225290880117969e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7493.964798844643</v>
+        <v>11.84172335434341</v>
       </c>
       <c r="C12" t="n">
-        <v>1.311379972449375e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.8481744952898</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4992023512221915</v>
+        <v>0.4985602039857527</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4242.685652888581</v>
+        <v>4203.310233687425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001372014706168809</v>
+        <v>0.001394036122616914</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.4488356421456</v>
+        <v>143.250122790238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01326641978604608</v>
+        <v>0.01148270309002492</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.94929714529236</v>
+        <v>38.83152375639338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3306764120159027</v>
+        <v>0.2165393174909331</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06492445236969571</v>
+        <v>-0.08208358410395217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4895376671660925</v>
+        <v>0.2897754262327947</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.986528081572078e-05</v>
+        <v>-8.447616157352105e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1958946853090948</v>
+        <v>0.15862794283882</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.370256899033524</v>
+        <v>2.231622154419604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.800429253522881</v>
+        <v>0.8110655784785952</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.69014052592143</v>
+        <v>20.44654508369528</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007469749417767984</v>
+        <v>0.0007514671619183275</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1032.306198214372</v>
+        <v>-968.7362081372623</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4255465908831365</v>
+        <v>0.4478147655470303</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3079.976501558376</v>
+        <v>-3016.031308683139</v>
       </c>
       <c r="C10" t="n">
-        <v>9.189095801349833e-05</v>
+        <v>7.086211391295088e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-863.4015904996513</v>
+        <v>7396.232046075711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7450609913396097</v>
+        <v>2.32845085314392e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7398.701418018361</v>
+        <v>-20.44140233652597</v>
       </c>
       <c r="C12" t="n">
-        <v>2.465867895877707e-05</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-20.5190728419382</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2310274849176317</v>
+        <v>0.2311849909033352</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4562.982951232892</v>
+        <v>4652.015120925702</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0007546703927036702</v>
+        <v>0.0005281687643788403</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.4819600487224</v>
+        <v>90.56124744116065</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08854330133056336</v>
+        <v>0.09867805466378614</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.26001679587125</v>
+        <v>64.39092134675803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04933205924891824</v>
+        <v>0.0559299945721853</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2649366137366535</v>
+        <v>-0.2311077961166425</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009621378034396576</v>
+        <v>0.004306023013358595</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.83472841379062e-05</v>
+        <v>8.361991995584016e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2195934751614853</v>
+        <v>0.1840612676175453</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.342548739766716</v>
+        <v>4.187382586647399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6545430351701941</v>
+        <v>0.6651632212417551</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.91142043637106</v>
+        <v>10.16647357912041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07154077560955678</v>
+        <v>0.06297634568154682</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2976.743081363012</v>
+        <v>-3008.199115515745</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02242751597069059</v>
+        <v>0.02061119130479707</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3101.529619296922</v>
+        <v>-3182.407518374642</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0001363259971662834</v>
+        <v>6.732998469017917e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1544.201589739716</v>
+        <v>9028.155788256234</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5843452075558685</v>
+        <v>3.271526872765693e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9124.116565602888</v>
+        <v>-8.411251216037208</v>
       </c>
       <c r="C12" t="n">
-        <v>3.168795566302386e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.550495408938318</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6274335722671458</v>
+        <v>0.6321209940655996</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2006.646454225512</v>
+        <v>2080.312847072519</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105218311240029</v>
+        <v>0.09177654277163752</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.4865554313995</v>
+        <v>100.4851264593439</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03758393435039955</v>
+        <v>0.04247810090043147</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.22303073218837</v>
+        <v>51.0298688909653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05811127345755685</v>
+        <v>0.08333887353787557</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1760561358134433</v>
+        <v>-0.1361746564976049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03778535502316548</v>
+        <v>0.04411319208486619</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.787520401014566e-05</v>
+        <v>4.215742057781951e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4366558838141928</v>
+        <v>0.3830997427329207</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.660294946019091</v>
+        <v>-6.043777707658347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4461293771755654</v>
+        <v>0.486905367486189</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.52841073970766</v>
+        <v>20.83931912220028</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001106876068555527</v>
+        <v>8.215240895502334e-05</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2674.535607084827</v>
+        <v>-2685.77919315641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0392874831307814</v>
+        <v>0.03819186185405969</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-632.6704649611993</v>
+        <v>-818.9397617298323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3932334239298373</v>
+        <v>0.2435490755202364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1850.854668171541</v>
+        <v>9230.511660790198</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4300377481097215</v>
+        <v>2.385092199978084e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9295.658569807691</v>
+        <v>6.479310333949549</v>
       </c>
       <c r="C12" t="n">
-        <v>2.129143966481842e-10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5.84997282538194</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7276276179379706</v>
+        <v>0.6989731638592425</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3989.691121758768</v>
+        <v>3962.131012449188</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00636876501266544</v>
+        <v>0.006161914279614345</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.34886579673275</v>
+        <v>81.19881867952057</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1568791863305259</v>
+        <v>0.1492683249545537</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.12876670993118</v>
+        <v>71.41351347818718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06841184247111233</v>
+        <v>0.04122804662904152</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02307219294024376</v>
+        <v>-0.03265501497750859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8222569525185556</v>
+        <v>0.6932264752764479</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.730195995716e-05</v>
+        <v>-2.95169003707325e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6624243555857652</v>
+        <v>0.6270191459144858</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.38773553859608</v>
+        <v>-17.46316697856402</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08780935976580538</v>
+        <v>0.08498382225549579</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.47733923452679</v>
+        <v>10.42413310537039</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08923778778796322</v>
+        <v>0.08921994086199728</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-674.0180902500547</v>
+        <v>-632.8464120980827</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6252966917190625</v>
+        <v>0.6393788702296772</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2171.435774067106</v>
+        <v>-2133.39604190993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008136875663425186</v>
+        <v>0.006336769259238629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-466.9966595158055</v>
+        <v>9456.80067905029</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8739489913146389</v>
+        <v>4.152968139062699e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9451.155038225395</v>
+        <v>3.635218461986682</v>
       </c>
       <c r="C12" t="n">
-        <v>4.752742803859642e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.636699859619569</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8413835242322909</v>
+        <v>0.840881468490692</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3943.283498169732</v>
+        <v>3939.119816676639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003447147639244261</v>
+        <v>0.003349660366607723</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.845277546401</v>
+        <v>124.356976369398</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02868117184976009</v>
+        <v>0.02693304565984785</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.24889096113266</v>
+        <v>87.31807818277942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01759546628232521</v>
+        <v>0.01221854251537781</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01100084191784634</v>
+        <v>0.003174932938590336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.922041972773732</v>
+        <v>0.9704937713716375</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.572897697918153e-05</v>
+        <v>-8.69587704733534e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1728970864120871</v>
+        <v>0.1583691887498829</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.73233058866177</v>
+        <v>-10.70704923437258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2714160028336158</v>
+        <v>0.2706501540732071</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.40907075727429</v>
+        <v>10.36237000540611</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04876089397559944</v>
+        <v>0.04818392971110416</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-481.3199068753502</v>
+        <v>-474.8922137964773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7172001217707371</v>
+        <v>0.7195675785748049</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2608.540262206362</v>
+        <v>-2586.165278230056</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000925460275239686</v>
+        <v>0.0006339515295811633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-309.4991725612554</v>
+        <v>9113.054807207223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9136989048543934</v>
+        <v>4.252646130028269e-07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9125.48302419615</v>
+        <v>-2.300157085403008</v>
       </c>
       <c r="C12" t="n">
-        <v>4.780615119788537e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.253627754312593</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8983228325644008</v>
+        <v>0.8958264438673506</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2722.60030662737</v>
+        <v>2691.889109092452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05671183363602006</v>
+        <v>0.05694343581572343</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133.4639857227077</v>
+        <v>135.3210874622338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02376894324379911</v>
+        <v>0.0196319838442642</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.02153512154189</v>
+        <v>76.80974498938679</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06307741201353423</v>
+        <v>0.03688900002127291</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001932686665337136</v>
+        <v>-0.01352526157424869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9853188314785319</v>
+        <v>0.8726548367286326</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.873532603052197e-05</v>
+        <v>-2.985685104469674e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6206289714230265</v>
+        <v>0.60383826822284</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.44187979123549</v>
+        <v>-12.4737631262897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2170196929965921</v>
+        <v>0.2141449023741483</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.88760431709505</v>
+        <v>13.82233713063741</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01266425361470964</v>
+        <v>0.01258001586007597</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105.8676090705101</v>
+        <v>129.8258108776256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9407594314137506</v>
+        <v>0.926830786093342</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2355.885836961001</v>
+        <v>-2304.98505355398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006316079369678139</v>
+        <v>0.004677812336119013</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-570.3094996197688</v>
+        <v>9850.191726958836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8520077030251701</v>
+        <v>9.272157821747328e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9831.430132413429</v>
+        <v>8.395971533006932</v>
       </c>
       <c r="C12" t="n">
-        <v>1.130918584423889e-07</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.718684846654178</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6503369975731554</v>
+        <v>0.6600287313484628</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3597.526870524088</v>
+        <v>3581.74285399703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007768429905018303</v>
+        <v>0.007262095853703212</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.1821315982955</v>
+        <v>111.7469097239651</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04840968306300523</v>
+        <v>0.04504239123510743</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.32512530688295</v>
+        <v>49.64341520256246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1878750277915641</v>
+        <v>0.1363447095389224</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1473276250649289</v>
+        <v>-0.151903311811523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1121045176321535</v>
+        <v>0.04632201561558415</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.173463229513976e-05</v>
+        <v>1.095160980697335e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8274278959006627</v>
+        <v>0.8359253533120368</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8577738318244172</v>
+        <v>0.7988435727166845</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9326297397491897</v>
+        <v>0.9368762616074844</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.05272869445258</v>
+        <v>14.00973834791014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01112315868331933</v>
+        <v>0.01074961422943773</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1853.619157590387</v>
+        <v>-1837.60369777959</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1515250376747279</v>
+        <v>0.1493740397831578</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2277.088621346509</v>
+        <v>-2257.230179144093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004657098319342701</v>
+        <v>0.003322733319158807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-225.3400274253854</v>
+        <v>8860.531932330226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9304429808784787</v>
+        <v>6.758021451275008e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8852.170423988449</v>
+        <v>-2.719526653950027</v>
       </c>
       <c r="C12" t="n">
-        <v>8.145836373256185e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.726218776106236</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8789037948422209</v>
+        <v>0.8787529684057787</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3429.858183577852</v>
+        <v>3439.293802962128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008695312635229446</v>
+        <v>0.008090461603778</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.86485047412108</v>
+        <v>80.41621989752375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1508143933177919</v>
+        <v>0.1501120011902528</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.91454052306612</v>
+        <v>61.73669911524014</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09171275729239681</v>
+        <v>0.07809433941901077</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1180324242017575</v>
+        <v>-0.1124042008567975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2411041685806068</v>
+        <v>0.1652979263446174</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.44340756426916e-05</v>
+        <v>-3.354418638550936e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5329117847811504</v>
+        <v>0.5360987293141668</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.305305560551833</v>
+        <v>-1.280004935580629</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8913594678471368</v>
+        <v>0.8930186372477902</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.87805798425344</v>
+        <v>13.9157503671844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01068672562656206</v>
+        <v>0.009997320582676031</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1049.951568047164</v>
+        <v>-1059.518424418746</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4464167026635703</v>
+        <v>0.4393787226972071</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2586.929424362674</v>
+        <v>-2607.44099033901</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001384576295803814</v>
+        <v>0.0007897778608165421</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.7589170051824</v>
+        <v>10008.42080538599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9244429762255271</v>
+        <v>8.992292028877659e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10019.13455375639</v>
+        <v>2.353021657172768</v>
       </c>
       <c r="C12" t="n">
-        <v>1.095264197607637e-09</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.266900144124257</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9000779798581511</v>
+        <v>0.8957900345301963</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2785.408017973585</v>
+        <v>2824.77354979386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03911574311309304</v>
+        <v>0.03581532180380978</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.86229211739322</v>
+        <v>94.50328983991517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06502933893211152</v>
+        <v>0.07428400640674321</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.6912761356442</v>
+        <v>72.97153135139908</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02108666518240479</v>
+        <v>0.02361416713214991</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03368319600075935</v>
+        <v>0.002114510940065623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7413501613751656</v>
+        <v>0.9797217671712838</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.846462526163849e-05</v>
+        <v>-7.175734941381412e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2108985600027727</v>
+        <v>0.2438032848705019</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.98702116572706</v>
+        <v>-10.77374736873165</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2465296532303105</v>
+        <v>0.2543326859522683</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.97758730412582</v>
+        <v>16.50553624612221</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005405184738628263</v>
+        <v>0.003600434392321225</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-703.1463469767714</v>
+        <v>-756.6428686694535</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6035907509386451</v>
+        <v>0.574661863103215</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2341.107487547802</v>
+        <v>-2445.374914997073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003745484691055739</v>
+        <v>0.001926653506458375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1758.966768588447</v>
+        <v>7655.764340878826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5428952982642139</v>
+        <v>7.037944624008143e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7600.196729262974</v>
+        <v>17.26327715549753</v>
       </c>
       <c r="C12" t="n">
-        <v>8.789535695322843e-06</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.18904136166222</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3215006377252422</v>
+        <v>0.3182736987575343</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4167.369559105854</v>
+        <v>3962.689691395017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002985645959306283</v>
+        <v>0.003910138781013368</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.96970970135578</v>
+        <v>106.3318898401509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09087532440023134</v>
+        <v>0.06533477411438166</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.05484862169723</v>
+        <v>62.04647716863114</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1911058756446012</v>
+        <v>0.06392074790420116</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09314414574020877</v>
+        <v>-0.1365121062254731</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3579802625208598</v>
+        <v>0.1044737340565053</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.00025458016681e-05</v>
+        <v>6.749406397244098e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3255285098719568</v>
+        <v>0.3961790510109534</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.777633667972488</v>
+        <v>-9.661873831988949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3126103996164836</v>
+        <v>0.3175480633381037</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.98812932967113</v>
+        <v>11.88925969735212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02847171695406179</v>
+        <v>0.02948114349809212</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1889.494609306063</v>
+        <v>-1702.206837101456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1677578018899732</v>
+        <v>0.2055618723273651</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-2425.715738595092</v>
+        <v>-2248.685746665689</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003347777497705029</v>
+        <v>0.0044510219207189</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2401.154541084314</v>
+        <v>10156.7121448726</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4446789135772475</v>
+        <v>5.404638731575385e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10030.79310782215</v>
+        <v>-5.189863022773096</v>
       </c>
       <c r="C12" t="n">
-        <v>8.961158917238193e-08</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-4.498996583694115</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8147270684196201</v>
+        <v>0.7863743836186765</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ54497764" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ54615479" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ54716991" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ54823275" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ54924238" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ55026643" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ55127261" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ55228247" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ55327295" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ55426247" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ55526736" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ55624193" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ55724226" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ55822741" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ55923395" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ56021908" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ56118273" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ56215448" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ56313959" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ56412686" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ56515793" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ56627119" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ56740764" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ56848568" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ56979440" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ57129102" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ57295243" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ57487613" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ57631295" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ57751957" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ57875759" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ58006380" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ58132306" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ58263648" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ58397833" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ58528703" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ58718223" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ58846385" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ58983308" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ59113247" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ59245690" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ59388353" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ59556028" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ59697642" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ59829502" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ59960173" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ00117105" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ00246321" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ00379242" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ00514088" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ40713573" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ40819175" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ40924417" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ41031199" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ41143810" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ41248147" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ41350435" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ41558600" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ41676616" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41774684" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ41875222" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ41983025" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ42085893" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ42192982" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ42297276" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ42402819" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ42522194" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ42650720" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ42782828" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ42914716" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ43056298" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ43195600" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ43333435" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ43484067" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ43625249" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ43774252" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ43906190" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ44041923" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ44196921" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ44346256" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ44482357" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ44610407" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ44747260" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ44886319" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ45023718" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ45164389" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ45317894" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ45498045" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ45634698" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ45777170" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ45905345" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ46032383" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ46173291" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ46314275" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ46440796" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ46566413" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ46712370" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ46849030" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ46975805" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ47147524" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ40713573" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ40819175" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ40924417" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ41031199" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ41143810" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ41248147" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ41350435" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ41558600" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ41676616" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ41774684" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ41875222" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ41983025" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ42085893" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ42192982" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ42297276" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ42402819" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ42522194" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ42650720" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ42782828" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ42914716" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ43056298" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ43195600" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ43333435" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ43484067" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ43625249" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ43774252" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ43906190" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ44041923" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ44196921" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ44346256" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ44482357" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ44610407" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ44747260" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ44886319" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ45023718" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ45164389" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ45317894" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ45498045" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ45634698" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ45777170" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ45905345" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ46032383" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ46173291" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ46314275" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ46440796" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ46566413" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ46712370" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ46849030" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ46975805" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ47147524" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ29576650" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ30310688" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ31105848" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ31874941" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ32644711" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ33445520" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ34262106" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ35053122" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ35800951" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ36569687" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ37323433" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ38094081" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ38877392" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ39615029" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ40367502" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ41103523" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ41825414" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ42609871" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ43379121" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ44148143" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ44907768" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ45670627" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ46439869" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ47192821" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ47956932" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ48744609" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ49497628" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ50267221" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ51021134" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ51743432" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ52421370" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ53098326" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ53875801" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ54629275" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ55694131" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ56462986" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ57233151" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ57989611" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ58745555" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ59534457" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ00400623" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ01149612" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ01941086" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ02733561" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ03498560" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ04280084" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ05065774" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ05841383" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ06590422" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ07358720" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2408.411439944995</v>
+        <v>3581.829803896606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07277938854269428</v>
+        <v>6.302861178376093e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.9206447662113</v>
+        <v>138.613167661059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07341371593839767</v>
+        <v>1.863726574411262e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.28513211364213</v>
+        <v>-0.08195703348564989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1779661919154569</v>
+        <v>0.1246199746737005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1667548110304328</v>
+        <v>9522.149587103637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04268943116629503</v>
+        <v>1.154172820190762e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.372893066438157e-06</v>
+        <v>-1971.853540646899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8763327584302526</v>
+        <v>0.001035185538740709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.795160608402515</v>
+        <v>249.3898091224842</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6244340345914886</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.21315184754991</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.000710447966686931</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1149.09230412229</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3801352914149096</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2433.424415347195</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001097767521552651</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10288.87203587618</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.074298617000513e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.4208560884090531</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9807471785873471</v>
+        <v>6.688151539854806e-07</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3249.584829489302</v>
+        <v>4181.142479725257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02565610780270741</v>
+        <v>2.757160626685232e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.9247543261538</v>
+        <v>126.8731463707435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006958166310221865</v>
+        <v>0.0001738073225063813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25254905384229</v>
+        <v>-0.117156995413572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1523157838532083</v>
+        <v>0.04173515448773312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1028300461900128</v>
+        <v>7845.814029151916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1553976699082796</v>
+        <v>4.535029523467776e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.934597997726936e-05</v>
+        <v>-1829.783672204067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7043897225425813</v>
+        <v>0.005051174969890623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.375353723331163</v>
+        <v>233.5688397076457</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3909339506201095</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>21.35855891104318</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002084789786177058</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1618.787194922629</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2248000454905139</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1663.120784859348</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02881460914123555</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8564.195162018787</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.171295891199468e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.37431032402888</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4021399697749346</v>
+        <v>3.987214193567696e-05</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3711.95469699563</v>
+        <v>4023.698239681403</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007883610661435456</v>
+        <v>5.796964061260189e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.7562212285392</v>
+        <v>111.5528959720359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04744080729260519</v>
+        <v>0.0005104743065950165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.8211807266259</v>
+        <v>-0.1160939638066831</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09223601697200488</v>
+        <v>0.03339846587231073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1489315156980873</v>
+        <v>9329.248489583999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04953642458529444</v>
+        <v>1.057966358642342e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.053027452454504e-06</v>
+        <v>-1887.432362655053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.940981162115494</v>
+        <v>0.001608049367485822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.849884748302337</v>
+        <v>238.2578179191355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8500927854990934</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.134272447181</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02350972226819822</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1753.825401670395</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1853054895446545</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2164.242595766013</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.008686216471092568</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8742.823222924657</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.146421297766516e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.031258064300573</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9562850176968201</v>
+        <v>1.603074493934645e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3099.140243946314</v>
+        <v>3636.665537968913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01327076634460529</v>
+        <v>5.740271513650132e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.3489883082828</v>
+        <v>124.9131016471505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005378289104054835</v>
+        <v>8.566640702750613e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.49985663710508</v>
+        <v>-0.07350086661185803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2102507114302454</v>
+        <v>0.1904903659237402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01492502286919191</v>
+        <v>10181.28222766247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8314568502249687</v>
+        <v>8.586453937247919e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.089389902545423e-05</v>
+        <v>-2152.619163752611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1462349426126734</v>
+        <v>0.0004356381812598223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.73549547384398</v>
+        <v>247.5371327749597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1400804456211279</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.16296450218424</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002535830367689517</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.696386490818441</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9988086502554265</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2199.990347631591</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001331126443582408</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7862.252183533265</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.486119545845799e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>14.68291342536392</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3814770833361505</v>
+        <v>8.061835531338589e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4322.284585317693</v>
+        <v>4226.787837756543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002961669692580005</v>
+        <v>6.567694347421052e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.67074949932629</v>
+        <v>109.9381355740482</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1964834508549248</v>
+        <v>0.0004784243156301436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.06389204641624</v>
+        <v>-0.1182765214369281</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1109030706891904</v>
+        <v>0.0401585836495849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1210801744896462</v>
+        <v>9261.093956921994</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1464931968257521</v>
+        <v>4.774058248972614e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.21253424392972e-05</v>
+        <v>-2486.243647359343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.83247659549637</v>
+        <v>0.0001036927203240541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.776822303305745</v>
+        <v>264.6609673566536</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5101415410797864</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.87069487551228</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.021429054380386</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2845.651978692078</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06728605206512563</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2246.880216804554</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005546941363897242</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9833.910059008103</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.358286531281283e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.571521810870976</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6034496692308837</v>
+        <v>8.119161088864655e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2870.533243952958</v>
+        <v>4407.549171522467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02744675806064746</v>
+        <v>6.992245833209712e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.4046714504753</v>
+        <v>109.1750497436363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01078987918447261</v>
+        <v>0.001538134605184459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.33107692894325</v>
+        <v>-0.1342376536343927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04523261454141135</v>
+        <v>0.01874298881348591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1195763024314844</v>
+        <v>8839.435942668411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1474685180991047</v>
+        <v>3.226465559964493e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.517454284554487e-05</v>
+        <v>-2379.126194762938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3713607855728357</v>
+        <v>0.0002093582988051374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.705960682650694</v>
+        <v>234.0128307184377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3616903459274269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.85200655374091</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008298393693246501</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-689.2100593689391</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.609370239990086</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1785.547387115392</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01575416748576207</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9485.563075838918</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.187913956120116e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.390322716111598</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9388686099843666</v>
+        <v>2.015048105351359e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3603.932355127987</v>
+        <v>3665.132495990596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01072871768324967</v>
+        <v>7.499507543910509e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.63133768792714</v>
+        <v>162.7514980166931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1444440020988954</v>
+        <v>5.582888474278374e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.22869128664473</v>
+        <v>-0.08726733070654136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03344631658267031</v>
+        <v>0.1237074845117421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.102983850569127</v>
+        <v>8600.288113160808</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2097973642452089</v>
+        <v>1.015986727102702e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.654846413641684e-06</v>
+        <v>-1875.237461695268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9128808504854449</v>
+        <v>0.00468439400275278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4027567131909839</v>
+        <v>215.9977798783755</v>
       </c>
       <c r="C7" t="n">
-        <v>0.968233925942022</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.15200290631022</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.004815136023442492</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2157.791307947972</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1174830100849384</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2913.781976929981</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0004142961856196299</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8986.460298645481</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.723891961682228e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.53971174756898</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5118220029847493</v>
+        <v>0.0001363797446635118</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4336.310178405549</v>
+        <v>4371.512126391348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002130349934865058</v>
+        <v>4.247454787971038e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.16571504172461</v>
+        <v>142.7856779458214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0991093665314961</v>
+        <v>5.890855864240562e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.94650095816505</v>
+        <v>-0.1108062670497533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3150932973754739</v>
+        <v>0.03867432366400355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08766237267439775</v>
+        <v>7251.02726032011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2762519442148366</v>
+        <v>2.614085646095576e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.166278344440969e-05</v>
+        <v>-2161.684867512528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4212305599645043</v>
+        <v>0.0005833520485674996</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.640764845455475</v>
+        <v>213.0306776474902</v>
       </c>
       <c r="C7" t="n">
-        <v>0.511371438920363</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.35475064835795</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01785670101125553</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1565.392154790306</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2603002881482171</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2731.182404575742</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0011868521090054</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9437.631836802524</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.244093910485641e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.822011752041831</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8289703443809492</v>
+        <v>4.716074428253276e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2189.013433021539</v>
+        <v>4054.19714809429</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1288499968553584</v>
+        <v>2.591369667638094e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.88226140599855</v>
+        <v>125.1388354774183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2063652927488156</v>
+        <v>0.000358731894649787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.90428804879091</v>
+        <v>-0.1490540374484049</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07774875877346943</v>
+        <v>0.02215187962732467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09163950950730826</v>
+        <v>9312.715519537551</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2877634684005886</v>
+        <v>1.292541085532812e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.773472977538562e-06</v>
+        <v>-2244.420659564781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9782972790009832</v>
+        <v>0.0007178925698565412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.723541111271679</v>
+        <v>262.5509033021216</v>
       </c>
       <c r="C7" t="n">
-        <v>0.786818670983368</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>23.05536327908541</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0004515821250450077</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1198.121551411169</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4206469846599415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2046.429827154632</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01326537232882465</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9858.768405066336</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.628146497719108e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.607199876735361</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8951417718040524</v>
+        <v>2.071361840031172e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3674.466233972034</v>
+        <v>3673.245285735416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001903885211167985</v>
+        <v>5.088240300533998e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.3702189084889</v>
+        <v>143.6008471220597</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00209047530276401</v>
+        <v>6.74439299713094e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.0000798095019</v>
+        <v>-0.08698401167148734</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1963641228063385</v>
+        <v>0.125811276475752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1251741416635175</v>
+        <v>9753.956136297613</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09680161587873894</v>
+        <v>1.109207410221316e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.536939314333683e-05</v>
+        <v>-1971.746772254191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2579908583566877</v>
+        <v>0.001360499237654646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.12713922495747</v>
+        <v>218.47658486054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1878037974769146</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.59761942708159</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01250754719539872</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1225.101722578026</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3211749466832522</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1403.267235663306</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05325815371971232</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9647.071516864897</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.156639968810717e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.170876466503842</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5745699830575737</v>
+        <v>3.360947404794942e-05</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2519.162991284413</v>
+        <v>3861.643962931763</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05778893210733246</v>
+        <v>1.239595182779556e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.4445575024331</v>
+        <v>119.5723054741403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001629728163868971</v>
+        <v>0.0001620660304894997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.9416660499524</v>
+        <v>-0.07241505111959315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01570095923634811</v>
+        <v>0.1997658291224224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1002418204542924</v>
+        <v>9675.152293667263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.152754833700653</v>
+        <v>1.598979019638863e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.345991600832586e-06</v>
+        <v>-2288.220370839264</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9299248360986061</v>
+        <v>0.0002427811499352615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2988832940720094</v>
+        <v>240.4742371944945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9733134030283199</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.50659035425774</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00470502058392695</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1520.380516818854</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2017456923282632</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2684.775668824609</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0002338862627117902</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7526.999731682863</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.655611623681233e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>16.61742450956888</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3328317687178145</v>
+        <v>1.999111055493645e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2222.371425358685</v>
+        <v>4741.972033330566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07540656832308266</v>
+        <v>1.696416257939149e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.5260790638888</v>
+        <v>114.5599982913116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02210204762468587</v>
+        <v>0.0005224806994841451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.68960222189861</v>
+        <v>-0.09389924799790188</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003312324990506509</v>
+        <v>0.08305967592325096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07931576109540292</v>
+        <v>7767.842864123659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2507959960345122</v>
+        <v>1.321378808437718e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.726538997463983e-05</v>
+        <v>-3127.330537781022</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7251662504469254</v>
+        <v>9.236559169932031e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.798125970761365</v>
+        <v>242.3957884125669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7535461202806479</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.15639715559835</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0004890910954033467</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2117.808293131983</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1020485044810823</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2204.160342887825</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002114756230315474</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8439.177011517972</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.389684940585469e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10.40504001489938</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5331197378005044</v>
+        <v>6.149926508141507e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4544.63143104418</v>
+        <v>4108.756855074163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001668296006829817</v>
+        <v>1.499395307005105e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.78591904466592</v>
+        <v>85.11154584590571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3120469243198937</v>
+        <v>0.007061419379946983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.30580466525473</v>
+        <v>-0.1257089059269216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02328701778918442</v>
+        <v>0.01616583404322393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.103090111389563</v>
+        <v>10313.79149796126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2150666073300554</v>
+        <v>2.030994566901164e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.375896965729977e-05</v>
+        <v>-2162.860220690768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8067877978802788</v>
+        <v>0.0005081759309782312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.216874503072251</v>
+        <v>257.6570278627186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4085775768054405</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.92591727995042</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06875339682642441</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1436.413317482791</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.310469523752071</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2537.524315031273</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001248818179222034</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8457.179268920558</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.884311141623083e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.93036958267453</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7911755497634053</v>
+        <v>1.479779736553907e-06</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2298.778513961074</v>
+        <v>4026.955247441081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07591011166496078</v>
+        <v>4.112325503890833e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.2433305218336</v>
+        <v>106.3573829535669</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01817361811912769</v>
+        <v>0.001815962604654038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.97170324830552</v>
+        <v>-0.1197320337152032</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01497020246178623</v>
+        <v>0.01856362942276117</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1226445314610424</v>
+        <v>9009.598041428639</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09654357557057978</v>
+        <v>8.84395148666788e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.104341707721399e-06</v>
+        <v>-1907.681750317485</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9827719121919898</v>
+        <v>0.001812446377840947</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7869323770473571</v>
+        <v>252.0918299364513</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9315345525184071</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.80741292051613</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002054891755833982</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1723.837272655935</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1577115680938064</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2347.074464775211</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001643056157614546</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9438.557172835051</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.70724512486562e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.00200161569453</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4943107074375979</v>
+        <v>8.895937994054744e-07</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3746.378798755115</v>
+        <v>4057.46504905344</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005786262552575225</v>
+        <v>1.156926687231401e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.03824781187335</v>
+        <v>120.3465553186043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1272825712430413</v>
+        <v>0.0001188338572022838</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.49109177866974</v>
+        <v>-0.09220456918022704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1135136441538161</v>
+        <v>0.155144288771899</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09246123425403395</v>
+        <v>9308.483964052128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2602672147584303</v>
+        <v>5.078095897544841e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.374121433321103e-06</v>
+        <v>-2559.513008848606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9655643615989515</v>
+        <v>6.217057671019201e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.290434837344243</v>
+        <v>262.4139620373634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5885190680206691</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.29832048903645</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.005142820830145187</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2090.652133090566</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1539456127171704</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2258.599510193589</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004323092704969921</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9665.264898562218</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.281585779296662e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.214936071068177</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7354119825125145</v>
+        <v>1.186050408388475e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4248.3094360021</v>
+        <v>4057.250232340252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001405620902522175</v>
+        <v>1.139581793750441e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.8634588862587</v>
+        <v>123.5931506477364</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006199548764256073</v>
+        <v>0.0002991217638834669</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.70491786046853</v>
+        <v>-0.1122894223183001</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4876954581741654</v>
+        <v>0.05630679242403445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1617364156348323</v>
+        <v>9126.016405971473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03440910985494024</v>
+        <v>1.02450086461321e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.688336799940748e-05</v>
+        <v>-2268.1793615367</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1649345797012407</v>
+        <v>0.000678178113067004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.74315718657024</v>
+        <v>236.7050714307717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3713238933857745</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.11439352088955</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008827062011082321</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1797.400394821733</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1653514847428174</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1999.21751300558</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01680763384644528</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7489.605864925558</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.549748393845501e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.907485190954191</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6941952630771608</v>
+        <v>4.396669595336286e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4464.895674229701</v>
+        <v>3885.840229835221</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004108801898098058</v>
+        <v>1.377386894524356e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.64219446364569</v>
+        <v>149.7439313443904</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08071032492382907</v>
+        <v>7.173560242087413e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.85373263826231</v>
+        <v>-0.08563830466144347</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1105667404710749</v>
+        <v>0.128027999567207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04684561802914722</v>
+        <v>8635.008932864279</v>
       </c>
       <c r="C5" t="n">
-        <v>0.579605816484003</v>
+        <v>9.174790768011985e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.073376126812168e-05</v>
+        <v>-2149.02189876978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2809568471003235</v>
+        <v>0.0005301488572990293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.79568131434992</v>
+        <v>224.6902469880343</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2347959251827043</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.35266067192912</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1533421520306918</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-627.7910924291868</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6589931441101468</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2301.228074451516</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002969196437458441</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8425.408257169518</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.051691635236791e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.981719255058575</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.869387597586665</v>
+        <v>7.006227255628131e-06</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2786.83275334057</v>
+        <v>3896.165054757618</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03661547558877334</v>
+        <v>3.700404176210173e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.75530942433718</v>
+        <v>116.0571814065142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09851471273590406</v>
+        <v>0.0004275486575348646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.21382234166173</v>
+        <v>-0.113442185130456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009853937794606443</v>
+        <v>0.03752861175238868</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07275148930824958</v>
+        <v>10444.95631588136</v>
       </c>
       <c r="C5" t="n">
-        <v>0.35107607688534</v>
+        <v>2.940858240411255e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.803839103917145e-05</v>
+        <v>-1932.467870035094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7528957879727551</v>
+        <v>0.002099428209321629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.728916395543532</v>
+        <v>225.5012073104303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4951383338675497</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.46291819785747</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003653707667895593</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-853.5529364423637</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.515099997210696</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2317.802135088575</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001764833101289221</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10068.0128990659</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.086956858864812e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.43044821101789</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9369273216390051</v>
+        <v>1.469975012470292e-05</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3982.211940706997</v>
+        <v>5081.653806232943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002250335598655921</v>
+        <v>9.540391723984398e-12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.1505399000239</v>
+        <v>106.9610010721527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0121322249542509</v>
+        <v>0.0009908917379911515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.84911639810943</v>
+        <v>-0.1740763559710025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2676520535684493</v>
+        <v>0.008093476431072387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08538066095403973</v>
+        <v>7341.512269380333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2718080665009096</v>
+        <v>6.030085987559612e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.713981827436561e-06</v>
+        <v>-2256.662574498096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8985151367354153</v>
+        <v>0.0004829771944099556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.524803073340731</v>
+        <v>189.4447393268416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.376305487029127</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.45654265501307</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003888839338516784</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-910.7279226624809</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4706036265229193</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2271.58830643548</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005273496260162601</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8967.553228163764</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.802164880063799e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-14.94147361127357</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3933901218167621</v>
+        <v>0.0003277443214950395</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2983.67868670088</v>
+        <v>3645.368329662463</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05669007830796954</v>
+        <v>2.925380128584534e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.4964768596142</v>
+        <v>144.8245518481992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01445102923800632</v>
+        <v>2.187067838912116e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.54679113183674</v>
+        <v>-0.06777816287477889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1166199944168594</v>
+        <v>0.2591262202593346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07935577478098658</v>
+        <v>9842.257184129965</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3252563786276993</v>
+        <v>2.87002736955908e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.979048398832819e-05</v>
+        <v>-2436.350848208249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6454364769857355</v>
+        <v>0.0001964062929749663</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.891166625909595</v>
+        <v>263.0752260606106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3155631062013165</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.00018375215576</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01195572822805</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1596.118662518779</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2899984648659111</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2231.25944191506</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005386398488382996</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10912.03030582318</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.20599024511984e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.8452654816944545</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9639859981577288</v>
+        <v>3.437283908591999e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3321.45586256764</v>
+        <v>3471.716689340938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01250103477323142</v>
+        <v>7.815850846928762e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.06385393431192</v>
+        <v>144.4484945312935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1601988500837611</v>
+        <v>2.093732085084252e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.56242149786024</v>
+        <v>-0.08349368561373428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07065705173879938</v>
+        <v>0.1326319437888364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1176908580710529</v>
+        <v>10348.46184115586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1186531172103052</v>
+        <v>2.450333994874714e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.37816857345475e-05</v>
+        <v>-1943.116400730178</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7911906887533602</v>
+        <v>0.002945617241451962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.090521133685943</v>
+        <v>226.9629224809415</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7503531552345728</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>19.73922753400709</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.002964963108854066</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1628.318096172237</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2078494797830316</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2303.360384409355</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002065332766845221</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9991.523084534021</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.991814070645551e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.927812199560378</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7060512154839879</v>
+        <v>1.714804983278119e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3051.32186667115</v>
+        <v>3517.632456088126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01823071647046095</v>
+        <v>5.712970596213539e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.3378668963281</v>
+        <v>119.4177801501302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03253510862730419</v>
+        <v>0.0001470187451556335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.90831045969125</v>
+        <v>-0.08722552182169371</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02531547275843995</v>
+        <v>0.08424831088623518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05137762127519821</v>
+        <v>10309.25926657443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5337785773421635</v>
+        <v>1.812603855774517e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.72639994702974e-05</v>
+        <v>-1910.492266519251</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3482934857910904</v>
+        <v>0.00108944113093408</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.95405711041043</v>
+        <v>251.4805503155429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4587723058817299</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.54653495533421</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008433158561527853</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-821.7201331809581</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5166719945052307</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2060.050330376484</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003917650826795744</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6400.858324132579</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0001460135215482771</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.019744825337</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3140616300195046</v>
+        <v>1.74932688638258e-07</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4275.320270214276</v>
+        <v>3551.820151880776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005706063206724767</v>
+        <v>4.757148350188646e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.56497932533208</v>
+        <v>168.6391796633239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09598698356415535</v>
+        <v>2.854267670808457e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.1980767896556</v>
+        <v>-0.1079198341038476</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3191390424643311</v>
+        <v>0.06981186911555282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.13943538094507</v>
+        <v>9782.145439781387</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07787477314891017</v>
+        <v>1.397739793534507e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.943114419903418e-06</v>
+        <v>-1579.930417725402</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9612485478450725</v>
+        <v>0.01552654773858655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.515382664692188</v>
+        <v>183.3531040058737</v>
       </c>
       <c r="C7" t="n">
-        <v>0.65128475491474</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.6696691983141</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04762781173823285</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2204.107023223985</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1179498696549483</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2586.300565568064</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.002700574566990152</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9331.691523549951</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.484074703080689e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1.231424086917201</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9492474298956601</v>
+        <v>0.001426886961344945</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3845.482890096702</v>
+        <v>4477.353602034586</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004255893153881982</v>
+        <v>1.10521863045114e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.67818947411999</v>
+        <v>93.61546353385636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1070238026307032</v>
+        <v>0.004144706588661028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.39516747486552</v>
+        <v>-0.1348681511752919</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03007626289158723</v>
+        <v>0.01047417961514952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1256090721376523</v>
+        <v>8186.91945422323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1114702376120741</v>
+        <v>1.254783014674421e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.041970165641976e-06</v>
+        <v>-2272.041197440475</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9602406542368438</v>
+        <v>0.0002085425997060432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.96974596042973</v>
+        <v>264.580128433817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8403789456822165</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.99426124034443</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03084223104365914</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1849.168474480933</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1817330448383062</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2629.324880971007</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001145155253278562</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8951.809784563331</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.571314669397491e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.08669516505816</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9525110514077577</v>
+        <v>1.078064050591962e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4325.532828680183</v>
+        <v>4403.891374675534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00581397417385817</v>
+        <v>4.790384242346084e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.9138022104019</v>
+        <v>132.3583863916775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0463672717709103</v>
+        <v>3.791131006724336e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.05407353137244</v>
+        <v>-0.1400318976382613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06285079665420436</v>
+        <v>0.01568407918286576</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06846778280967508</v>
+        <v>7471.294296464701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3976160730734135</v>
+        <v>9.694708175286078e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.733872587916444e-05</v>
+        <v>-1984.354231838068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7544411171118202</v>
+        <v>0.001827242623305144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.88769581362039</v>
+        <v>209.916854982173</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4867962290778611</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.66068313804546</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06804733203240908</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1531.094273546229</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2699429141815597</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2850.926008973433</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0004735517964108456</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8525.753305120361</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.398811831826425e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6.366993221532049</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7368714832399512</v>
+        <v>6.874009395652886e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3640.68131471776</v>
+        <v>3576.857802395318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007699583018891544</v>
+        <v>3.910654988967754e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.39516109569124</v>
+        <v>141.935963430521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1893692017778849</v>
+        <v>2.222264659656183e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.20216809620101</v>
+        <v>-0.06326201567187696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09088673791803373</v>
+        <v>0.2405354572089013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1247755878711314</v>
+        <v>10437.25195576774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1222954891048913</v>
+        <v>6.62688721402568e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.484604980239738e-05</v>
+        <v>-2240.571979183173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.581958249729126</v>
+        <v>0.0001811634554339882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.964072060525439</v>
+        <v>229.8970927434528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8444521378289334</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>17.80463494432001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006812586552185688</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2256.140845329543</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1099768809772674</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2470.802256812874</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001740378832143944</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10016.80529712871</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.395409188366127e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-12.53819716006405</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4766769495903596</v>
+        <v>9.509440599963852e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2785.906173827092</v>
+        <v>4279.098937338969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03616221616681178</v>
+        <v>1.055351593362392e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.9393074682596</v>
+        <v>83.20398958374477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01420963464748925</v>
+        <v>0.01235680576451164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68.89977267807878</v>
+        <v>-0.135065820458741</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04220840724855617</v>
+        <v>0.02374930790929541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0882286020622854</v>
+        <v>8796.709457425277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2591208816649913</v>
+        <v>2.111090104625109e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.732092621926706e-06</v>
+        <v>-1925.742192645189</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9751719239977918</v>
+        <v>0.002686745095603197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.035086982807076</v>
+        <v>279.8142206991289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5389613731388045</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.09831601563141</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00858881423264935</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-976.4734850791315</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4678278650511406</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2034.855210006318</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01285464344798983</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8787.564666996492</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.019114933457399e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.501742095568972</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6629142419731416</v>
+        <v>2.243999627107855e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3787.597831944562</v>
+        <v>3637.594894522559</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004815981250696531</v>
+        <v>1.035512448351418e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.3466268097041</v>
+        <v>137.2560807584704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02447285338440205</v>
+        <v>3.239657887584069e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.15519358794099</v>
+        <v>-0.08782916620070151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1302448036780878</v>
+        <v>0.1267658953231842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09346754532231594</v>
+        <v>9696.173799275168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2585856786202774</v>
+        <v>9.007734661202156e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.822796406644465e-05</v>
+        <v>-2020.290302483441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3556408165766985</v>
+        <v>0.001711662655710226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.54130563289843</v>
+        <v>234.9166065127469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1089301880995275</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.57854828057688</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.006907306279769448</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-350.6605020269017</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7910588301007337</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1670.388404737244</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.03137000995985764</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8099.765585930332</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.16129510668147e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.574265105025788</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7582311471609554</v>
+        <v>1.73295020479438e-05</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2976.441951684187</v>
+        <v>4124.895950906469</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01573770286002177</v>
+        <v>4.246670468712147e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.340770598866</v>
+        <v>117.0737717304479</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02464708184310546</v>
+        <v>0.0004467133900946186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.54387751888792</v>
+        <v>-0.1127551564118405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.11915130961945</v>
+        <v>0.03604772229801918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1422602144233104</v>
+        <v>9954.720812094005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04908327324221846</v>
+        <v>1.354961851294745e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.04469843776728e-05</v>
+        <v>-2554.648455416382</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8466254002387161</v>
+        <v>5.284246003734296e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.78208702231905</v>
+        <v>241.3337749693045</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6550170673080598</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.40489034178546</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.001637614847156191</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2092.150364874956</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08931822654236646</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2188.469243817403</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001683609879084995</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9750.258935398046</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.967051340809827e-11</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9.921440250043528</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5362125556722775</v>
+        <v>3.005304817954028e-06</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3760.698719296528</v>
+        <v>4006.909022931077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002775964775951437</v>
+        <v>3.980659743619034e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.7957861657696</v>
+        <v>129.5213384714371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009902792032216588</v>
+        <v>5.828160440293896e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.75396172574134</v>
+        <v>-0.08382549926443825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2718980010557172</v>
+        <v>0.1165586653941582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1427651312504263</v>
+        <v>7743.634135032768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0592761675376984</v>
+        <v>4.423890169932972e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.607375362244553e-05</v>
+        <v>-2313.351587207919</v>
       </c>
       <c r="C6" t="n">
-        <v>0.353704929357713</v>
+        <v>0.0002713060169846836</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.476666256299058</v>
+        <v>274.081644610131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3604181668643642</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.5695777138545</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01737859597129927</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1546.588957247143</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2334082789919673</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2032.476024012856</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.006092590233211689</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8907.973100755311</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.31018724818829e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6611474749544612</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9683543172437868</v>
+        <v>9.338228706061677e-08</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4342.718840820405</v>
+        <v>4702.866559955557</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003477812683137361</v>
+        <v>4.694430892837512e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.3314958847436</v>
+        <v>120.5853400694726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006950255932468358</v>
+        <v>0.0002188540821198308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.4534569809845</v>
+        <v>-0.1567907143333236</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02418070334864546</v>
+        <v>0.00575721657856879</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09303846377010233</v>
+        <v>9240.674918215798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2252134951187443</v>
+        <v>2.839799483166411e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.219236710928308e-07</v>
+        <v>-2303.318107660965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9952045899325821</v>
+        <v>0.0001077677377883975</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.038760989980089</v>
+        <v>136.6222483798264</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8324089505186244</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.21439797949312</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06102957865354956</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1682.97663764192</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2157100631444943</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2595.74574130535</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0007741902257707333</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9637.049007436712</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.113181401500594e-09</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-23.74250673581263</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2074591733283122</v>
+        <v>0.009037131316847569</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2716.856862440467</v>
+        <v>3708.678929847119</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03598471160827164</v>
+        <v>2.017114401130601e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.18911103607735</v>
+        <v>98.8704271081657</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2020440959391884</v>
+        <v>0.001427089970496526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.16117492131312</v>
+        <v>-0.083893738113968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01581077219660495</v>
+        <v>0.1169309508046848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05455670206388755</v>
+        <v>10785.9132563753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4646334789079446</v>
+        <v>1.09476204394759e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.104345289941723e-05</v>
+        <v>-2186.717521181795</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2886845555318551</v>
+        <v>0.0002621050020111629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.728879230288973</v>
+        <v>274.0431232686063</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5033867932330416</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.21459480933948</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0004236409184538777</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1065.256414406131</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3863110160611721</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1961.829481304934</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.006979285492266839</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8579.780237320243</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.243984869201994e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.2068215255140817</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9898331900887571</v>
+        <v>3.572715858106703e-08</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3325.558871652001</v>
+        <v>3815.285544199521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01879073975271083</v>
+        <v>1.115148910865169e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.3751286607491</v>
+        <v>153.3303800659557</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1976624156514896</v>
+        <v>2.545718373758289e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.3737758252014</v>
+        <v>-0.10135300213201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09335072614478554</v>
+        <v>0.07065035902709714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1044659178027376</v>
+        <v>9558.344890700091</v>
       </c>
       <c r="C5" t="n">
-        <v>0.241400175975482</v>
+        <v>5.2021970747463e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.532523463833958e-05</v>
+        <v>-2204.618366581308</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6572967479221927</v>
+        <v>0.0005478568070019052</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.06885870744088</v>
+        <v>219.2176605887475</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4170520587214193</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.91543175987023</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.008346999106655416</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-991.880013160355</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4805959102915606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2253.870839424027</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.005715806417852799</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8588.090645436861</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.008315490431496e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12.21817902219335</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5307986377201268</v>
+        <v>6.841836997947896e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4481.156123015141</v>
+        <v>4094.722079632591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000807334149905342</v>
+        <v>6.109656935042956e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.8085027449936</v>
+        <v>101.4780193328293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03650857880903888</v>
+        <v>0.00192399535324515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.77355016580841</v>
+        <v>-0.1374437727074172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2254295096306203</v>
+        <v>0.01901845563258303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1295801381057826</v>
+        <v>10030.57839497752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1049043626017956</v>
+        <v>5.93246565764785e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.66268813547742e-05</v>
+        <v>-2078.712042212072</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2380468234847613</v>
+        <v>0.0007808752624480307</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.39185735689318</v>
+        <v>253.4277139514634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1216204825008607</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.40583555686236</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02346533893833263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1147.646540039455</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3829342754449416</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-1530.859289782929</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05772504376159142</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7817.635761140867</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.997317027632701e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.29695101447307</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5384624362783509</v>
+        <v>1.000641034366744e-06</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3262.239017905933</v>
+        <v>3709.249524161941</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01863885358872482</v>
+        <v>2.080964602804991e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.5029053119305</v>
+        <v>118.139871433892</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03098439514031873</v>
+        <v>0.0003020323850178051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.09844497231184</v>
+        <v>-0.1114044239974622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1682555490671196</v>
+        <v>0.0748417506251752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1017190591634553</v>
+        <v>9241.672935382705</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2124359446158003</v>
+        <v>3.372631622812545e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.645781366516831e-06</v>
+        <v>-1706.827950338462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8781318702306496</v>
+        <v>0.01235330840890713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.065402488912691</v>
+        <v>284.7954664145028</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6757664991618015</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.87420173556878</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.00965518418202614</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1600.37980611989</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.256349607984824</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2619.374414918714</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001915480366976007</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9174.625329913493</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.494561418877833e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.263935569120591</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7394128775907161</v>
+        <v>2.90874819970194e-07</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4087.105080773554</v>
+        <v>4171.571487259571</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002491483145920842</v>
+        <v>4.482379530979879e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.80472329950877</v>
+        <v>134.5728966688622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1366914360956335</v>
+        <v>0.0001419148438745938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.67118744962531</v>
+        <v>-0.1126890842977035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2071191784913343</v>
+        <v>0.04977141034814556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1059295822145521</v>
+        <v>8138.990312671006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1948726171005468</v>
+        <v>4.798417762498576e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.150696602807686e-05</v>
+        <v>-2327.053347538215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8510441037926854</v>
+        <v>0.000321539142139077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.01006695439363</v>
+        <v>237.3863453726859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2436748863754024</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.80518622901449</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003830626376940647</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1569.709414272296</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2593966190938239</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2092.666332480059</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.008815074969756035</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9484.212121998611</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.059246885106645e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-9.518441267304553</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6035490527747041</v>
+        <v>5.579650899250045e-05</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5273.898250195251</v>
+        <v>3539.018145923879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001525395272802255</v>
+        <v>1.552635954200619e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>108.9454412136779</v>
+        <v>145.3720703259055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05583836583748972</v>
+        <v>5.004507695936383e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.00579336650043</v>
+        <v>-0.08893917222222179</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1302055528764286</v>
+        <v>0.1222072396193081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1099149568935509</v>
+        <v>10766.64548825908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.178421254637817</v>
+        <v>3.681281128269326e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.625983260824078e-06</v>
+        <v>-1987.092399890897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.903455276578392</v>
+        <v>0.003306459201160403</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.750209140579269</v>
+        <v>211.4020340341976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5069328566002167</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.41972229520076</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06580439043107729</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2090.944632612964</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1132850432253362</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2571.332408949594</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001146900259837669</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7922.417942053492</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.136273207850059e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.04746523875376</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2877940069484947</v>
+        <v>7.341770479055359e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1572.937916107404</v>
+        <v>4458.41269405358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2418533723680853</v>
+        <v>1.381827766623751e-11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.37800552515098</v>
+        <v>99.66731772955836</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1956599278092104</v>
+        <v>0.0007044358104883869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95.24422486271391</v>
+        <v>-0.1438890344082729</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006334366384981598</v>
+        <v>0.007187162325532046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07640539054844404</v>
+        <v>8230.592548158605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3392904848841716</v>
+        <v>6.819385921213955e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.26488242677025e-05</v>
+        <v>-1862.13360007238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5344166541726127</v>
+        <v>0.001015320818639077</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3258619298761367</v>
+        <v>207.9660482810373</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9731567500009295</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>22.67362595478779</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0003362741348954283</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-732.1651997136769</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.572535106122916</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2521.513756389644</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001244908833038128</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11388.4204758268</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.418789509138176e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.08071670821877</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6502890592512354</v>
+        <v>1.642170275924872e-05</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3521.9537160225</v>
+        <v>4038.839682616594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006159307915544742</v>
+        <v>2.307809016757548e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.4952795896711</v>
+        <v>116.1486555191697</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01703752188180736</v>
+        <v>0.0004576996935043037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.09297417675512</v>
+        <v>-0.09166575480895832</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2971221189998575</v>
+        <v>0.1333993546254165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1242317548704379</v>
+        <v>9017.415747292405</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08184819419231583</v>
+        <v>1.937370689800928e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.502501623139849e-06</v>
+        <v>-2377.983736256088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9003049106124036</v>
+        <v>0.0002173555970254738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.790560113608628</v>
+        <v>259.493463569558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5800187542602162</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>12.64064038064851</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01434456511529791</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1400.172047523505</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2867864821543955</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2371.821738297996</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001450844197725806</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9962.264417498991</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.279846428360023e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.922229181843974</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7255022650812282</v>
+        <v>5.985616005621055e-07</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2795.611424970222</v>
+        <v>3694.503936147265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05357719071952267</v>
+        <v>3.215511873840575e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.2864114491125</v>
+        <v>126.0127437507973</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01220902949000081</v>
+        <v>7.427251621898925e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.47033306492976</v>
+        <v>-0.09136844522075681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02340778802951432</v>
+        <v>0.08172271245547082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02905232885583239</v>
+        <v>10520.16121266151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7277906793248988</v>
+        <v>2.694762121970923e-09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.604336521895252e-05</v>
+        <v>-2220.560279556109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.429885919147123</v>
+        <v>0.0003527258762681511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.74284197448954</v>
+        <v>272.2032679971071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4817103538521114</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>15.84944132787626</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01239324460883197</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1518.775597629271</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2573029034175665</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2102.041740177215</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.006507955537428172</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7503.732423936979</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.225290880117969e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.84172335434341</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4985602039857527</v>
+        <v>1.941396623082932e-07</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4203.310233687425</v>
+        <v>4324.886762065887</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001394036122616914</v>
+        <v>6.444802059004277e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.250122790238</v>
+        <v>112.7168856875659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01148270309002492</v>
+        <v>0.001537275221935099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.83152375639338</v>
+        <v>-0.1051968156326346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2165393174909331</v>
+        <v>0.0586176409229697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08208358410395217</v>
+        <v>9096.542058402916</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2897754262327947</v>
+        <v>3.715663610361305e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.447616157352105e-05</v>
+        <v>-2562.837901648678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.15862794283882</v>
+        <v>7.254706026076836e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.231622154419604</v>
+        <v>240.3322703940798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8110655784785952</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.44654508369528</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0007514671619183275</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-968.7362081372623</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4478147655470303</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3016.031308683139</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7.086211391295088e-05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7396.232046075711</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.32845085314392e-05</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.44140233652597</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2311849909033352</v>
+        <v>8.259668909161585e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4652.015120925702</v>
+        <v>3762.941221129015</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005281687643788403</v>
+        <v>1.840306173598907e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.56124744116065</v>
+        <v>120.4501088708126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09867805466378614</v>
+        <v>0.0003700444958902051</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.39092134675803</v>
+        <v>-0.1095182429248456</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0559299945721853</v>
+        <v>0.0614751277756401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2311077961166425</v>
+        <v>9635.374244136212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004306023013358595</v>
+        <v>1.02884398637922e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.361991995584016e-05</v>
+        <v>-1694.874754564609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1840612676175453</v>
+        <v>0.01163727585655188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.187382586647399</v>
+        <v>250.482159295948</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6651632212417551</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.16647357912041</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06297634568154682</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-3008.199115515745</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02061119130479707</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3182.407518374642</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.732998469017917e-05</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9028.155788256234</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.271526872765693e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-8.411251216037208</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6321209940655996</v>
+        <v>5.701193397843795e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2080.312847072519</v>
+        <v>3971.041937517037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09177654277163752</v>
+        <v>1.040153289639804e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.4851264593439</v>
+        <v>130.15559848746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04247810090043147</v>
+        <v>7.593373484685334e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.0298688909653</v>
+        <v>-0.1002886898233835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08333887353787557</v>
+        <v>0.1406706198624427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1361746564976049</v>
+        <v>8637.642404585811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04411319208486619</v>
+        <v>7.284075637863284e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.215742057781951e-05</v>
+        <v>-2056.651653815168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3830997427329207</v>
+        <v>0.001912965849542926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.043777707658347</v>
+        <v>233.7742265721702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.486905367486189</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>20.83931912220028</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.215240895502334e-05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-2685.77919315641</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03819186185405969</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-818.9397617298323</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2435490755202364</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9230.511660790198</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.385092199978084e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6.479310333949549</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6989731638592425</v>
+        <v>1.502355030673938e-05</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3962.131012449188</v>
+        <v>3614.672162774306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006161914279614345</v>
+        <v>1.165672574280012e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.19881867952057</v>
+        <v>96.57238000225279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1492683249545537</v>
+        <v>0.001302003292385881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.41351347818718</v>
+        <v>-0.09233914328645597</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04122804662904152</v>
+        <v>0.06473246306997341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03265501497750859</v>
+        <v>10211.61397865773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6932264752764479</v>
+        <v>2.85861892449172e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.95169003707325e-05</v>
+        <v>-2028.989425301904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6270191459144858</v>
+        <v>0.0004221932107056533</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.46316697856402</v>
+        <v>305.0149391917004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08498382225549579</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.42413310537039</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.08921994086199728</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-632.8464120980827</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6393788702296772</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2133.39604190993</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.006336769259238629</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9456.80067905029</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.152968139062699e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3.635218461986682</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.840881468490692</v>
+        <v>9.200365494560832e-10</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3939.119816676639</v>
+        <v>4064.108926441829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003349660366607723</v>
+        <v>3.061481353057405e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.356976369398</v>
+        <v>103.0918610062689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02693304565984785</v>
+        <v>0.001082234637022674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.31807818277942</v>
+        <v>-0.1173233661381002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01221854251537781</v>
+        <v>0.03818514070978776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003174932938590336</v>
+        <v>9185.014900725857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9704937713716375</v>
+        <v>8.463258961932344e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.69587704733534e-05</v>
+        <v>-2020.652875151008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1583691887498829</v>
+        <v>0.001607345946848023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.70704923437258</v>
+        <v>243.1899990092713</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2706501540732071</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.36237000540611</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.04818392971110416</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-474.8922137964773</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7195675785748049</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2586.165278230056</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0006339515295811633</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9113.054807207223</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4.252646130028269e-07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.300157085403008</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8958264438673506</v>
+        <v>2.792066059860144e-06</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2691.889109092452</v>
+        <v>4440.166925736656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05694343581572343</v>
+        <v>2.510181583051737e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.3210874622338</v>
+        <v>157.6229666820584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0196319838442642</v>
+        <v>1.454036494131978e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.80974498938679</v>
+        <v>-0.1304627296814048</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03688900002127291</v>
+        <v>0.01380017470187394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01352526157424869</v>
+        <v>8407.530823118539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8726548367286326</v>
+        <v>1.323647024595197e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.985685104469674e-05</v>
+        <v>-2450.442432844092</v>
       </c>
       <c r="C6" t="n">
-        <v>0.60383826822284</v>
+        <v>5.156773832781995e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.4737631262897</v>
+        <v>159.6014538026571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2141449023741483</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.82233713063741</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01258001586007597</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>129.8258108776256</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.926830786093342</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2304.98505355398</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.004677812336119013</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9850.191726958836</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.272157821747328e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>8.395971533006932</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6600287313484628</v>
+        <v>0.001849518074716496</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3581.74285399703</v>
+        <v>3937.310009915815</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007262095853703212</v>
+        <v>4.600453254942274e-08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.7469097239651</v>
+        <v>121.8317970632488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04504239123510743</v>
+        <v>0.0002877455420712963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49.64341520256246</v>
+        <v>-0.1248551596460879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1363447095389224</v>
+        <v>0.03394760887325393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.151903311811523</v>
+        <v>9958.846695270053</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04632201561558415</v>
+        <v>1.521900776781721e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.095160980697335e-05</v>
+        <v>-2126.996446147911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8359253533120368</v>
+        <v>0.00110576921671966</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7988435727166845</v>
+        <v>230.2118064133251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9368762616074844</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>14.00973834791014</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01074961422943773</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1837.60369777959</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1493740397831578</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2257.230179144093</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.003322733319158807</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>8860.531932330226</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.758021451275008e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.719526653950027</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8787529684057787</v>
+        <v>2.441299798008214e-05</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3439.293802962128</v>
+        <v>3937.238115900132</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008090461603778</v>
+        <v>6.480575169621362e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80.41621989752375</v>
+        <v>112.4227164789351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1501120011902528</v>
+        <v>0.0004674075197263826</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.73669911524014</v>
+        <v>-0.1008163526224764</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07809433941901077</v>
+        <v>0.07125905224189606</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1124042008567975</v>
+        <v>9578.536403536418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1652979263446174</v>
+        <v>3.51324000779488e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.354418638550936e-05</v>
+        <v>-2230.879931708096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5360987293141668</v>
+        <v>0.0004382037234928338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.280004935580629</v>
+        <v>246.8424519224072</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8930186372477902</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>13.9157503671844</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.009997320582676031</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1059.518424418746</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4393787226972071</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2607.44099033901</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0007897778608165421</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10008.42080538599</v>
-      </c>
-      <c r="C11" t="n">
-        <v>8.992292028877659e-10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.353021657172768</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8957900345301963</v>
+        <v>1.708984015640294e-06</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2824.77354979386</v>
+        <v>3609.08287685937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03581532180380978</v>
+        <v>1.901179042238765e-07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.50328983991517</v>
+        <v>114.5883285210411</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07428400640674321</v>
+        <v>0.0004230986606665799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.97153135139908</v>
+        <v>-0.08202284622575472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02361416713214991</v>
+        <v>0.1758375758405629</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002114510940065623</v>
+        <v>10786.90459946874</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9797217671712838</v>
+        <v>1.668029811172606e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.175734941381412e-05</v>
+        <v>-2209.870728164007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2438032848705019</v>
+        <v>0.0002918743455749345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.77374736873165</v>
+        <v>284.7294805129252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2543326859522683</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>16.50553624612221</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003600434392321225</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-756.6428686694535</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.574661863103215</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2445.374914997073</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.001926653506458375</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7655.764340878826</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7.037944624008143e-06</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.26327715549753</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3182736987575343</v>
+        <v>2.269409417299966e-08</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3962.689691395017</v>
+        <v>4247.999463976024</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003910138781013368</v>
+        <v>1.902284208604462e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.3318898401509</v>
+        <v>142.2945328590817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06533477411438166</v>
+        <v>1.985585244186489e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.04647716863114</v>
+        <v>-0.09753958753814498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06392074790420116</v>
+        <v>0.05744772468199813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1365121062254731</v>
+        <v>8198.184799206989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1044737340565053</v>
+        <v>8.819251975207043e-07</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.749406397244098e-05</v>
+        <v>-2376.817129567782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3961790510109534</v>
+        <v>8.852605686918202e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.661873831988949</v>
+        <v>205.4070882710444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3175480633381037</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>11.88925969735212</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.02948114349809212</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1702.206837101456</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2055618723273651</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-2248.685746665689</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0044510219207189</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10156.7121448726</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.404638731575385e-08</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.189863022773096</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7863743836186765</v>
+        <v>5.465404762557926e-05</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29576650" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ30310688" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ31105848" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ31874941" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ32644711" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ33445520" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ34262106" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ35053122" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ35800951" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ36569687" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ37323433" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ38094081" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ38877392" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ39615029" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ40367502" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ41103523" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ41825414" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ42609871" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ43379121" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ44148143" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ44907768" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ45670627" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ46439869" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ47192821" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ47956932" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ48744609" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ49497628" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ50267221" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ51021134" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ51743432" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ52421370" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ53098326" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ53875801" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ54629275" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ55694131" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ56462986" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ57233151" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ57989611" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ58745555" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ59534457" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ00400623" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ01149612" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ01941086" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ02733561" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ03498560" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ04280084" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ05065774" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ05841383" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ06590422" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ07358720" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ28910131" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ29103329" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ29322842" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ29534893" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29750295" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ29969537" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ30188396" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ30406552" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ30619939" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ30839938" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ31061748" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ31363977" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ31782430" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ32251022" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ32558621" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ32863263" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ33177076" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ33473505" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ33780277" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ34083056" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ34375078" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ34671571" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ34957530" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ35254152" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ35540323" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ35812711" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ36091432" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ36390697" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ36673876" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ36954932" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ37238284" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ37540561" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ37825722" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ38107172" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ38390723" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ38674000" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ38957421" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ39238198" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ39525438" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ39805574" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ40090698" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ40373923" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ40654827" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ40940745" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ41223876" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ41527001" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ41821555" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ42095649" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ42373956" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ42657277" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ28910131" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ29103329" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ29322842" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29534893" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ29750295" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ29969537" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ30188396" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ30406552" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ30619939" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ30839938" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ31061748" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ31363977" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ31782430" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ32251022" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ32558621" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ32863263" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33177076" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ33473505" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ33780277" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ34083056" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ34375078" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ34671571" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ34957530" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ35254152" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ35540323" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ35812711" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ36091432" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ36390697" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ36673876" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ36954932" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ37238284" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ37540561" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ37825722" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ38107172" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ38390723" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ38674000" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ38957421" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ39238198" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ39525438" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ39805574" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ40090698" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ40373923" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ40654827" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ40940745" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ41223876" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ41527001" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ41821555" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ42095649" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ42373956" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ42657277" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ29663524" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ29918166" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ30179123" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ30427664" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ30684801" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ30935974" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ31300650" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ31571537" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ31804964" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ32060949" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ32316896" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ32568133" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ32829869" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ33083943" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ33341478" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ33599686" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ33863782" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ34129327" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ34387353" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ34651337" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ34913851" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ35174896" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ35449545" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ35709437" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ35999482" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ36317861" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ36602533" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ36878069" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ37152038" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ37417573" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ37677312" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ37932206" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ38186393" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ38443232" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ38691253" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ38945784" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ39205329" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ39461865" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ39715712" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ39970732" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ40230785" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ40468810" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ40723989" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ40979010" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ41234545" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ41496455" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ41755105" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ42014639" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ42280642" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ42564895" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3581.829803896606</v>
+        <v>2488.271895774432</v>
       </c>
       <c r="C2" t="n">
-        <v>6.302861178376093e-08</v>
+        <v>0.05675614312801575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.613167661059</v>
+        <v>160.5179345181724</v>
       </c>
       <c r="C3" t="n">
-        <v>1.863726574411262e-05</v>
+        <v>0.002729427181067394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08195703348564989</v>
+        <v>100.039229065671</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1246199746737005</v>
+        <v>0.002726328068449939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9522.149587103637</v>
+        <v>-0.09784853852850148</v>
       </c>
       <c r="C5" t="n">
-        <v>1.154172820190762e-08</v>
+        <v>0.1195649383061554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1971.853540646899</v>
+        <v>-7.048067431505967e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001035185538740709</v>
+        <v>0.8908041915359306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.3898091224842</v>
+        <v>12.97330765874046</v>
       </c>
       <c r="C7" t="n">
-        <v>6.688151539854806e-07</v>
+        <v>0.007865581368736966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1659.333304942011</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1891609143654758</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1841.990737419283</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01061038147405699</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9595.760967376618</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.582650011857589e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.39464340477434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3690838250108555</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4181.142479725257</v>
+        <v>4493.680188919991</v>
       </c>
       <c r="C2" t="n">
-        <v>2.757160626685232e-09</v>
+        <v>0.002688644574575101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.8731463707435</v>
+        <v>138.3138790722717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001738073225063813</v>
+        <v>0.02099548677683715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.117156995413572</v>
+        <v>78.33184466109027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04173515448773312</v>
+        <v>0.02618593328838959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7845.814029151916</v>
+        <v>-0.1341234213772244</v>
       </c>
       <c r="C5" t="n">
-        <v>4.535029523467776e-05</v>
+        <v>0.09514995394747459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1829.783672204067</v>
+        <v>-3.372466072038809e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005051174969890623</v>
+        <v>0.6719770582645725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>233.5688397076457</v>
+        <v>14.00858708321073</v>
       </c>
       <c r="C7" t="n">
-        <v>3.987214193567696e-05</v>
+        <v>0.01892024043551137</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2156.037210623931</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1615631169021439</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1791.765296852021</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02036739976534063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8257.663990802772</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.221100437627532e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.80726096127905</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4749124765020148</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4023.698239681403</v>
+        <v>1932.644759100034</v>
       </c>
       <c r="C2" t="n">
-        <v>5.796964061260189e-09</v>
+        <v>0.1257231740858957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.5528959720359</v>
+        <v>137.5759825117607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005104743065950165</v>
+        <v>0.00680523630124487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1160939638066831</v>
+        <v>71.8635943794427</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03339846587231073</v>
+        <v>0.02278917026035647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9329.248489583999</v>
+        <v>-0.1269656572558832</v>
       </c>
       <c r="C5" t="n">
-        <v>1.057966358642342e-07</v>
+        <v>0.03802609732624369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1887.432362655053</v>
+        <v>-3.921120258702104e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001608049367485822</v>
+        <v>0.9371973106831529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>238.2578179191355</v>
+        <v>14.47636660728784</v>
       </c>
       <c r="C7" t="n">
-        <v>1.603074493934645e-06</v>
+        <v>0.001259112521502232</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1847.869217703977</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.11500359114827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1695.753965815363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01285508752734191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9522.874744434235</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.996947123034747e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>35.84250078062502</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03844951142391079</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3636.665537968913</v>
+        <v>3689.636376127713</v>
       </c>
       <c r="C2" t="n">
-        <v>5.740271513650132e-08</v>
+        <v>0.003666767142275387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.9131016471505</v>
+        <v>157.7391392361473</v>
       </c>
       <c r="C3" t="n">
-        <v>8.566640702750613e-05</v>
+        <v>0.003435322222682953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07350086661185803</v>
+        <v>83.90694586520593</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1904903659237402</v>
+        <v>0.01151309434673017</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10181.28222766247</v>
+        <v>-0.1012872701524712</v>
       </c>
       <c r="C5" t="n">
-        <v>8.586453937247919e-09</v>
+        <v>0.1157271384867056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2152.619163752611</v>
+        <v>2.649790126508784e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004356381812598223</v>
+        <v>0.996041838620228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247.5371327749597</v>
+        <v>12.9437245763936</v>
       </c>
       <c r="C7" t="n">
-        <v>8.061835531338589e-07</v>
+        <v>0.00927777673441435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2083.062875190071</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1056826987071804</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1942.321659162227</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006989650127082581</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10379.98092024125</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.071977096149811e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.359913910641872</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5927358067838975</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4226.787837756543</v>
+        <v>3720.109893976775</v>
       </c>
       <c r="C2" t="n">
-        <v>6.567694347421052e-10</v>
+        <v>0.003847324785167096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.9381355740482</v>
+        <v>146.4247032385705</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004784243156301436</v>
+        <v>0.0101798500815278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1182765214369281</v>
+        <v>62.95668618518924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0401585836495849</v>
+        <v>0.05004335639281478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9261.093956921994</v>
+        <v>-0.152134530142463</v>
       </c>
       <c r="C5" t="n">
-        <v>4.774058248972614e-08</v>
+        <v>0.01691819924131348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2486.243647359343</v>
+        <v>-2.161182730690586e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001036927203240541</v>
+        <v>0.9967013911452778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.6609673566536</v>
+        <v>15.75844358464632</v>
       </c>
       <c r="C7" t="n">
-        <v>8.119161088864655e-07</v>
+        <v>0.007205552342829625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2388.906491458633</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0513199135936615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2292.956495628769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002988272986621038</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9308.135207548534</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.451646361551281e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3.494470233715248</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8431757474266985</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4407.549171522467</v>
+        <v>4156.437002688368</v>
       </c>
       <c r="C2" t="n">
-        <v>6.992245833209712e-10</v>
+        <v>0.002060525125151059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>109.1750497436363</v>
+        <v>189.5786589467305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001538134605184459</v>
+        <v>0.001117724805767137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1342376536343927</v>
+        <v>84.89949028686422</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01874298881348591</v>
+        <v>0.01914222531935487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8839.435942668411</v>
+        <v>-0.1915766298989275</v>
       </c>
       <c r="C5" t="n">
-        <v>3.226465559964493e-07</v>
+        <v>0.00835137197088545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2379.126194762938</v>
+        <v>7.169084644932517e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002093582988051374</v>
+        <v>0.2748028657141643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.0128307184377</v>
+        <v>10.97531143593221</v>
       </c>
       <c r="C7" t="n">
-        <v>2.015048105351359e-05</v>
+        <v>0.03514270456628119</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1854.632737318486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1580353449025305</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1677.763088335834</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03176997162956646</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8632.919100595123</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.818796400849652e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.14464252305544</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5199541757273866</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3665.132495990596</v>
+        <v>2781.651347867039</v>
       </c>
       <c r="C2" t="n">
-        <v>7.499507543910509e-07</v>
+        <v>0.07331550888416834</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.7514980166931</v>
+        <v>143.7590000901736</v>
       </c>
       <c r="C3" t="n">
-        <v>5.582888474278374e-06</v>
+        <v>0.01348917047313555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08726733070654136</v>
+        <v>112.5470030601554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1237074845117421</v>
+        <v>0.003480186938966588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8600.288113160808</v>
+        <v>-0.05748548177549778</v>
       </c>
       <c r="C5" t="n">
-        <v>1.015986727102702e-05</v>
+        <v>0.4500164513064739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1875.237461695268</v>
+        <v>-6.27093340981679e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00468439400275278</v>
+        <v>0.4121020650554797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>215.9977798783755</v>
+        <v>15.36051115321303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001363797446635118</v>
+        <v>0.009108333031088005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1254.162469084758</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4260764244682302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1988.451308041665</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01021837749858031</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8354.958677272611</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.368365360290406e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.53179649989103</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6273610653187777</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4371.512126391348</v>
+        <v>986.140402985799</v>
       </c>
       <c r="C2" t="n">
-        <v>4.247454787971038e-09</v>
+        <v>0.488466673042528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.7856779458214</v>
+        <v>146.1704639727583</v>
       </c>
       <c r="C3" t="n">
-        <v>5.890855864240562e-05</v>
+        <v>0.007112995071308209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1108062670497533</v>
+        <v>128.2343449032385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03867432366400355</v>
+        <v>0.0004415842606219814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7251.02726032011</v>
+        <v>-0.1081525846766304</v>
       </c>
       <c r="C5" t="n">
-        <v>2.614085646095576e-05</v>
+        <v>0.1139999058738497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2161.684867512528</v>
+        <v>2.380540258135515e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005833520485674996</v>
+        <v>0.6969695729482754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.0306776474902</v>
+        <v>13.44598211201103</v>
       </c>
       <c r="C7" t="n">
-        <v>4.716074428253276e-05</v>
+        <v>0.00527066505209361</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-998.6651426861831</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.461501163841643</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1561.454122163349</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03085824579860956</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7964.972346896602</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.368712650569408e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>49.32670627267773</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01631271698828439</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4054.19714809429</v>
+        <v>2844.470937219327</v>
       </c>
       <c r="C2" t="n">
-        <v>2.591369667638094e-08</v>
+        <v>0.04085285605437132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.1388354774183</v>
+        <v>142.4134807276268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000358731894649787</v>
+        <v>0.01416336252917262</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1490540374484049</v>
+        <v>77.56521888122984</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02215187962732467</v>
+        <v>0.03025028926069061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9312.715519537551</v>
+        <v>-0.1596490116738027</v>
       </c>
       <c r="C5" t="n">
-        <v>1.292541085532812e-07</v>
+        <v>0.02782516324472482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2244.420659564781</v>
+        <v>9.858945276661673e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007178925698565412</v>
+        <v>0.8742077296251098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.5509033021216</v>
+        <v>22.1921608376547</v>
       </c>
       <c r="C7" t="n">
-        <v>2.071361840031172e-06</v>
+        <v>0.0007139743019517368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2179.911155508251</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1145258083618373</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1901.995819345592</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01570361259300676</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9338.833615167143</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.103867961920775e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7124790175109972</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9684652234263029</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3673.245285735416</v>
+        <v>4486.455439112578</v>
       </c>
       <c r="C2" t="n">
-        <v>5.088240300533998e-08</v>
+        <v>0.0005346391914816457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.6008471220597</v>
+        <v>132.1798786588288</v>
       </c>
       <c r="C3" t="n">
-        <v>6.74439299713094e-06</v>
+        <v>0.01435538701805382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08698401167148734</v>
+        <v>94.24769099452455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.125811276475752</v>
+        <v>0.004244700003439021</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9753.956136297613</v>
+        <v>-0.1226043924931805</v>
       </c>
       <c r="C5" t="n">
-        <v>1.109207410221316e-07</v>
+        <v>0.0736978320672269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1971.746772254191</v>
+        <v>-8.600763680076905e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001360499237654646</v>
+        <v>0.8899800703251014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.47658486054</v>
+        <v>13.4000904073778</v>
       </c>
       <c r="C7" t="n">
-        <v>3.360947404794942e-05</v>
+        <v>0.009458853306441388</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2609.060610453093</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05371301560155144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1796.267581258102</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01188734408114984</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9269.316747116032</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.454189611619609e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-22.04830792307441</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2113884938125891</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3861.643962931763</v>
+        <v>3312.705992160186</v>
       </c>
       <c r="C2" t="n">
-        <v>1.239595182779556e-08</v>
+        <v>0.009032545178945075</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.5723054741403</v>
+        <v>151.2309393059155</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001620660304894997</v>
+        <v>0.00515317858420113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07241505111959315</v>
+        <v>80.34476059823223</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1997658291224224</v>
+        <v>0.01330969217847698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9675.152293667263</v>
+        <v>-0.09141565273447302</v>
       </c>
       <c r="C5" t="n">
-        <v>1.598979019638863e-07</v>
+        <v>0.1529426845462719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2288.220370839264</v>
+        <v>-1.651859742438712e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002427811499352615</v>
+        <v>0.7546179147265361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>240.4742371944945</v>
+        <v>14.76790765512573</v>
       </c>
       <c r="C7" t="n">
-        <v>1.999111055493645e-06</v>
+        <v>0.002090010285841459</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1385.262765397661</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2595308538818088</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1895.667841406023</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.009557987639641984</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9897.951338768293</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.177927213610002e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.683991750407245</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8304657259473784</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4741.972033330566</v>
+        <v>4025.420663524299</v>
       </c>
       <c r="C2" t="n">
-        <v>1.696416257939149e-10</v>
+        <v>0.001743587283494903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.5599982913116</v>
+        <v>142.7222566554607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005224806994841451</v>
+        <v>0.01253311699406925</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09389924799790188</v>
+        <v>73.25274757089551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08305967592325096</v>
+        <v>0.03178708323038923</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7767.842864123659</v>
+        <v>-0.1489506882373274</v>
       </c>
       <c r="C5" t="n">
-        <v>1.321378808437718e-05</v>
+        <v>0.02542111109222802</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3127.330537781022</v>
+        <v>4.784406631352323e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>9.236559169932031e-07</v>
+        <v>0.4473891909709004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.3957884125669</v>
+        <v>19.26194582627915</v>
       </c>
       <c r="C7" t="n">
-        <v>6.149926508141507e-06</v>
+        <v>0.0004944756975391823</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2040.453824268885</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09671352380094377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2328.853516842399</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001735174200022631</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7786.843925526448</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8.350538412394234e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11.96421874908997</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4850210159330004</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4108.756855074163</v>
+        <v>3510.836735259129</v>
       </c>
       <c r="C2" t="n">
-        <v>1.499395307005105e-09</v>
+        <v>0.008373775623313245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.11154584590571</v>
+        <v>182.1231682912146</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007061419379946983</v>
+        <v>0.001271123219427398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1257089059269216</v>
+        <v>40.66783933348844</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01616583404322393</v>
+        <v>0.2211281326386794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10313.79149796126</v>
+        <v>-0.1473841589674457</v>
       </c>
       <c r="C5" t="n">
-        <v>2.030994566901164e-09</v>
+        <v>0.01735195982137415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2162.860220690768</v>
+        <v>4.555819323559776e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005081759309782312</v>
+        <v>0.9304011680804232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.6570278627186</v>
+        <v>8.7438652096372</v>
       </c>
       <c r="C7" t="n">
-        <v>1.479779736553907e-06</v>
+        <v>0.0837226494406997</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2250.717855978625</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06740726850621434</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2369.269585234392</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001592561825513827</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10526.73346315937</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.033011097173698e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.21417851927698</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2749087031335284</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4026.955247441081</v>
+        <v>2525.372678155938</v>
       </c>
       <c r="C2" t="n">
-        <v>4.112325503890833e-09</v>
+        <v>0.04528531686361079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.3573829535669</v>
+        <v>167.9753809350888</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001815962604654038</v>
+        <v>0.001460508939509964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1197320337152032</v>
+        <v>63.71853884073205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01856362942276117</v>
+        <v>0.06296870971964373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9009.598041428639</v>
+        <v>-0.1389854459065923</v>
       </c>
       <c r="C5" t="n">
-        <v>8.84395148666788e-08</v>
+        <v>0.02405916214418415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1907.681750317485</v>
+        <v>7.769906440111257e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001812446377840947</v>
+        <v>0.8909239431055145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>252.0918299364513</v>
+        <v>12.77378774834435</v>
       </c>
       <c r="C7" t="n">
-        <v>8.895937994054744e-07</v>
+        <v>0.007533437020723997</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1837.159215354211</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1440572369877687</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1785.391914348903</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01441275130229787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9208.145555585133</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.63196091829018e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.33987991382978</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1217586951185574</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4057.46504905344</v>
+        <v>4498.853982371882</v>
       </c>
       <c r="C2" t="n">
-        <v>1.156926687231401e-09</v>
+        <v>0.0008223745824588481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.3465553186043</v>
+        <v>178.0162948862625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001188338572022838</v>
+        <v>0.002111364305986557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09220456918022704</v>
+        <v>83.19164265071473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.155144288771899</v>
+        <v>0.01051826588734902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9308.483964052128</v>
+        <v>-0.1089252890973671</v>
       </c>
       <c r="C5" t="n">
-        <v>5.078095897544841e-08</v>
+        <v>0.1174702867362037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2559.513008848606</v>
+        <v>-1.244979259673725e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>6.217057671019201e-05</v>
+        <v>0.8215736069533506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.4139620373634</v>
+        <v>8.309578184361914</v>
       </c>
       <c r="C7" t="n">
-        <v>1.186050408388475e-06</v>
+        <v>0.1064050261509791</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2295.026484630092</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08009903312087753</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2711.393742996072</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0003760644545595759</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9364.46982655903</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.682669585937525e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-4.114204701674009</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.817214966216076</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4057.250232340252</v>
+        <v>4084.825543521642</v>
       </c>
       <c r="C2" t="n">
-        <v>1.139581793750441e-07</v>
+        <v>0.008708572736962222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.5931506477364</v>
+        <v>143.0507779686633</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002991217638834669</v>
+        <v>0.02119951413512274</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1122894223183001</v>
+        <v>75.12278725880442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05630679242403445</v>
+        <v>0.03868750701630078</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9126.016405971473</v>
+        <v>-0.1586680883220618</v>
       </c>
       <c r="C5" t="n">
-        <v>1.02450086461321e-06</v>
+        <v>0.02743004496938641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2268.1793615367</v>
+        <v>1.337818966805362e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000678178113067004</v>
+        <v>0.8171202898045802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>236.7050714307717</v>
+        <v>12.56216784034523</v>
       </c>
       <c r="C7" t="n">
-        <v>4.396669595336286e-05</v>
+        <v>0.03068562752003406</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2686.263156117545</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06038702290747506</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2138.759879276026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007464761543567078</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9480.948526464563</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.449158355036754e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.742637932047671</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8583764666139744</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3885.840229835221</v>
+        <v>2075.849388795483</v>
       </c>
       <c r="C2" t="n">
-        <v>1.377386894524356e-08</v>
+        <v>0.09487578160408922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.7439313443904</v>
+        <v>132.7560659484858</v>
       </c>
       <c r="C3" t="n">
-        <v>7.173560242087413e-06</v>
+        <v>0.009305537470180671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08563830466144347</v>
+        <v>114.2799506640317</v>
       </c>
       <c r="C4" t="n">
-        <v>0.128027999567207</v>
+        <v>0.0007734269492054131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8635.008932864279</v>
+        <v>-0.120022246212113</v>
       </c>
       <c r="C5" t="n">
-        <v>9.174790768011985e-07</v>
+        <v>0.09347657106893009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2149.02189876978</v>
+        <v>3.634820754333284e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005301488572990293</v>
+        <v>0.6343257230715588</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.6902469880343</v>
+        <v>23.04198860930775</v>
       </c>
       <c r="C7" t="n">
-        <v>7.006227255628131e-06</v>
+        <v>9.12513859140979e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1123.072227757583</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3476326629529759</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1040.869978110585</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1430168651892998</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8999.473882134796</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.064711496846792e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.19401839926158</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7584200314551469</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3896.165054757618</v>
+        <v>3420.666431456573</v>
       </c>
       <c r="C2" t="n">
-        <v>3.700404176210173e-08</v>
+        <v>0.009274500774359051</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.0571814065142</v>
+        <v>142.3465097160176</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004275486575348646</v>
+        <v>0.009166262685620045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.113442185130456</v>
+        <v>72.33629142861716</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03752861175238868</v>
+        <v>0.03378001562253366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10444.95631588136</v>
+        <v>-0.1239966568525274</v>
       </c>
       <c r="C5" t="n">
-        <v>2.940858240411255e-08</v>
+        <v>0.05392141998503049</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1932.467870035094</v>
+        <v>-8.464047336850604e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002099428209321629</v>
+        <v>0.8758405052339101</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>225.5012073104303</v>
+        <v>12.49514396354666</v>
       </c>
       <c r="C7" t="n">
-        <v>1.469975012470292e-05</v>
+        <v>0.01891805407853855</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2293.158515212909</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09499481107796141</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1955.888586694621</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007919385739748879</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9930.862147241602</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.733823397187263e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.775077729255592</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6302341919528818</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5081.653806232943</v>
+        <v>4695.011506601299</v>
       </c>
       <c r="C2" t="n">
-        <v>9.540391723984398e-12</v>
+        <v>0.001095259737857679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106.9610010721527</v>
+        <v>124.6208282298172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009908917379911515</v>
+        <v>0.02266797515671212</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1740763559710025</v>
+        <v>65.77009387451689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008093476431072387</v>
+        <v>0.05320292341473334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7341.512269380333</v>
+        <v>-0.1900915207473563</v>
       </c>
       <c r="C5" t="n">
-        <v>6.030085987559612e-05</v>
+        <v>0.01379827324098192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2256.662574498096</v>
+        <v>5.166294545208886e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004829771944099556</v>
+        <v>0.9527057467441096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.4447393268416</v>
+        <v>11.34894068479349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003277443214950395</v>
+        <v>0.03366224506438558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2422.138964153482</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06147821459682414</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2144.059408438308</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.005708912688031808</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7917.554225812219</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.489498550561559e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8551248167776038</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9627629595580323</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3645.368329662463</v>
+        <v>3928.578959438959</v>
       </c>
       <c r="C2" t="n">
-        <v>2.925380128584534e-07</v>
+        <v>0.003880336168000715</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.8245518481992</v>
+        <v>158.6780406829509</v>
       </c>
       <c r="C3" t="n">
-        <v>2.187067838912116e-05</v>
+        <v>0.009952806097896765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06777816287477889</v>
+        <v>102.3391039569662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2591262202593346</v>
+        <v>0.003744609956510538</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9842.257184129965</v>
+        <v>-0.09830466746750198</v>
       </c>
       <c r="C5" t="n">
-        <v>2.87002736955908e-08</v>
+        <v>0.1507105833569647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2436.350848208249</v>
+        <v>3.977705468745412e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001964062929749663</v>
+        <v>0.9435981317120911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.0752260606106</v>
+        <v>10.83935936457303</v>
       </c>
       <c r="C7" t="n">
-        <v>3.437283908591999e-06</v>
+        <v>0.03461937780688263</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2856.210044300238</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05101788896562218</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2438.149369357927</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001662371542064729</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9632.258073349831</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.158997522874702e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-2.766138587702574</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8828776888855125</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3471.716689340938</v>
+        <v>1908.320049848526</v>
       </c>
       <c r="C2" t="n">
-        <v>7.815850846928762e-07</v>
+        <v>0.1843191183308208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.4484945312935</v>
+        <v>145.9162325716884</v>
       </c>
       <c r="C3" t="n">
-        <v>2.093732085084252e-05</v>
+        <v>0.008432360296716514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08349368561373428</v>
+        <v>102.996016298538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1326319437888364</v>
+        <v>0.004581977547945236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10348.46184115586</v>
+        <v>-0.09685924508809046</v>
       </c>
       <c r="C5" t="n">
-        <v>2.450333994874714e-08</v>
+        <v>0.160963397066313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1943.116400730178</v>
+        <v>-4.897137054122409e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002945617241451962</v>
+        <v>0.9298097389648562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>226.9629224809415</v>
+        <v>15.21086824390578</v>
       </c>
       <c r="C7" t="n">
-        <v>1.714804983278119e-05</v>
+        <v>0.003388486066450428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1354.045516643004</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.328722472736388</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1538.172434102097</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05157207510661599</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10988.25625253446</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.931476573764729e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.73818380102263</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4211699600584713</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3517.632456088126</v>
+        <v>2136.325538567462</v>
       </c>
       <c r="C2" t="n">
-        <v>5.712970596213539e-08</v>
+        <v>0.08088507860010838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.4177801501302</v>
+        <v>179.2121363412953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001470187451556335</v>
+        <v>0.0003959936842510604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08722552182169371</v>
+        <v>80.78136117235172</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08424831088623518</v>
+        <v>0.01360141692914817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10309.25926657443</v>
+        <v>-0.09787041093508489</v>
       </c>
       <c r="C5" t="n">
-        <v>1.812603855774517e-09</v>
+        <v>0.119613106620453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1910.492266519251</v>
+        <v>-5.196623482361343e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00108944113093408</v>
+        <v>0.9254579652081795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>251.4805503155429</v>
+        <v>12.71679345957449</v>
       </c>
       <c r="C7" t="n">
-        <v>1.74932688638258e-07</v>
+        <v>0.01219323935197233</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1253.254703151563</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2987934227387358</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1786.408535942157</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.009515952435013316</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9945.036469055352</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.037671279020093e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>22.83342937388862</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1801819344984388</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3551.820151880776</v>
+        <v>2507.568048540125</v>
       </c>
       <c r="C2" t="n">
-        <v>4.757148350188646e-07</v>
+        <v>0.08689983953273346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>168.6391796633239</v>
+        <v>117.4882337809305</v>
       </c>
       <c r="C3" t="n">
-        <v>2.854267670808457e-06</v>
+        <v>0.03995783253733126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1079198341038476</v>
+        <v>120.1522285323569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06981186911555282</v>
+        <v>0.001474016220351821</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9782.145439781387</v>
+        <v>-0.07784169303881361</v>
       </c>
       <c r="C5" t="n">
-        <v>1.397739793534507e-06</v>
+        <v>0.2973630831340602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1579.930417725402</v>
+        <v>-6.036237728389141e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01552654773858655</v>
+        <v>0.4199989304730226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3531040058737</v>
+        <v>13.44368551137122</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001426886961344945</v>
+        <v>0.009516368180873676</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1413.980790150433</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3476772262613461</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1711.563710234777</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02350423654076189</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8932.246092322941</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.564238115088952e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19.52853936110434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3234749172666519</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4477.353602034586</v>
+        <v>4005.54047957701</v>
       </c>
       <c r="C2" t="n">
-        <v>1.10521863045114e-10</v>
+        <v>0.001617661109159558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.61546353385636</v>
+        <v>148.0429727912445</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004144706588661028</v>
+        <v>0.01017355101029688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1348681511752919</v>
+        <v>57.54744965694996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01047417961514952</v>
+        <v>0.08062881855942199</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8186.91945422323</v>
+        <v>-0.1557097045505792</v>
       </c>
       <c r="C5" t="n">
-        <v>1.254783014674421e-06</v>
+        <v>0.01057301389980036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2272.041197440475</v>
+        <v>-1.506765351348157e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002085425997060432</v>
+        <v>0.9976608106473026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264.580128433817</v>
+        <v>18.23549297739888</v>
       </c>
       <c r="C7" t="n">
-        <v>1.078064050591962e-06</v>
+        <v>0.001029211949772045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2011.102935285034</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1042684528940404</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1908.171219091707</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006920250246751656</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8403.642925805247</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.978275720037751e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.49499855762321</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5447545151571768</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4403.891374675534</v>
+        <v>3580.172527320188</v>
       </c>
       <c r="C2" t="n">
-        <v>4.790384242346084e-10</v>
+        <v>0.006163591380348378</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.3583863916775</v>
+        <v>114.9003769288553</v>
       </c>
       <c r="C3" t="n">
-        <v>3.791131006724336e-05</v>
+        <v>0.03818915108704382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1400318976382613</v>
+        <v>92.34392123949169</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01568407918286576</v>
+        <v>0.004449825700510962</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7471.294296464701</v>
+        <v>-0.2110769955827181</v>
       </c>
       <c r="C5" t="n">
-        <v>9.694708175286078e-06</v>
+        <v>0.00234200580606565</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1984.354231838068</v>
+        <v>7.619941540230806e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001827242623305144</v>
+        <v>0.2245110564836549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>209.916854982173</v>
+        <v>14.61003420065094</v>
       </c>
       <c r="C7" t="n">
-        <v>6.874009395652886e-05</v>
+        <v>0.002485141884781825</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3437.624644609594</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01739294497196075</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1293.449401792134</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.07925305897461972</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7873.926738720983</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.968786403466859e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.291087358841953</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.894622093039081</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3576.857802395318</v>
+        <v>2193.637589768171</v>
       </c>
       <c r="C2" t="n">
-        <v>3.910654988967754e-07</v>
+        <v>0.09760383085294258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141.935963430521</v>
+        <v>129.2907389297443</v>
       </c>
       <c r="C3" t="n">
-        <v>2.222264659656183e-05</v>
+        <v>0.01957766889887856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06326201567187696</v>
+        <v>101.0529382047378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2405354572089013</v>
+        <v>0.004160593387687315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10437.25195576774</v>
+        <v>-0.05560934465089343</v>
       </c>
       <c r="C5" t="n">
-        <v>6.62688721402568e-09</v>
+        <v>0.3865720638422627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2240.571979183173</v>
+        <v>-3.840552711336921e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001811634554339882</v>
+        <v>0.4595422103569518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.8970927434528</v>
+        <v>16.27213811655134</v>
       </c>
       <c r="C7" t="n">
-        <v>9.509440599963852e-06</v>
+        <v>0.003818943687636991</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1141.651948298929</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3631462289300578</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2175.371473322737</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001842487195079692</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10627.3622930463</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.429961593739553e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16.91248718619969</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.345725008624129</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4279.098937338969</v>
+        <v>3271.258359704001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.055351593362392e-09</v>
+        <v>0.01335011338594856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.20398958374477</v>
+        <v>198.1616367181172</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01235680576451164</v>
+        <v>0.0006406551449702739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.135065820458741</v>
+        <v>53.53198018340431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02374930790929541</v>
+        <v>0.1169653632746623</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8796.709457425277</v>
+        <v>-0.1534025211726893</v>
       </c>
       <c r="C5" t="n">
-        <v>2.111090104625109e-07</v>
+        <v>0.03070835001446218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1925.742192645189</v>
+        <v>9.561765180236351e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002686745095603197</v>
+        <v>0.8770498873122019</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.8142206991289</v>
+        <v>11.44671511252368</v>
       </c>
       <c r="C7" t="n">
-        <v>2.243999627107855e-07</v>
+        <v>0.02334042451223617</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1685.918166228466</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2100181514639032</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1745.901290981179</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.02191305742608381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8968.849863086623</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.798103652185941e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.80445657761524</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4585956360921156</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3637.594894522559</v>
+        <v>3484.140337434708</v>
       </c>
       <c r="C2" t="n">
-        <v>1.035512448351418e-07</v>
+        <v>0.01758682554609121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.2560807584704</v>
+        <v>165.7463069206564</v>
       </c>
       <c r="C3" t="n">
-        <v>3.239657887584069e-05</v>
+        <v>0.003484591878388152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08782916620070151</v>
+        <v>98.03596585328015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1267658953231842</v>
+        <v>0.005816548039205153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9696.173799275168</v>
+        <v>-0.08882152211347537</v>
       </c>
       <c r="C5" t="n">
-        <v>9.007734661202156e-07</v>
+        <v>0.1894102379477328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2020.290302483441</v>
+        <v>-3.51861791149006e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001711662655710226</v>
+        <v>0.5766491332949912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.9166065127469</v>
+        <v>13.8125850500219</v>
       </c>
       <c r="C7" t="n">
-        <v>1.73295020479438e-05</v>
+        <v>0.01496947094185625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1191.126503325617</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3635551318680527</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1800.738095339338</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0219807598929332</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9322.456354126029</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.723033227863181e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.101433602912376</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6528461147295332</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4124.895950906469</v>
+        <v>4362.932278000551</v>
       </c>
       <c r="C2" t="n">
-        <v>4.246670468712147e-09</v>
+        <v>0.0008470367969082514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.0737717304479</v>
+        <v>149.7251811004276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004467133900946186</v>
+        <v>0.005112344806694857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1127551564118405</v>
+        <v>64.86499767460566</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03604772229801918</v>
+        <v>0.05668128639117856</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9954.720812094005</v>
+        <v>-0.1399887835237106</v>
       </c>
       <c r="C5" t="n">
-        <v>1.354961851294745e-08</v>
+        <v>0.02503438966055673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2554.648455416382</v>
+        <v>5.758590008443328e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>5.284246003734296e-05</v>
+        <v>0.9991359554953589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>241.3337749693045</v>
+        <v>12.21233474835259</v>
       </c>
       <c r="C7" t="n">
-        <v>3.005304817954028e-06</v>
+        <v>0.01809593033513591</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2763.813157532621</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02710255597068294</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2599.805248480084</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.000521469775975415</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9875.039496679216</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.975253393206321e-09</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.907929308991339</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.82024642351101</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4006.909022931077</v>
+        <v>2841.720269126863</v>
       </c>
       <c r="C2" t="n">
-        <v>3.980659743619034e-09</v>
+        <v>0.03398395963485046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.5213384714371</v>
+        <v>182.5523690781083</v>
       </c>
       <c r="C3" t="n">
-        <v>5.828160440293896e-05</v>
+        <v>0.0007699434771862916</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08382549926443825</v>
+        <v>90.91462203099704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1165586653941582</v>
+        <v>0.006163516064449631</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7743.634135032768</v>
+        <v>-0.1039053519259243</v>
       </c>
       <c r="C5" t="n">
-        <v>4.423890169932972e-06</v>
+        <v>0.1018301889244416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2313.351587207919</v>
+        <v>5.386299298825543e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002713060169846836</v>
+        <v>0.9187413222345894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>274.081644610131</v>
+        <v>13.38929969772325</v>
       </c>
       <c r="C7" t="n">
-        <v>9.338228706061677e-08</v>
+        <v>0.007318883838884053</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1878.107095205268</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1371682574590253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1962.55029026562</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.008534636034383552</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8163.40677058307</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.484321607045676e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.93663885777658</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.454352590798574</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4702.866559955557</v>
+        <v>3982.927652277875</v>
       </c>
       <c r="C2" t="n">
-        <v>4.694430892837512e-11</v>
+        <v>0.004925719055020272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.5853400694726</v>
+        <v>91.71348716059126</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002188540821198308</v>
+        <v>0.09306170423231166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1567907143333236</v>
+        <v>88.56653607314129</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00575721657856879</v>
+        <v>0.01060853949745332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9240.674918215798</v>
+        <v>-0.1673522752923015</v>
       </c>
       <c r="C5" t="n">
-        <v>2.839799483166411e-06</v>
+        <v>0.02401678516236276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2303.318107660965</v>
+        <v>1.120870604777099e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001077677377883975</v>
+        <v>0.8883666211445373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.6222483798264</v>
+        <v>8.897952336296349</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009037131316847569</v>
+        <v>0.1029189611922874</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1908.503890770174</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1310093860060962</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2296.586065103043</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001636646822166084</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9739.463108073414</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.6181208552832e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.39646567855486</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.578177461281461</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3708.678929847119</v>
+        <v>3430.065942759213</v>
       </c>
       <c r="C2" t="n">
-        <v>2.017114401130601e-08</v>
+        <v>0.004780326259511607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.8704271081657</v>
+        <v>187.1603741399238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001427089970496526</v>
+        <v>0.0003835131435530834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.083893738113968</v>
+        <v>55.73074505282464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1169309508046848</v>
+        <v>0.08189982409609194</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10785.9132563753</v>
+        <v>-0.1072069263148769</v>
       </c>
       <c r="C5" t="n">
-        <v>1.09476204394759e-10</v>
+        <v>0.07587013680736357</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2186.717521181795</v>
+        <v>-3.039104344638462e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002621050020111629</v>
+        <v>0.9515899410004036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>274.0431232686063</v>
+        <v>11.62646794596369</v>
       </c>
       <c r="C7" t="n">
-        <v>3.572715858106703e-08</v>
+        <v>0.02045430541644394</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2229.573319129609</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.07701001124879486</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2249.857075635127</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00144978844629872</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10426.94301716773</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.662252763738243e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7.194127680911755</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6616690916387183</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3815.285544199521</v>
+        <v>2603.27570361024</v>
       </c>
       <c r="C2" t="n">
-        <v>1.115148910865169e-07</v>
+        <v>0.06457427497964408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.3303800659557</v>
+        <v>140.5732756256912</v>
       </c>
       <c r="C3" t="n">
-        <v>2.545718373758289e-05</v>
+        <v>0.01628376247672407</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.10135300213201</v>
+        <v>118.1938144636183</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07065035902709714</v>
+        <v>0.001896745270208269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9558.344890700091</v>
+        <v>-0.09649764114760959</v>
       </c>
       <c r="C5" t="n">
-        <v>5.2021970747463e-08</v>
+        <v>0.1560412306738261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2204.618366581308</v>
+        <v>-2.25694158910785e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005478568070019052</v>
+        <v>0.6853574505819987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.2176605887475</v>
+        <v>13.37132233767154</v>
       </c>
       <c r="C7" t="n">
-        <v>6.841836997947896e-05</v>
+        <v>0.008803520073918525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1027.168152183732</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4568445958624674</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1980.641594763589</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.009590977796993175</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9911.475381484321</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.870450230667729e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11.75320098155509</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5308227765659697</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4094.722079632591</v>
+        <v>3995.415844984999</v>
       </c>
       <c r="C2" t="n">
-        <v>6.109656935042956e-09</v>
+        <v>0.003246535594491388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.4780193328293</v>
+        <v>169.7320107484717</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00192399535324515</v>
+        <v>0.001936467810689948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1374437727074172</v>
+        <v>59.91136267630212</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01901845563258303</v>
+        <v>0.0771869381705471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10030.57839497752</v>
+        <v>-0.1677587727482644</v>
       </c>
       <c r="C5" t="n">
-        <v>5.93246565764785e-09</v>
+        <v>0.0132824790848005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2078.712042212072</v>
+        <v>1.331299875329857e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0007808752624480307</v>
+        <v>0.8059806079265359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>253.4277139514634</v>
+        <v>9.880762007881488</v>
       </c>
       <c r="C7" t="n">
-        <v>1.000641034366744e-06</v>
+        <v>0.05958610820466897</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2761.739321206217</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04011007565572968</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2004.428726415218</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006933514225312591</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10425.30677492868</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.657600784637291e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.481132039390332</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8894035632684584</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3709.249524161941</v>
+        <v>3618.202784425784</v>
       </c>
       <c r="C2" t="n">
-        <v>2.080964602804991e-07</v>
+        <v>0.00668981458128364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.139871433892</v>
+        <v>151.2421172923719</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003020323850178051</v>
+        <v>0.009339571434532809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1114044239974622</v>
+        <v>61.75628305748504</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0748417506251752</v>
+        <v>0.06462069690243581</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9241.672935382705</v>
+        <v>-0.1885240395798837</v>
       </c>
       <c r="C5" t="n">
-        <v>3.372631622812545e-07</v>
+        <v>0.00904457636691058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1706.827950338462</v>
+        <v>4.720128042791289e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01235330840890713</v>
+        <v>0.4455630713144481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.7954664145028</v>
+        <v>21.70978038088887</v>
       </c>
       <c r="C7" t="n">
-        <v>2.90874819970194e-07</v>
+        <v>0.0001572886892344332</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3020.460770200947</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.02801119460955879</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1032.367512213431</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1909215336693241</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9011.862003617462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.445879983882514e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-19.76402438938406</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2804906513850297</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4171.571487259571</v>
+        <v>3988.016756838947</v>
       </c>
       <c r="C2" t="n">
-        <v>4.482379530979879e-09</v>
+        <v>0.0034865978626465</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.5728966688622</v>
+        <v>142.3268528773403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001419148438745938</v>
+        <v>0.02203210140021722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1126890842977035</v>
+        <v>91.67186625335847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04977141034814556</v>
+        <v>0.0119935224696365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8138.990312671006</v>
+        <v>-0.1386653612967589</v>
       </c>
       <c r="C5" t="n">
-        <v>4.798417762498576e-06</v>
+        <v>0.03752995726253157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2327.053347538215</v>
+        <v>5.145194217874929e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000321539142139077</v>
+        <v>0.9244790355756916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.3863453726859</v>
+        <v>12.46035334430445</v>
       </c>
       <c r="C7" t="n">
-        <v>5.579650899250045e-05</v>
+        <v>0.01355832154268395</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2262.632755736536</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08609339108612389</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2232.534889385309</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.004085220201139715</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8261.978507772805</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.102826631826101e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.6359432884073541</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9729375640971512</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3539.018145923879</v>
+        <v>2336.733964812549</v>
       </c>
       <c r="C2" t="n">
-        <v>1.552635954200619e-06</v>
+        <v>0.1048474271355006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.3720703259055</v>
+        <v>142.570691067093</v>
       </c>
       <c r="C3" t="n">
-        <v>5.004507695936383e-05</v>
+        <v>0.01118251569917568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08893917222222179</v>
+        <v>102.931264465446</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1222072396193081</v>
+        <v>0.007740368214976634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10766.64548825908</v>
+        <v>-0.07992980241757922</v>
       </c>
       <c r="C5" t="n">
-        <v>3.681281128269326e-08</v>
+        <v>0.2509458447637288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1987.092399890897</v>
+        <v>-2.704962190805618e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003306459201160403</v>
+        <v>0.6321960641040743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.4020340341976</v>
+        <v>11.41983798819876</v>
       </c>
       <c r="C7" t="n">
-        <v>7.341770479055359e-05</v>
+        <v>0.04205126983433063</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1374.82040458243</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3550243864992998</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2094.71578185733</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.009490221769447603</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10644.53557480305</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.291992438500014e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23.85050248277855</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2219482633968478</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4458.41269405358</v>
+        <v>3074.589145065182</v>
       </c>
       <c r="C2" t="n">
-        <v>1.381827766623751e-11</v>
+        <v>0.01267557335448783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.66731772955836</v>
+        <v>137.4668632030761</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007044358104883869</v>
+        <v>0.005085733897917136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1438890344082729</v>
+        <v>62.19474928876465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007187162325532046</v>
+        <v>0.03982729474551308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8230.592548158605</v>
+        <v>-0.2185798633603107</v>
       </c>
       <c r="C5" t="n">
-        <v>6.819385921213955e-07</v>
+        <v>0.01738319062625936</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1862.13360007238</v>
+        <v>9.430393323693433e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001015320818639077</v>
+        <v>0.4089277851618601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.9660482810373</v>
+        <v>13.3354234645854</v>
       </c>
       <c r="C7" t="n">
-        <v>1.642170275924872e-05</v>
+        <v>0.003236564051743438</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2638.502650634335</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06680933365512859</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1343.764816242375</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05499815446480306</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8738.718766044294</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.170988661383915e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>15.53219920926921</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3594274162237898</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4038.839682616594</v>
+        <v>3355.981066449804</v>
       </c>
       <c r="C2" t="n">
-        <v>2.307809016757548e-08</v>
+        <v>0.007963227565652233</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.1486555191697</v>
+        <v>138.6150200807645</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004576996935043037</v>
+        <v>0.01060200339281814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09166575480895832</v>
+        <v>65.1988577668086</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1333993546254165</v>
+        <v>0.04776981250793746</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9017.415747292405</v>
+        <v>-0.1334235896380589</v>
       </c>
       <c r="C5" t="n">
-        <v>1.937370689800928e-07</v>
+        <v>0.03813168758496868</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377.983736256088</v>
+        <v>7.073408952230632e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002173555970254738</v>
+        <v>0.8950560491591921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.493463569558</v>
+        <v>22.29613284163808</v>
       </c>
       <c r="C7" t="n">
-        <v>5.985616005621055e-07</v>
+        <v>7.996643646562318e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1983.127862187635</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09986513876177734</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1588.448035510769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03080374981333731</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8986.058598401622</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.365186823086602e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-13.88479848039876</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4283116395558246</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3694.503936147265</v>
+        <v>3643.334452534843</v>
       </c>
       <c r="C2" t="n">
-        <v>3.215511873840575e-08</v>
+        <v>0.008735915636253337</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.0127437507973</v>
+        <v>186.9607877737203</v>
       </c>
       <c r="C3" t="n">
-        <v>7.427251621898925e-05</v>
+        <v>0.0009527989942314676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09136844522075681</v>
+        <v>89.8670090157687</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08172271245547082</v>
+        <v>0.006513900555859115</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10520.16121266151</v>
+        <v>-0.1031108507345057</v>
       </c>
       <c r="C5" t="n">
-        <v>2.694762121970923e-09</v>
+        <v>0.1021680173460555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2220.560279556109</v>
+        <v>-1.487610529663988e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003527258762681511</v>
+        <v>0.7797816853968571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>272.2032679971071</v>
+        <v>10.13812077985352</v>
       </c>
       <c r="C7" t="n">
-        <v>1.941396623082932e-07</v>
+        <v>0.06462611473179602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1968.539063899915</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1243575897585037</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2289.020216971629</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002050517782422922</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10923.10901001937</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.035203746162882e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5911324289770619</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9737500302159208</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4324.886762065887</v>
+        <v>3521.719392212038</v>
       </c>
       <c r="C2" t="n">
-        <v>6.444802059004277e-09</v>
+        <v>0.008433943097942539</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.7168856875659</v>
+        <v>105.4916656104001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001537275221935099</v>
+        <v>0.05909805415415808</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1051968156326346</v>
+        <v>62.96681482062337</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0586176409229697</v>
+        <v>0.07109634221314852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9096.542058402916</v>
+        <v>-0.1237462080985985</v>
       </c>
       <c r="C5" t="n">
-        <v>3.715663610361305e-07</v>
+        <v>0.05998703454392616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2562.837901648678</v>
+        <v>-1.498680005294067e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.254706026076836e-05</v>
+        <v>0.8020616552417597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>240.3322703940798</v>
+        <v>23.23548458919189</v>
       </c>
       <c r="C7" t="n">
-        <v>8.259668909161585e-06</v>
+        <v>5.688816396864185e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1844.019236318106</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1549075411060878</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2026.696723241528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.007149727430464177</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8991.335106303926</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.864512985810713e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.16329105724254</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5730460491042713</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3762.941221129015</v>
+        <v>3137.480338351357</v>
       </c>
       <c r="C2" t="n">
-        <v>1.840306173598907e-07</v>
+        <v>0.02604226646721573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.4501088708126</v>
+        <v>169.0066906268985</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003700444958902051</v>
+        <v>0.002723115751256291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1095182429248456</v>
+        <v>74.0640477187243</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0614751277756401</v>
+        <v>0.03742281884556056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9635.374244136212</v>
+        <v>-0.1277342641836509</v>
       </c>
       <c r="C5" t="n">
-        <v>1.02884398637922e-07</v>
+        <v>0.06495713675041083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1694.874754564609</v>
+        <v>8.922348261707877e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01163727585655188</v>
+        <v>0.9869224744611066</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>250.482159295948</v>
+        <v>15.22680614971691</v>
       </c>
       <c r="C7" t="n">
-        <v>5.701193397843795e-06</v>
+        <v>0.004269120576635441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2132.853790169755</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1206157005457751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1504.654792372204</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05729588472834806</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9342.223751896108</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.65401478669586e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.658361913489445</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8856908747965669</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3971.041937517037</v>
+        <v>1711.209658731057</v>
       </c>
       <c r="C2" t="n">
-        <v>1.040153289639804e-08</v>
+        <v>0.2267577242170131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.15559848746</v>
+        <v>161.211640937525</v>
       </c>
       <c r="C3" t="n">
-        <v>7.593373484685334e-05</v>
+        <v>0.004857771400748043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1002886898233835</v>
+        <v>96.2323235089889</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1406706198624427</v>
+        <v>0.004148391225887324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8637.642404585811</v>
+        <v>-0.09664121657461827</v>
       </c>
       <c r="C5" t="n">
-        <v>7.284075637863284e-07</v>
+        <v>0.1672660630597027</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2056.651653815168</v>
+        <v>-8.918114545499142e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001912965849542926</v>
+        <v>0.8789011539737809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>233.7742265721702</v>
+        <v>14.96996267493852</v>
       </c>
       <c r="C7" t="n">
-        <v>1.502355030673938e-05</v>
+        <v>0.006623089511731921</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1250.025171487324</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3667872729425217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1805.79552098366</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01591823820066206</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9340.724625690607</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.156521024174281e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>30.29850502398343</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1050011308757516</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3614.672162774306</v>
+        <v>3556.275753059093</v>
       </c>
       <c r="C2" t="n">
-        <v>1.165672574280012e-08</v>
+        <v>0.003178595490885556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.57238000225279</v>
+        <v>225.7502298645908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001302003292385881</v>
+        <v>2.696237222608383e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09233914328645597</v>
+        <v>58.72197406554031</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06473246306997341</v>
+        <v>0.06319402908421153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10211.61397865773</v>
+        <v>-0.1411516831329057</v>
       </c>
       <c r="C5" t="n">
-        <v>2.85861892449172e-10</v>
+        <v>0.02113367618468781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2028.989425301904</v>
+        <v>2.853218817702919e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004221932107056533</v>
+        <v>0.5725092904152879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.0149391917004</v>
+        <v>9.040315428220479</v>
       </c>
       <c r="C7" t="n">
-        <v>9.200365494560832e-10</v>
+        <v>0.05527485974151847</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2389.671252411524</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05079246050954434</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1844.473905398359</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006495423815495539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10339.11098839055</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.175611844746137e-10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.030314607367284</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.904833376660251</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4064.108926441829</v>
+        <v>3585.637654652036</v>
       </c>
       <c r="C2" t="n">
-        <v>3.061481353057405e-09</v>
+        <v>0.00621008810084643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.0918610062689</v>
+        <v>160.9176298685207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001082234637022674</v>
+        <v>0.003804147863617011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1173233661381002</v>
+        <v>65.41012241417937</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03818514070978776</v>
+        <v>0.04675226868260668</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9185.014900725857</v>
+        <v>-0.1436885796297644</v>
       </c>
       <c r="C5" t="n">
-        <v>8.463258961932344e-08</v>
+        <v>0.02535127353376902</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2020.652875151008</v>
+        <v>1.011109010015399e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001607345946848023</v>
+        <v>0.8522174932345314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.1899990092713</v>
+        <v>13.37946533276966</v>
       </c>
       <c r="C7" t="n">
-        <v>2.792066059860144e-06</v>
+        <v>0.01204892606197872</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1905.974498551486</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1208189664006967</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1810.620414443182</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01768718792681059</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9462.994606248663</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.201268911776353e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.222135219192964</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9457673178621714</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4440.166925736656</v>
+        <v>4678.788833266609</v>
       </c>
       <c r="C2" t="n">
-        <v>2.510181583051737e-10</v>
+        <v>0.0004299294274765422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.6229666820584</v>
+        <v>92.88416439796357</v>
       </c>
       <c r="C3" t="n">
-        <v>1.454036494131978e-06</v>
+        <v>0.08915762663374446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1304627296814048</v>
+        <v>115.4656606775892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01380017470187394</v>
+        <v>0.001043098246958551</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8407.530823118539</v>
+        <v>-0.1764088881417841</v>
       </c>
       <c r="C5" t="n">
-        <v>1.323647024595197e-05</v>
+        <v>0.01773118723442905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2450.442432844092</v>
+        <v>3.665351398471464e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>5.156773832781995e-05</v>
+        <v>0.6379776394095504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.6014538026571</v>
+        <v>7.631732792514661</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001849518074716496</v>
+        <v>0.1183022879293017</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2685.401311949506</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03511066236015868</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2469.712547323026</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001317754273332045</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8613.62527065661</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.443596331757698e-06</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.374023092555106</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9837255090218096</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3937.310009915815</v>
+        <v>3886.77405354351</v>
       </c>
       <c r="C2" t="n">
-        <v>4.600453254942274e-08</v>
+        <v>0.005196022226397348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.8317970632488</v>
+        <v>149.0865805992928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002877455420712963</v>
+        <v>0.00925599039758722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1248551596460879</v>
+        <v>71.44813693216418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03394760887325393</v>
+        <v>0.04635807478289688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9958.846695270053</v>
+        <v>-0.1488336024672991</v>
       </c>
       <c r="C5" t="n">
-        <v>1.521900776781721e-07</v>
+        <v>0.03009410333295979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2126.996446147911</v>
+        <v>3.358436966764588e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00110576921671966</v>
+        <v>0.951599487151136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>230.2118064133251</v>
+        <v>11.02893290321391</v>
       </c>
       <c r="C7" t="n">
-        <v>2.441299798008214e-05</v>
+        <v>0.03173978030309123</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2586.912160429069</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06411969816207155</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2223.11637611873</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.004526929076287767</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9684.718048883142</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.069457363387322e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.679458218377874</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7997843838126713</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3937.238115900132</v>
+        <v>3315.738492270723</v>
       </c>
       <c r="C2" t="n">
-        <v>6.480575169621362e-09</v>
+        <v>0.009980909392222709</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.4227164789351</v>
+        <v>162.2476757824414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004674075197263826</v>
+        <v>0.003082731043812859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1008163526224764</v>
+        <v>72.70347399223647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07125905224189606</v>
+        <v>0.02816634994816026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9578.536403536418</v>
+        <v>-0.1317029175866947</v>
       </c>
       <c r="C5" t="n">
-        <v>3.51324000779488e-08</v>
+        <v>0.03978831414562979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2230.879931708096</v>
+        <v>6.105890418509958e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004382037234928338</v>
+        <v>0.9089262365672673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.8424519224072</v>
+        <v>12.78605468820518</v>
       </c>
       <c r="C7" t="n">
-        <v>1.708984015640294e-06</v>
+        <v>0.01602303797357672</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2047.592198258524</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1118395327447506</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2036.602755918963</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.006618737186393186</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9222.902478880365</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.017039125278057e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8.514005718069285</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.660623294516357</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3609.08287685937</v>
+        <v>3581.633194708084</v>
       </c>
       <c r="C2" t="n">
-        <v>1.901179042238765e-07</v>
+        <v>0.003925379219472688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.5883285210411</v>
+        <v>205.7525944143343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004230986606665799</v>
+        <v>0.0001386323178010971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08202284622575472</v>
+        <v>78.74106973153374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1758375758405629</v>
+        <v>0.0180445608748308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10786.90459946874</v>
+        <v>-0.09747886646633347</v>
       </c>
       <c r="C5" t="n">
-        <v>1.668029811172606e-10</v>
+        <v>0.1307075827194491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2209.870728164007</v>
+        <v>3.91969139014481e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002918743455749345</v>
+        <v>0.9395095205395499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>284.7294805129252</v>
+        <v>9.508151413906331</v>
       </c>
       <c r="C7" t="n">
-        <v>2.269409417299966e-08</v>
+        <v>0.04219042441129328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2251.161922189168</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06154078130884678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2205.828646358551</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.002172857324899699</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10854.01710453296</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.948558567939921e-11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2967739050515945</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9856470540685386</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4247.999463976024</v>
+        <v>1060.421329944353</v>
       </c>
       <c r="C2" t="n">
-        <v>1.902284208604462e-09</v>
+        <v>0.4227583741357958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.2945328590817</v>
+        <v>113.6661615910884</v>
       </c>
       <c r="C3" t="n">
-        <v>1.985585244186489e-05</v>
+        <v>0.03134795578504893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09753958753814498</v>
+        <v>112.2682670347276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05744772468199813</v>
+        <v>0.0009043262599841367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8198.184799206989</v>
+        <v>-0.1081392618110971</v>
       </c>
       <c r="C5" t="n">
-        <v>8.819251975207043e-07</v>
+        <v>0.09177058839372229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2376.817129567782</v>
+        <v>2.598965191925943e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>8.852605686918202e-05</v>
+        <v>0.6629026242388623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.4070882710444</v>
+        <v>21.50982017041417</v>
       </c>
       <c r="C7" t="n">
-        <v>5.465404762557926e-05</v>
+        <v>4.745657994463646e-05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-740.6123655757756</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5353362015842766</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1381.68361473096</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04984742414789618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8637.199700548783</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.066951654850401e-07</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>27.85694422639434</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1149904967950842</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Toulouse.xlsx
+++ b/outputs/ML_Results/dist_LR/Toulouse.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ29663524" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ29918166" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ30179123" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ30427664" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ30684801" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ30935974" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ31300650" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ31571537" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ31804964" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ32060949" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ32316896" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ32568133" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ32829869" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ33083943" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ33341478" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ33599686" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ33863782" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ34129327" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ34387353" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ34651337" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ34913851" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ35174896" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ35449545" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ35709437" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ35999482" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ36317861" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ36602533" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ36878069" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ37152038" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ37417573" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ37677312" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ37932206" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ38186393" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ38443232" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ38691253" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ38945784" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ39205329" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ39461865" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ39715712" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ39970732" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ40230785" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ40468810" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ40723989" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ40979010" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ41234545" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ41496455" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ41755105" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ42014639" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ42280642" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ42564895" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ04730488" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ04935599" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ05139797" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ05340711" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ05545553" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ05763458" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ06080215" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ06298659" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ06511940" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ06744306" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ06951232" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ07167429" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ07376879" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ07581442" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ07789252" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ07997119" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ08210840" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ08451637" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ08679132" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ08883550" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ09101635" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ09307162" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ09517983" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ09723419" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ09930262" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ10148586" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ10374524" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ10602598" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ10808859" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ11023108" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ11239737" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ11450778" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ11654812" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ11860803" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ12085070" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ12362412" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ12572371" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ12790390" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ12998676" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ13208639" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ13417987" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ13652450" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ13948182" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ14280000" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ14537483" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ14801708" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ15066075" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ15345852" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ15702961" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ15963271" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2488.271895774432</v>
+        <v>2488.271896057271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05675614312801575</v>
+        <v>0.05675614309623606</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.5179345181724</v>
+        <v>160.5179344973319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002729427181067394</v>
+        <v>0.002729427181067669</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.039229065671</v>
+        <v>100.0392290563282</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002726328068449939</v>
+        <v>0.002726328070656567</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09784853852850148</v>
+        <v>-9.784853851444996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1195649383061554</v>
+        <v>0.1195649383657034</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7.048067431505967e-06</v>
+        <v>-7.048067509349039</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8908041915359306</v>
+        <v>0.8908041903322437</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.97330765874046</v>
+        <v>12.97330765874092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007865581368736966</v>
+        <v>0.007865581368734189</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1659.333304942011</v>
+        <v>-16.59333304942031</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1891609143654758</v>
+        <v>0.1891609143654704</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1841.990737419283</v>
+        <v>-18.41990737419288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01061038147405699</v>
+        <v>0.01061038147405676</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9595.760967376618</v>
+        <v>95.95760967376614</v>
       </c>
       <c r="C10" t="n">
-        <v>3.582650011857589e-09</v>
+        <v>3.582650011857641e-09</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.39464340477434</v>
+        <v>16.3946434047745</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3690838250108555</v>
+        <v>0.3690838250108526</v>
       </c>
     </row>
   </sheetData>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4493.680188919991</v>
+        <v>4493.680188842177</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002688644574575101</v>
+        <v>0.002688644575120842</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.3138790722717</v>
+        <v>138.3138790674722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02099548677683715</v>
+        <v>0.02099548677683828</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.33184466109027</v>
+        <v>78.33184466665712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02618593328838959</v>
+        <v>0.02618593327878402</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1341234213772244</v>
+        <v>-13.41234213910238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09514995394747459</v>
+        <v>0.09514995390605761</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.372466072038809e-05</v>
+        <v>-33.7246607447227</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6719770582645725</v>
+        <v>0.6719770580316031</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.00858708321073</v>
+        <v>14.00858708321097</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01892024043551137</v>
+        <v>0.01892024043550888</v>
       </c>
     </row>
     <row r="8">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2156.037210623931</v>
+        <v>-21.56037210623943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1615631169021439</v>
+        <v>0.1615631169021436</v>
       </c>
     </row>
     <row r="9">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1791.765296852021</v>
+        <v>-17.91765296852014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02036739976534063</v>
+        <v>0.02036739976534081</v>
       </c>
     </row>
     <row r="10">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8257.663990802772</v>
+        <v>82.57663990802757</v>
       </c>
       <c r="C10" t="n">
-        <v>3.221100437627532e-05</v>
+        <v>3.221100437627599e-05</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.80726096127905</v>
+        <v>-13.80726096127892</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4749124765020148</v>
+        <v>0.4749124765020195</v>
       </c>
     </row>
   </sheetData>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1932.644759100034</v>
+        <v>1932.6447589406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1257231740858957</v>
+        <v>0.1257231741208799</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.5759825117607</v>
+        <v>137.5759825181401</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00680523630124487</v>
+        <v>0.006805236301245472</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.8635943794427</v>
+        <v>71.863594381398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02278917026035647</v>
+        <v>0.02278917025691297</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1269656572558832</v>
+        <v>-12.69656572566354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03802609732624369</v>
+        <v>0.03802609732489331</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.921120258702104e-06</v>
+        <v>-3.92112023761689</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9371973106831529</v>
+        <v>0.9371973110212767</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.47636660728784</v>
+        <v>14.47636660728839</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001259112521502232</v>
+        <v>0.001259112521501572</v>
       </c>
     </row>
     <row r="8">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1847.869217703977</v>
+        <v>-18.47869217703983</v>
       </c>
       <c r="C8" t="n">
-        <v>0.11500359114827</v>
+        <v>0.1150035911482691</v>
       </c>
     </row>
     <row r="9">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1695.753965815363</v>
+        <v>-16.95753965815359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01285508752734191</v>
+        <v>0.01285508752734215</v>
       </c>
     </row>
     <row r="10">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9522.874744434235</v>
+        <v>95.22874744434233</v>
       </c>
       <c r="C10" t="n">
-        <v>8.996947123034747e-09</v>
+        <v>8.996947123034615e-09</v>
       </c>
     </row>
     <row r="11">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.84250078062502</v>
+        <v>35.84250078062519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03844951142391079</v>
+        <v>0.03844951142391049</v>
       </c>
     </row>
   </sheetData>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3689.636376127713</v>
+        <v>3689.636375800095</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003666767142275387</v>
+        <v>0.003666767145831534</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +1018,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.7391392361473</v>
+        <v>157.7391392374306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003435322222682953</v>
+        <v>0.003435322222682479</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.90694586520593</v>
+        <v>83.90694586846141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01151309434673017</v>
+        <v>0.01151309434389044</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1012872701524712</v>
+        <v>-10.12872701634231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1157271384867056</v>
+        <v>0.1157271384421199</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.649790126508784e-07</v>
+        <v>0.2649790267403063</v>
       </c>
       <c r="C6" t="n">
-        <v>0.996041838620228</v>
+        <v>0.9960418384097723</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.9437245763936</v>
+        <v>12.9437245763938</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00927777673441435</v>
+        <v>0.009277776734412643</v>
       </c>
     </row>
     <row r="8">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2083.062875190071</v>
+        <v>-20.83062875190084</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1056826987071804</v>
+        <v>0.105682698707178</v>
       </c>
     </row>
     <row r="9">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1942.321659162227</v>
+        <v>-19.42321659162242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006989650127082581</v>
+        <v>0.006989650127082126</v>
       </c>
     </row>
     <row r="10">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10379.98092024125</v>
+        <v>103.7998092024125</v>
       </c>
       <c r="C10" t="n">
-        <v>2.071977096149811e-09</v>
+        <v>2.071977096149872e-09</v>
       </c>
     </row>
     <row r="11">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.359913910641872</v>
+        <v>-9.359913910642231</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5927358067838975</v>
+        <v>0.5927358067838839</v>
       </c>
     </row>
   </sheetData>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3720.109893976775</v>
+        <v>3720.109893954464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003847324785167096</v>
+        <v>0.003847324785413923</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1184,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.4247032385705</v>
+        <v>146.4247032422256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0101798500815278</v>
+        <v>0.01017985008152934</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.95668618518924</v>
+        <v>62.95668617909695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05004335639281478</v>
+        <v>0.05004335641280438</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.152134530142463</v>
+        <v>-15.21345301451829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01691819924131348</v>
+        <v>0.01691819923886163</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.161182730690586e-07</v>
+        <v>-0.2161182596861124</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9967013911452778</v>
+        <v>0.996701391349606</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.75844358464632</v>
+        <v>15.75844358464634</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007205552342829625</v>
+        <v>0.00720555234282937</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2388.906491458633</v>
+        <v>-23.88906491458638</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0513199135936615</v>
+        <v>0.0513199135936616</v>
       </c>
     </row>
     <row r="9">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2292.956495628769</v>
+        <v>-22.92956495628768</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002988272986621038</v>
+        <v>0.002988272986621004</v>
       </c>
     </row>
     <row r="10">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9308.135207548534</v>
+        <v>93.08135207548526</v>
       </c>
       <c r="C10" t="n">
-        <v>1.451646361551281e-08</v>
+        <v>1.451646361551366e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.494470233715248</v>
+        <v>3.494470233715049</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8431757474266985</v>
+        <v>0.843175747426708</v>
       </c>
     </row>
   </sheetData>
@@ -1337,10 +1337,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4156.437002688368</v>
+        <v>4156.437002431694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002060525125151059</v>
+        <v>0.002060525126707784</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1350,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.5786589467305</v>
+        <v>189.5786589626559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001117724805767137</v>
+        <v>0.00111772480576664</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.89949028686422</v>
+        <v>84.89949028591359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01914222531935487</v>
+        <v>0.01914222532068025</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1376,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1915766298989275</v>
+        <v>-19.15766298857461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00835137197088545</v>
+        <v>0.008351371975787853</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.169084644932517e-05</v>
+        <v>71.69084645164045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2748028657141643</v>
+        <v>0.2748028657036553</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.97531143593221</v>
+        <v>10.97531143593266</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03514270456628119</v>
+        <v>0.03514270456627178</v>
       </c>
     </row>
     <row r="8">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1854.632737318486</v>
+        <v>-18.54632737318511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1580353449025305</v>
+        <v>0.1580353449025248</v>
       </c>
     </row>
     <row r="9">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1677.763088335834</v>
+        <v>-16.77763088335841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03176997162956646</v>
+        <v>0.03176997162956578</v>
       </c>
     </row>
     <row r="10">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8632.919100595123</v>
+        <v>86.32919100595124</v>
       </c>
       <c r="C10" t="n">
-        <v>6.818796400849652e-07</v>
+        <v>6.818796400849714e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-12.14464252305544</v>
+        <v>-12.14464252305569</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5199541757273866</v>
+        <v>0.5199541757273787</v>
       </c>
     </row>
   </sheetData>
@@ -1503,10 +1503,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2781.651347867039</v>
+        <v>2781.651347834651</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07331550888416834</v>
+        <v>0.07331550888798496</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1516,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.7590000901736</v>
+        <v>143.7590000950885</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01348917047313555</v>
+        <v>0.01348917047313844</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1529,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.5470030601554</v>
+        <v>112.5470030525181</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003480186938966588</v>
+        <v>0.003480186940951287</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05748548177549778</v>
+        <v>-5.748548176178524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4500164513064739</v>
+        <v>0.4500164514230224</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1555,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.27093340981679e-05</v>
+        <v>-62.70933414343699</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4121020650554797</v>
+        <v>0.4121020647168352</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1568,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.36051115321303</v>
+        <v>15.36051115321315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009108333031088005</v>
+        <v>0.009108333031087195</v>
       </c>
     </row>
     <row r="8">
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1254.162469084758</v>
+        <v>-12.54162469084762</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4260764244682302</v>
+        <v>0.4260764244682278</v>
       </c>
     </row>
     <row r="9">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1988.451308041665</v>
+        <v>-19.88451308041664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01021837749858031</v>
+        <v>0.01021837749858037</v>
       </c>
     </row>
     <row r="10">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8354.958677272611</v>
+        <v>83.54958677272592</v>
       </c>
       <c r="C10" t="n">
-        <v>2.368365360290406e-05</v>
+        <v>2.368365360290509e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.53179649989103</v>
+        <v>9.531796499890874</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6273610653187777</v>
+        <v>0.6273610653187831</v>
       </c>
     </row>
   </sheetData>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>986.140402985799</v>
+        <v>986.1404029561236</v>
       </c>
       <c r="C2" t="n">
-        <v>0.488466673042528</v>
+        <v>0.4884666730559598</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>146.1704639727583</v>
+        <v>146.170463970154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007112995071308209</v>
+        <v>0.007112995071307556</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.2343449032385</v>
+        <v>128.2343448971999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004415842606219814</v>
+        <v>0.0004415842608888401</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1081525846766304</v>
+        <v>-10.81525846863392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1139999058738497</v>
+        <v>0.1139999058390206</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.380540258135515e-05</v>
+        <v>23.80540259434679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6969695729482754</v>
+        <v>0.6969695727909373</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1734,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.44598211201103</v>
+        <v>13.44598211201147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00527066505209361</v>
+        <v>0.0052706650520919</v>
       </c>
     </row>
     <row r="8">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-998.6651426861831</v>
+        <v>-9.986651426861819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.461501163841643</v>
+        <v>0.4615011638416439</v>
       </c>
     </row>
     <row r="9">
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1561.454122163349</v>
+        <v>-15.61454122163336</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03085824579860956</v>
+        <v>0.03085824579861107</v>
       </c>
     </row>
     <row r="10">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7964.972346896602</v>
+        <v>79.64972346896603</v>
       </c>
       <c r="C10" t="n">
         <v>3.368712650569408e-06</v>
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.32670627267773</v>
+        <v>49.32670627267768</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01631271698828439</v>
+        <v>0.01631271698828465</v>
       </c>
     </row>
   </sheetData>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2844.470937219327</v>
+        <v>2844.470936908438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04085285605437132</v>
+        <v>0.04085285607925928</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.4134807276268</v>
+        <v>142.4134807379435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01416336252917262</v>
+        <v>0.01416336252917173</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.56521888122984</v>
+        <v>77.56521888421824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03025028926069061</v>
+        <v>0.0302502892548744</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1596490116738027</v>
+        <v>-15.96490116723033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02782516324472482</v>
+        <v>0.02782516324646463</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.858945276661673e-06</v>
+        <v>9.858945268013045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8742077296251098</v>
+        <v>0.8742077297331776</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1900,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.1921608376547</v>
+        <v>22.19216083765456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007139743019517368</v>
+        <v>0.0007139743019517763</v>
       </c>
     </row>
     <row r="8">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2179.911155508251</v>
+        <v>-21.79911155508256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1145258083618373</v>
+        <v>0.1145258083618354</v>
       </c>
     </row>
     <row r="9">
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1901.995819345592</v>
+        <v>-19.01995819345605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01570361259300676</v>
+        <v>0.01570361259300601</v>
       </c>
     </row>
     <row r="10">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9338.833615167143</v>
+        <v>93.38833615167064</v>
       </c>
       <c r="C10" t="n">
-        <v>4.103867961920775e-08</v>
+        <v>4.103867961921204e-08</v>
       </c>
     </row>
     <row r="11">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7124790175109972</v>
+        <v>0.7124790175115123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9684652234263029</v>
+        <v>0.9684652234262803</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4486.455439112578</v>
+        <v>4486.455439033129</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0005346391914816457</v>
+        <v>0.0005346391916373311</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +2014,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.1798786588288</v>
+        <v>132.1798786521584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01435538701805382</v>
+        <v>0.01435538701805963</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.24769099452455</v>
+        <v>94.24769099618533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004244700003439021</v>
+        <v>0.004244700002852291</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +2040,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1226043924931805</v>
+        <v>-12.26043924952272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0736978320672269</v>
+        <v>0.07369783206146564</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +2053,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.600763680076905e-06</v>
+        <v>-8.600763687123177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8899800703251014</v>
+        <v>0.889980070236162</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +2066,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.4000904073778</v>
+        <v>13.40009040737779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009458853306441388</v>
+        <v>0.009458853306441155</v>
       </c>
     </row>
     <row r="8">
@@ -2079,10 +2079,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2609.060610453093</v>
+        <v>-26.09060610453101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05371301560155144</v>
+        <v>0.05371301560155069</v>
       </c>
     </row>
     <row r="9">
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1796.267581258102</v>
+        <v>-17.96267581258104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01188734408114984</v>
+        <v>0.01188734408114964</v>
       </c>
     </row>
     <row r="10">
@@ -2105,10 +2105,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9269.316747116032</v>
+        <v>92.69316747116011</v>
       </c>
       <c r="C10" t="n">
-        <v>2.454189611619609e-07</v>
+        <v>2.4541896116197e-07</v>
       </c>
     </row>
     <row r="11">
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-22.04830792307441</v>
+        <v>-22.0483079230746</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2113884938125891</v>
+        <v>0.2113884938125861</v>
       </c>
     </row>
   </sheetData>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3312.705992160186</v>
+        <v>3312.705992052382</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009032545178945075</v>
+        <v>0.009032545181589295</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.2309393059155</v>
+        <v>151.2309393028949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00515317858420113</v>
+        <v>0.005153178584200209</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.34476059823223</v>
+        <v>80.34476060558477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01330969217847698</v>
+        <v>0.01330969217066115</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09141565273447302</v>
+        <v>-9.141565273458092</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1529426845462719</v>
+        <v>0.1529426845457281</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2219,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.651859742438712e-05</v>
+        <v>-16.51859740619904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7546179147265361</v>
+        <v>0.7546179149910004</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2232,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.76790765512573</v>
+        <v>14.76790765512603</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002090010285841459</v>
+        <v>0.002090010285840802</v>
       </c>
     </row>
     <row r="8">
@@ -2245,10 +2245,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1385.262765397661</v>
+        <v>-13.8526276539767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2595308538818088</v>
+        <v>0.2595308538818047</v>
       </c>
     </row>
     <row r="9">
@@ -2258,10 +2258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1895.667841406023</v>
+        <v>-18.95667841406031</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009557987639641984</v>
+        <v>0.009557987639641718</v>
       </c>
     </row>
     <row r="10">
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9897.951338768293</v>
+        <v>98.97951338768289</v>
       </c>
       <c r="C10" t="n">
-        <v>4.177927213610002e-08</v>
+        <v>4.177927213610254e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2284,10 +2284,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.683991750407245</v>
+        <v>-3.683991750407088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8304657259473784</v>
+        <v>0.8304657259473858</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2333,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4025.420663524299</v>
+        <v>4025.420663499421</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001743587283494903</v>
+        <v>0.001743587283637781</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2346,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.7222566554607</v>
+        <v>142.7222566503519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01253311699406925</v>
+        <v>0.01253311699407049</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.25274757089551</v>
+        <v>73.25274756213685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03178708323038923</v>
+        <v>0.03178708324790057</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2372,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1489506882373274</v>
+        <v>-14.89506882317816</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02542111109222802</v>
+        <v>0.02542111109865659</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.784406631352323e-05</v>
+        <v>47.84406629853709</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4473891909709004</v>
+        <v>0.4473891911063721</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.26194582627915</v>
+        <v>19.26194582627912</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004944756975391823</v>
+        <v>0.000494475697539171</v>
       </c>
     </row>
     <row r="8">
@@ -2411,10 +2411,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2040.453824268885</v>
+        <v>-20.40453824268907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09671352380094377</v>
+        <v>0.09671352380094081</v>
       </c>
     </row>
     <row r="9">
@@ -2424,10 +2424,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2328.853516842399</v>
+        <v>-23.28853516842405</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001735174200022631</v>
+        <v>0.001735174200022601</v>
       </c>
     </row>
     <row r="10">
@@ -2437,10 +2437,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7786.843925526448</v>
+        <v>77.86843925526458</v>
       </c>
       <c r="C10" t="n">
-        <v>8.350538412394234e-06</v>
+        <v>8.350538412394292e-06</v>
       </c>
     </row>
     <row r="11">
@@ -2450,10 +2450,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-11.96421874908997</v>
+        <v>-11.9642187490902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4850210159330004</v>
+        <v>0.4850210159329941</v>
       </c>
     </row>
   </sheetData>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3510.836735259129</v>
+        <v>3510.836735700378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008373775623313245</v>
+        <v>0.00837377561355747</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182.1231682912146</v>
+        <v>182.1231682939214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001271123219427398</v>
+        <v>0.001271123219427237</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2525,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40.66783933348844</v>
+        <v>40.66783932099069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2211281326386794</v>
+        <v>0.2211281327750627</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2538,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1473841589674457</v>
+        <v>-14.73841589621288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01735195982137415</v>
+        <v>0.01735195982614324</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.555819323559776e-06</v>
+        <v>4.555819292817006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9304011680804232</v>
+        <v>0.9304011685485061</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.7438652096372</v>
+        <v>8.743865209637434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0837226494406997</v>
+        <v>0.08372264944068936</v>
       </c>
     </row>
     <row r="8">
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2250.717855978625</v>
+        <v>-22.50717855978637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06740726850621434</v>
+        <v>0.06740726850621312</v>
       </c>
     </row>
     <row r="9">
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2369.269585234392</v>
+        <v>-23.69269585234398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001592561825513827</v>
+        <v>0.001592561825513808</v>
       </c>
     </row>
     <row r="10">
@@ -2603,10 +2603,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10526.73346315937</v>
+        <v>105.2673346315936</v>
       </c>
       <c r="C10" t="n">
-        <v>6.033011097173698e-10</v>
+        <v>6.033011097174026e-10</v>
       </c>
     </row>
     <row r="11">
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.21417851927698</v>
+        <v>19.21417851927707</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2749087031335284</v>
+        <v>0.2749087031335276</v>
       </c>
     </row>
   </sheetData>
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2525.372678155938</v>
+        <v>2525.372678110065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04528531686361079</v>
+        <v>0.04528531686800184</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.9753809350888</v>
+        <v>167.9753809357704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001460508939509964</v>
+        <v>0.001460508939510065</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.71853884073205</v>
+        <v>63.7185388435168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06296870971964373</v>
+        <v>0.06296870970831153</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1389854459065923</v>
+        <v>-13.89854458955027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02405916214418415</v>
+        <v>0.02405916215714729</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.769906440111257e-06</v>
+        <v>7.769906433932945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8909239431055145</v>
+        <v>0.8909239431923075</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.77378774834435</v>
+        <v>12.77378774834474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007533437020723997</v>
+        <v>0.007533437020721635</v>
       </c>
     </row>
     <row r="8">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1837.159215354211</v>
+        <v>-18.37159215354237</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1440572369877687</v>
+        <v>0.144057236987762</v>
       </c>
     </row>
     <row r="9">
@@ -2756,10 +2756,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1785.391914348903</v>
+        <v>-17.85391914348896</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01441275130229787</v>
+        <v>0.01441275130229829</v>
       </c>
     </row>
     <row r="10">
@@ -2769,10 +2769,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9208.145555585133</v>
+        <v>92.08145555585121</v>
       </c>
       <c r="C10" t="n">
-        <v>1.63196091829018e-08</v>
+        <v>1.631960918290234e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.33987991382978</v>
+        <v>26.33987991382971</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1217586951185574</v>
+        <v>0.1217586951185587</v>
       </c>
     </row>
   </sheetData>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4498.853982371882</v>
+        <v>4498.853982446085</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008223745824588481</v>
+        <v>0.000822374582266742</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2844,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.0162948862625</v>
+        <v>178.0162948833377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002111364305986557</v>
+        <v>0.00211136430598695</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.19164265071473</v>
+        <v>83.19164264414904</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01051826588734902</v>
+        <v>0.01051826589301262</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1089252890973671</v>
+        <v>-10.89252890965817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1174702867362037</v>
+        <v>0.1174702867391978</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2883,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.244979259673725e-05</v>
+        <v>-12.44979257978328</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8215736069533506</v>
+        <v>0.8215736071946257</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2896,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.309578184361914</v>
+        <v>8.309578184361904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1064050261509791</v>
+        <v>0.1064050261509796</v>
       </c>
     </row>
     <row r="8">
@@ -2909,10 +2909,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2295.026484630092</v>
+        <v>-22.95026484630105</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08009903312087753</v>
+        <v>0.08009903312087611</v>
       </c>
     </row>
     <row r="9">
@@ -2922,10 +2922,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2711.393742996072</v>
+        <v>-27.11393742996075</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003760644545595759</v>
+        <v>0.0003760644545595724</v>
       </c>
     </row>
     <row r="10">
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9364.46982655903</v>
+        <v>93.64469826559014</v>
       </c>
       <c r="C10" t="n">
-        <v>3.682669585937525e-08</v>
+        <v>3.682669585937694e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2948,10 +2948,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.114204701674009</v>
+        <v>-4.114204701674204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.817214966216076</v>
+        <v>0.8172149662160677</v>
       </c>
     </row>
   </sheetData>
@@ -2997,10 +2997,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4084.825543521642</v>
+        <v>4084.825543372252</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008708572736962222</v>
+        <v>0.00870857274013037</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +3010,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.0507779686633</v>
+        <v>143.0507779719768</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02119951413512274</v>
+        <v>0.02119951413511869</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +3023,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.12278725880442</v>
+        <v>75.1227872576688</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03868750701630078</v>
+        <v>0.03868750701879827</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +3036,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1586680883220618</v>
+        <v>-15.86680883174627</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02743004496938641</v>
+        <v>0.02743004497502039</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +3049,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.337818966805362e-05</v>
+        <v>13.37818964073116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8171202898045802</v>
+        <v>0.8171202901686737</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.56216784034523</v>
+        <v>12.56216784034541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03068562752003406</v>
+        <v>0.03068562752003075</v>
       </c>
     </row>
     <row r="8">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2686.263156117545</v>
+        <v>-26.86263156117558</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06038702290747506</v>
+        <v>0.06038702290747465</v>
       </c>
     </row>
     <row r="9">
@@ -3088,10 +3088,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2138.759879276026</v>
+        <v>-21.38759879276033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007464761543567078</v>
+        <v>0.007464761543566912</v>
       </c>
     </row>
     <row r="10">
@@ -3101,10 +3101,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9480.948526464563</v>
+        <v>94.80948526464557</v>
       </c>
       <c r="C10" t="n">
-        <v>2.449158355036754e-07</v>
+        <v>2.449158355036766e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3114,10 +3114,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.742637932047671</v>
+        <v>-3.742637932047778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8583764666139744</v>
+        <v>0.8583764666139706</v>
       </c>
     </row>
   </sheetData>
@@ -3163,10 +3163,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2075.849388795483</v>
+        <v>2075.849388628884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09487578160408922</v>
+        <v>0.09487578163327569</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.7560659484858</v>
+        <v>132.7560659667695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009305537470180671</v>
+        <v>0.009305537470184399</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.2799506640317</v>
+        <v>114.2799506597157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0007734269492054131</v>
+        <v>0.0007734269495177931</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +3202,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.120022246212113</v>
+        <v>-12.00222462272791</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09347657106893009</v>
+        <v>0.09347657102311652</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3215,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.634820754333284e-05</v>
+        <v>36.34820756805924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6343257230715588</v>
+        <v>0.6343257228447692</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3228,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.04198860930775</v>
+        <v>23.04198860930786</v>
       </c>
       <c r="C7" t="n">
-        <v>9.12513859140979e-06</v>
+        <v>9.125138591408091e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3241,10 +3241,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1123.072227757583</v>
+        <v>-11.23072227757591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3476326629529759</v>
+        <v>0.3476326629529718</v>
       </c>
     </row>
     <row r="9">
@@ -3254,10 +3254,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1040.869978110585</v>
+        <v>-10.40869978110575</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1430168651892998</v>
+        <v>0.1430168651893037</v>
       </c>
     </row>
     <row r="10">
@@ -3267,10 +3267,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8999.473882134796</v>
+        <v>89.99473882134811</v>
       </c>
       <c r="C10" t="n">
-        <v>1.064711496846792e-07</v>
+        <v>1.064711496846749e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3280,10 +3280,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.19401839926158</v>
+        <v>-5.194018399261608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7584200314551469</v>
+        <v>0.7584200314551459</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3329,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3420.666431456573</v>
+        <v>3420.666431590042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009274500774359051</v>
+        <v>0.009274500771142665</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.3465097160176</v>
+        <v>142.3465097308992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009166262685620045</v>
+        <v>0.009166262685624333</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3355,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.33629142861716</v>
+        <v>72.33629141651468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03378001562253366</v>
+        <v>0.03378001565040721</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3368,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1239966568525274</v>
+        <v>-12.39966568670371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05392141998503049</v>
+        <v>0.05392141995270591</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.464047336850604e-06</v>
+        <v>-8.464047344577779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8758405052339101</v>
+        <v>0.8758405051200023</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3394,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.49514396354666</v>
+        <v>12.49514396354664</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01891805407853855</v>
+        <v>0.01891805407853854</v>
       </c>
     </row>
     <row r="8">
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2293.158515212909</v>
+        <v>-22.93158515212926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09499481107796141</v>
+        <v>0.09499481107795901</v>
       </c>
     </row>
     <row r="9">
@@ -3420,10 +3420,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1955.888586694621</v>
+        <v>-19.55888586694632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007919385739748879</v>
+        <v>0.007919385739748467</v>
       </c>
     </row>
     <row r="10">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9930.862147241602</v>
+        <v>99.30862147241592</v>
       </c>
       <c r="C10" t="n">
-        <v>7.733823397187263e-08</v>
+        <v>7.733823397187418e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3446,10 +3446,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.775077729255592</v>
+        <v>8.775077729255635</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6302341919528818</v>
+        <v>0.6302341919528804</v>
       </c>
     </row>
   </sheetData>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4695.011506601299</v>
+        <v>4695.011506619883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001095259737857679</v>
+        <v>0.001095259737791897</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.6208282298172</v>
+        <v>124.6208282277931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02266797515671212</v>
+        <v>0.02266797515671316</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.77009387451689</v>
+        <v>65.77009387079544</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05320292341473334</v>
+        <v>0.05320292342711169</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3534,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1900915207473563</v>
+        <v>-19.00915207374088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01379827324098192</v>
+        <v>0.01379827324702034</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.166294545208886e-06</v>
+        <v>5.166294508479098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9527057467441096</v>
+        <v>0.9527057470786248</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3560,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.34894068479349</v>
+        <v>11.34894068479409</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03366224506438558</v>
+        <v>0.03366224506437433</v>
       </c>
     </row>
     <row r="8">
@@ -3573,10 +3573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2422.138964153482</v>
+        <v>-24.22138964153489</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06147821459682414</v>
+        <v>0.06147821459682372</v>
       </c>
     </row>
     <row r="9">
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2144.059408438308</v>
+        <v>-21.44059408438302</v>
       </c>
       <c r="C9" t="n">
-        <v>0.005708912688031808</v>
+        <v>0.005708912688031934</v>
       </c>
     </row>
     <row r="10">
@@ -3599,10 +3599,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7917.554225812219</v>
+        <v>79.17554225812222</v>
       </c>
       <c r="C10" t="n">
-        <v>1.489498550561559e-05</v>
+        <v>1.489498550561532e-05</v>
       </c>
     </row>
     <row r="11">
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8551248167776038</v>
+        <v>0.8551248167775505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9627629595580323</v>
+        <v>0.9627629595580346</v>
       </c>
     </row>
   </sheetData>
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3928.578959438959</v>
+        <v>3928.578959377731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003880336168000715</v>
+        <v>0.003880336168692125</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.6780406829509</v>
+        <v>158.6780406896886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009952806097896765</v>
+        <v>0.009952806097898809</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3687,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.3391039569662</v>
+        <v>102.3391039582151</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003744609956510538</v>
+        <v>0.003744609956146402</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3700,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09830466746750198</v>
+        <v>-9.830466745556887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1507105833569647</v>
+        <v>0.1507105834141527</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.977705468745412e-06</v>
+        <v>3.977705452331577</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9435981317120911</v>
+        <v>0.9435981319454224</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.83935936457303</v>
+        <v>10.83935936457298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03461937780688263</v>
+        <v>0.03461937780688384</v>
       </c>
     </row>
     <row r="8">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2856.210044300238</v>
+        <v>-28.56210044300258</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05101788896562218</v>
+        <v>0.05101788896562072</v>
       </c>
     </row>
     <row r="9">
@@ -3752,10 +3752,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2438.149369357927</v>
+        <v>-24.38149369357938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001662371542064729</v>
+        <v>0.00166237154206465</v>
       </c>
     </row>
     <row r="10">
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9632.258073349831</v>
+        <v>96.32258073349831</v>
       </c>
       <c r="C10" t="n">
-        <v>3.158997522874702e-08</v>
+        <v>3.158997522874783e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3778,10 +3778,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.766138587702574</v>
+        <v>-2.766138587703015</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8828776888855125</v>
+        <v>0.8828776888854943</v>
       </c>
     </row>
   </sheetData>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1908.320049848526</v>
+        <v>1908.320049655306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1843191183308208</v>
+        <v>0.184319118379824</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.9162325716884</v>
+        <v>145.9162325856078</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008432360296716514</v>
+        <v>0.00843236029671802</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3853,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.996016298538</v>
+        <v>102.9960163006339</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004581977547945236</v>
+        <v>0.004581977547225282</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09685924508809046</v>
+        <v>-9.685924508737857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.160963397066313</v>
+        <v>0.1609633970697577</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.897137054122409e-06</v>
+        <v>-4.897137067944016</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9298097389648562</v>
+        <v>0.9298097387669484</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3892,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.21086824390578</v>
+        <v>15.21086824390608</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003388486066450428</v>
+        <v>0.003388486066449643</v>
       </c>
     </row>
     <row r="8">
@@ -3905,10 +3905,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1354.045516643004</v>
+        <v>-13.54045516642993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.328722472736388</v>
+        <v>0.328722472736391</v>
       </c>
     </row>
     <row r="9">
@@ -3918,10 +3918,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1538.172434102097</v>
+        <v>-15.38172434102106</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05157207510661599</v>
+        <v>0.05157207510661461</v>
       </c>
     </row>
     <row r="10">
@@ -3931,10 +3931,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10988.25625253446</v>
+        <v>109.8825625253446</v>
       </c>
       <c r="C10" t="n">
-        <v>1.931476573764729e-09</v>
+        <v>1.931476573764715e-09</v>
       </c>
     </row>
     <row r="11">
@@ -3944,10 +3944,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.73818380102263</v>
+        <v>15.73818380102259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4211699600584713</v>
+        <v>0.4211699600584725</v>
       </c>
     </row>
   </sheetData>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2136.325538567462</v>
+        <v>2136.325538242146</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08088507860010838</v>
+        <v>0.08088507865005475</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +4006,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.2121363412953</v>
+        <v>179.2121363692112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003959936842510604</v>
+        <v>0.0003959936842508896</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +4019,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.78136117235172</v>
+        <v>80.781361177374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01360141692914817</v>
+        <v>0.01360141692364475</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09787041093508489</v>
+        <v>-9.787041094321399</v>
       </c>
       <c r="C5" t="n">
-        <v>0.119613106620453</v>
+        <v>0.1196131065867438</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-5.196623482361343e-06</v>
+        <v>-5.196623442810591</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9254579652081795</v>
+        <v>0.9254579657753546</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +4058,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.71679345957449</v>
+        <v>12.71679345957462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01219323935197233</v>
+        <v>0.01219323935197121</v>
       </c>
     </row>
     <row r="8">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1253.254703151563</v>
+        <v>-12.5325470315157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2987934227387358</v>
+        <v>0.2987934227387303</v>
       </c>
     </row>
     <row r="9">
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1786.408535942157</v>
+        <v>-17.86408535942157</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009515952435013316</v>
+        <v>0.009515952435013466</v>
       </c>
     </row>
     <row r="10">
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9945.036469055352</v>
+        <v>99.4503646905535</v>
       </c>
       <c r="C10" t="n">
-        <v>3.037671279020093e-09</v>
+        <v>3.037671279020071e-09</v>
       </c>
     </row>
     <row r="11">
@@ -4110,10 +4110,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.83342937388862</v>
+        <v>22.83342937388851</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1801819344984388</v>
+        <v>0.1801819344984412</v>
       </c>
     </row>
   </sheetData>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2507.568048540125</v>
+        <v>2507.568048419836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08689983953273346</v>
+        <v>0.08689983954932309</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +4172,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>117.4882337809305</v>
+        <v>117.4882337831865</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03995783253733126</v>
+        <v>0.03995783253733298</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +4185,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1522285323569</v>
+        <v>120.1522285333228</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001474016220351821</v>
+        <v>0.001474016220209419</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +4198,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07784169303881361</v>
+        <v>-7.784169303334817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2973630831340602</v>
+        <v>0.2973630831717968</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6.036237728389141e-05</v>
+        <v>-60.36237727370845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4199989304730226</v>
+        <v>0.4199989305546723</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.44368551137122</v>
+        <v>13.44368551137159</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009516368180873676</v>
+        <v>0.009516368180871275</v>
       </c>
     </row>
     <row r="8">
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1413.980790150433</v>
+        <v>-14.13980790150431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3476772262613461</v>
+        <v>0.3476772262613473</v>
       </c>
     </row>
     <row r="9">
@@ -4250,10 +4250,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1711.563710234777</v>
+        <v>-17.11563710234773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02350423654076189</v>
+        <v>0.0235042365407623</v>
       </c>
     </row>
     <row r="10">
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8932.246092322941</v>
+        <v>89.32246092322934</v>
       </c>
       <c r="C10" t="n">
-        <v>1.564238115088952e-05</v>
+        <v>1.564238115088961e-05</v>
       </c>
     </row>
     <row r="11">
@@ -4276,10 +4276,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.52853936110434</v>
+        <v>19.52853936110452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3234749172666519</v>
+        <v>0.3234749172666488</v>
       </c>
     </row>
   </sheetData>
@@ -4325,10 +4325,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4005.54047957701</v>
+        <v>4005.540479531026</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001617661109159558</v>
+        <v>0.001617661109393156</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4338,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.0429727912445</v>
+        <v>148.0429727984495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01017355101029688</v>
+        <v>0.0101735510102951</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.54744965694996</v>
+        <v>57.54744965142473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08062881855942199</v>
+        <v>0.08062881858761328</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4364,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1557097045505792</v>
+        <v>-15.57097045409077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01057301389980036</v>
+        <v>0.01057301390552507</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.506765351348157e-07</v>
+        <v>-0.1506765574937745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9976608106473026</v>
+        <v>0.9976608103001654</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4390,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.23549297739888</v>
+        <v>18.23549297739872</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001029211949772045</v>
+        <v>0.001029211949772118</v>
       </c>
     </row>
     <row r="8">
@@ -4403,10 +4403,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2011.102935285034</v>
+        <v>-20.11102935285048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1042684528940404</v>
+        <v>0.1042684528940381</v>
       </c>
     </row>
     <row r="9">
@@ -4416,10 +4416,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1908.171219091707</v>
+        <v>-19.08171219091712</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006920250246751656</v>
+        <v>0.006920250246751447</v>
       </c>
     </row>
     <row r="10">
@@ -4429,10 +4429,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8403.642925805247</v>
+        <v>84.03642925805225</v>
       </c>
       <c r="C10" t="n">
-        <v>2.978275720037751e-07</v>
+        <v>2.978275720037936e-07</v>
       </c>
     </row>
     <row r="11">
@@ -4442,10 +4442,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.49499855762321</v>
+        <v>-10.49499855762348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5447545151571768</v>
+        <v>0.5447545151571671</v>
       </c>
     </row>
   </sheetData>
@@ -4491,10 +4491,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3580.172527320188</v>
+        <v>3580.172527343171</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006163591380348378</v>
+        <v>0.006163591379932384</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4504,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.9003769288553</v>
+        <v>114.9003769225412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03818915108704382</v>
+        <v>0.03818915108704984</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.34392123949169</v>
+        <v>92.34392124645117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004449825700510962</v>
+        <v>0.00444982569798047</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4530,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2110769955827181</v>
+        <v>-21.10769955846701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00234200580606565</v>
+        <v>0.002342005805779788</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.619941540230806e-05</v>
+        <v>76.19941544073976</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2245110564836549</v>
+        <v>0.224511056265933</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4556,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.61003420065094</v>
+        <v>14.6100342006515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002485141884781825</v>
+        <v>0.002485141884780573</v>
       </c>
     </row>
     <row r="8">
@@ -4569,10 +4569,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3437.624644609594</v>
+        <v>-34.37624644609605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01739294497196075</v>
+        <v>0.01739294497196077</v>
       </c>
     </row>
     <row r="9">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1293.449401792134</v>
+        <v>-12.93449401792129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07925305897461972</v>
+        <v>0.07925305897462119</v>
       </c>
     </row>
     <row r="10">
@@ -4595,10 +4595,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7873.926738720983</v>
+        <v>78.73926738720979</v>
       </c>
       <c r="C10" t="n">
-        <v>1.968786403466859e-06</v>
+        <v>1.968786403466903e-06</v>
       </c>
     </row>
     <row r="11">
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.291087358841953</v>
+        <v>2.291087358841519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.894622093039081</v>
+        <v>0.894622093039101</v>
       </c>
     </row>
   </sheetData>
@@ -4657,10 +4657,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2193.637589768171</v>
+        <v>2193.637589852407</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09760383085294258</v>
+        <v>0.09760383083840452</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4670,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.2907389297443</v>
+        <v>129.2907389277063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01957766889887856</v>
+        <v>0.01957766889886653</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4683,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.0529382047378</v>
+        <v>101.0529382036345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004160593387687315</v>
+        <v>0.004160593388030449</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4696,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05560934465089343</v>
+        <v>-5.560934465134881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3865720638422627</v>
+        <v>0.3865720638380162</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4709,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.840552711336921e-05</v>
+        <v>-38.40552712224127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4595422103569518</v>
+        <v>0.4595422102414691</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4722,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.27213811655134</v>
+        <v>16.27213811655137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003818943687636991</v>
+        <v>0.003818943687636822</v>
       </c>
     </row>
     <row r="8">
@@ -4735,10 +4735,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1141.651948298929</v>
+        <v>-11.41651948298926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3631462289300578</v>
+        <v>0.3631462289300593</v>
       </c>
     </row>
     <row r="9">
@@ -4748,10 +4748,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2175.371473322737</v>
+        <v>-21.75371473322733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001842487195079692</v>
+        <v>0.001842487195079724</v>
       </c>
     </row>
     <row r="10">
@@ -4761,10 +4761,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10627.3622930463</v>
+        <v>106.2736229304629</v>
       </c>
       <c r="C10" t="n">
-        <v>1.429961593739553e-09</v>
+        <v>1.42996159373959e-09</v>
       </c>
     </row>
     <row r="11">
@@ -4774,10 +4774,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.91248718619969</v>
+        <v>16.91248718619964</v>
       </c>
       <c r="C11" t="n">
-        <v>0.345725008624129</v>
+        <v>0.3457250086241321</v>
       </c>
     </row>
   </sheetData>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3271.258359704001</v>
+        <v>3271.258359501152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01335011338594856</v>
+        <v>0.01335011339231404</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4836,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.1616367181172</v>
+        <v>198.1616366997244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006406551449702739</v>
+        <v>0.0006406551449702207</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.53198018340431</v>
+        <v>53.53198018962058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1169653632746623</v>
+        <v>0.1169653632327378</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4862,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1534025211726893</v>
+        <v>-15.3402521176519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03070835001446218</v>
+        <v>0.03070835000976133</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4875,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.561765180236351e-06</v>
+        <v>9.561765188714773</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8770498873122019</v>
+        <v>0.8770498872050085</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4888,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.44671511252368</v>
+        <v>11.44671511252403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02334042451223617</v>
+        <v>0.02334042451223093</v>
       </c>
     </row>
     <row r="8">
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1685.918166228466</v>
+        <v>-16.8591816622849</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2100181514639032</v>
+        <v>0.2100181514638967</v>
       </c>
     </row>
     <row r="9">
@@ -4914,10 +4914,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1745.901290981179</v>
+        <v>-17.45901290981187</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02191305742608381</v>
+        <v>0.02191305742608323</v>
       </c>
     </row>
     <row r="10">
@@ -4927,10 +4927,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8968.849863086623</v>
+        <v>89.68849863086612</v>
       </c>
       <c r="C10" t="n">
-        <v>9.798103652185941e-08</v>
+        <v>9.79810365218628e-08</v>
       </c>
     </row>
     <row r="11">
@@ -4940,10 +4940,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.80445657761524</v>
+        <v>13.80445657761539</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4585956360921156</v>
+        <v>0.458595636092112</v>
       </c>
     </row>
   </sheetData>
@@ -4989,10 +4989,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3484.140337434708</v>
+        <v>3484.140337629435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01758682554609121</v>
+        <v>0.01758682553892152</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.7463069206564</v>
+        <v>165.7463069117403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003484591878388152</v>
+        <v>0.003484591878387949</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.03596585328015</v>
+        <v>98.03596584303546</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005816548039205153</v>
+        <v>0.005816548043796036</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +5028,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08882152211347537</v>
+        <v>-8.882152212059015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1894102379477328</v>
+        <v>0.1894102379080533</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +5041,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.51861791149006e-05</v>
+        <v>-35.18617910681651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5766491332949912</v>
+        <v>0.5766491333833199</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +5054,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.8125850500219</v>
+        <v>13.81258505002223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01496947094185625</v>
+        <v>0.01496947094185302</v>
       </c>
     </row>
     <row r="8">
@@ -5067,10 +5067,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1191.126503325617</v>
+        <v>-11.91126503325627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3635551318680527</v>
+        <v>0.3635551318680497</v>
       </c>
     </row>
     <row r="9">
@@ -5080,10 +5080,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1800.738095339338</v>
+        <v>-18.00738095339332</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0219807598929332</v>
+        <v>0.02198075989293354</v>
       </c>
     </row>
     <row r="10">
@@ -5093,7 +5093,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9322.456354126029</v>
+        <v>93.22456354126022</v>
       </c>
       <c r="C10" t="n">
         <v>2.723033227863181e-06</v>
@@ -5106,10 +5106,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-9.101433602912376</v>
+        <v>-9.101433602912465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6528461147295332</v>
+        <v>0.6528461147295305</v>
       </c>
     </row>
   </sheetData>
@@ -5155,10 +5155,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4362.932278000551</v>
+        <v>4362.932277979669</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008470367969082514</v>
+        <v>0.0008470367969706805</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +5168,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.7251811004276</v>
+        <v>149.7251811193124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005112344806694857</v>
+        <v>0.005112344806693148</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +5181,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.86499767460566</v>
+        <v>64.86499767000814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05668128639117856</v>
+        <v>0.05668128640798738</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +5194,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1399887835237106</v>
+        <v>-13.99887835165745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02503438966055673</v>
+        <v>0.02503438966914257</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +5207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.758590008443328e-08</v>
+        <v>0.0575858892556198</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991359554953589</v>
+        <v>0.9991359556578359</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +5220,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.21233474835259</v>
+        <v>12.21233474835263</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01809593033513591</v>
+        <v>0.01809593033513499</v>
       </c>
     </row>
     <row r="8">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2763.813157532621</v>
+        <v>-27.63813157532618</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02710255597068294</v>
+        <v>0.02710255597068329</v>
       </c>
     </row>
     <row r="9">
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2599.805248480084</v>
+        <v>-25.99805248480088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000521469775975415</v>
+        <v>0.0005214697759754051</v>
       </c>
     </row>
     <row r="10">
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9875.039496679216</v>
+        <v>98.75039496679236</v>
       </c>
       <c r="C10" t="n">
-        <v>5.975253393206321e-09</v>
+        <v>5.97525339320619e-09</v>
       </c>
     </row>
     <row r="11">
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.907929308991339</v>
+        <v>-3.907929308991577</v>
       </c>
       <c r="C11" t="n">
-        <v>0.82024642351101</v>
+        <v>0.8202464235109993</v>
       </c>
     </row>
   </sheetData>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2841.720269126863</v>
+        <v>2841.720269478886</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03398395963485046</v>
+        <v>0.03398395961084268</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +5334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182.5523690781083</v>
+        <v>182.5523690542373</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007699434771862916</v>
+        <v>0.000769943477186239</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +5347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.91462203099704</v>
+        <v>90.91462202149123</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006163516064449631</v>
+        <v>0.006163516069342675</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1039053519259243</v>
+        <v>-10.39053519287521</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1018301889244416</v>
+        <v>0.1018301889140448</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +5373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.386299298825543e-06</v>
+        <v>5.386299324114219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9187413222345894</v>
+        <v>0.9187413218573299</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.38929969772325</v>
+        <v>13.38929969772358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007318883838884053</v>
+        <v>0.007318883838882165</v>
       </c>
     </row>
     <row r="8">
@@ -5399,10 +5399,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1878.107095205268</v>
+        <v>-18.78107095205257</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1371682574590253</v>
+        <v>0.137168257459027</v>
       </c>
     </row>
     <row r="9">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1962.55029026562</v>
+        <v>-19.62550290265626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008534636034383552</v>
+        <v>0.008534636034383385</v>
       </c>
     </row>
     <row r="10">
@@ -5425,10 +5425,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8163.40677058307</v>
+        <v>81.63406770583072</v>
       </c>
       <c r="C10" t="n">
-        <v>7.484321607045676e-07</v>
+        <v>7.48432160704583e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5438,10 +5438,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.93663885777658</v>
+        <v>13.93663885777671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.454352590798574</v>
+        <v>0.454352590798571</v>
       </c>
     </row>
   </sheetData>
@@ -5487,10 +5487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3982.927652277875</v>
+        <v>3982.927652266214</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004925719055020272</v>
+        <v>0.004925719055188369</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.71348716059126</v>
+        <v>91.71348715848488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09306170423231166</v>
+        <v>0.09306170423234428</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.56653607314129</v>
+        <v>88.56653607053377</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01060853949745332</v>
+        <v>0.01060853949962038</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1673522752923015</v>
+        <v>-16.7352275290047</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02401678516236276</v>
+        <v>0.02401678516472469</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.120870604777099e-05</v>
+        <v>11.2087060067588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8883666211445373</v>
+        <v>0.8883666215480031</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.897952336296349</v>
+        <v>8.897952336296635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1029189611922874</v>
+        <v>0.1029189611922741</v>
       </c>
     </row>
     <row r="8">
@@ -5565,10 +5565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1908.503890770174</v>
+        <v>-19.08503890770171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1310093860060962</v>
+        <v>0.1310093860060975</v>
       </c>
     </row>
     <row r="9">
@@ -5578,10 +5578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2296.586065103043</v>
+        <v>-22.96586065103037</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001636646822166084</v>
+        <v>0.001636646822166108</v>
       </c>
     </row>
     <row r="10">
@@ -5591,10 +5591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9739.463108073414</v>
+        <v>97.39463108073409</v>
       </c>
       <c r="C10" t="n">
-        <v>9.6181208552832e-07</v>
+        <v>9.618120855283183e-07</v>
       </c>
     </row>
     <row r="11">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.39646567855486</v>
+        <v>10.39646567855496</v>
       </c>
       <c r="C11" t="n">
-        <v>0.578177461281461</v>
+        <v>0.5781774612814575</v>
       </c>
     </row>
   </sheetData>
@@ -5653,10 +5653,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3430.065942759213</v>
+        <v>3430.065942743827</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004780326259511607</v>
+        <v>0.004780326259733143</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5666,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>187.1603741399238</v>
+        <v>187.1603741253754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003835131435530834</v>
+        <v>0.0003835131435529496</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.73074505282464</v>
+        <v>55.7307450503782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08189982409609194</v>
+        <v>0.08189982410874665</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1072069263148769</v>
+        <v>-10.72069263160054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07587013680736357</v>
+        <v>0.07587013680391361</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5705,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.039104344638462e-06</v>
+        <v>-3.039104354776441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9515899410004036</v>
+        <v>0.9515899408391149</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5718,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.62646794596369</v>
+        <v>11.626467945964</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02045430541644394</v>
+        <v>0.02045430541643988</v>
       </c>
     </row>
     <row r="8">
@@ -5731,10 +5731,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2229.573319129609</v>
+        <v>-22.2957331912961</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07701001124879486</v>
+        <v>0.07701001124879522</v>
       </c>
     </row>
     <row r="9">
@@ -5744,10 +5744,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2249.857075635127</v>
+        <v>-22.49857075635135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00144978844629872</v>
+        <v>0.001449788446298667</v>
       </c>
     </row>
     <row r="10">
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10426.94301716773</v>
+        <v>104.2694301716772</v>
       </c>
       <c r="C10" t="n">
-        <v>1.662252763738243e-10</v>
+        <v>1.662252763738316e-10</v>
       </c>
     </row>
     <row r="11">
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.194127680911755</v>
+        <v>7.194127680911553</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6616690916387183</v>
+        <v>0.661669091638728</v>
       </c>
     </row>
   </sheetData>
@@ -5819,10 +5819,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2603.27570361024</v>
+        <v>2603.275703578918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06457427497964408</v>
+        <v>0.06457427498333947</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.5732756256912</v>
+        <v>140.5732756081082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01628376247672407</v>
+        <v>0.01628376247671865</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118.1938144636183</v>
+        <v>118.1938144688827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001896745270208269</v>
+        <v>0.001896745269381758</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5858,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09649764114760959</v>
+        <v>-9.649764113425345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1560412306738261</v>
+        <v>0.1560412307374685</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5871,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.25694158910785e-05</v>
+        <v>-22.56941591048995</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6853574505819987</v>
+        <v>0.6853574503199359</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.37132233767154</v>
+        <v>13.37132233767178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008803520073918525</v>
+        <v>0.00880352007391675</v>
       </c>
     </row>
     <row r="8">
@@ -5897,10 +5897,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1027.168152183732</v>
+        <v>-10.27168152183732</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4568445958624674</v>
+        <v>0.4568445958624675</v>
       </c>
     </row>
     <row r="9">
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1980.641594763589</v>
+        <v>-19.80641594763586</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009590977796993175</v>
+        <v>0.00959097779699338</v>
       </c>
     </row>
     <row r="10">
@@ -5923,10 +5923,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9911.475381484321</v>
+        <v>99.1147538148431</v>
       </c>
       <c r="C10" t="n">
-        <v>1.870450230667729e-08</v>
+        <v>1.870450230667839e-08</v>
       </c>
     </row>
     <row r="11">
@@ -5936,10 +5936,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.75320098155509</v>
+        <v>11.75320098155501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5308227765659697</v>
+        <v>0.5308227765659728</v>
       </c>
     </row>
   </sheetData>
@@ -5985,10 +5985,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3995.415844984999</v>
+        <v>3995.415845093786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003246535594491388</v>
+        <v>0.003246535593484772</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.7320107484717</v>
+        <v>169.7320107295343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001936467810689948</v>
+        <v>0.001936467810690427</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.91136267630212</v>
+        <v>59.91136267327635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0771869381705471</v>
+        <v>0.07718693818465275</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +6024,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1677587727482644</v>
+        <v>-16.77587727343797</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0132824790848005</v>
+        <v>0.01328247909388613</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +6037,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.331299875329857e-05</v>
+        <v>13.31299873348118</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8059806079265359</v>
+        <v>0.8059806082093671</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +6050,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.880762007881488</v>
+        <v>9.880762007881724</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05958610820466897</v>
+        <v>0.05958610820466172</v>
       </c>
     </row>
     <row r="8">
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2761.739321206217</v>
+        <v>-27.61739321206213</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04011007565572968</v>
+        <v>0.04011007565573022</v>
       </c>
     </row>
     <row r="9">
@@ -6076,10 +6076,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2004.428726415218</v>
+        <v>-20.0442872641521</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006933514225312591</v>
+        <v>0.006933514225312766</v>
       </c>
     </row>
     <row r="10">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10425.30677492868</v>
+        <v>104.2530677492867</v>
       </c>
       <c r="C10" t="n">
-        <v>9.657600784637291e-10</v>
+        <v>9.657600784637396e-10</v>
       </c>
     </row>
     <row r="11">
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.481132039390332</v>
+        <v>2.481132039390243</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8894035632684584</v>
+        <v>0.8894035632684625</v>
       </c>
     </row>
   </sheetData>
@@ -6151,10 +6151,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3618.202784425784</v>
+        <v>3618.202784486019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00668981458128364</v>
+        <v>0.006689814580194211</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +6164,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.2421172923719</v>
+        <v>151.2421172874327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009339571434532809</v>
+        <v>0.009339571434528416</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +6177,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.75628305748504</v>
+        <v>61.75628305477288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06462069690243581</v>
+        <v>0.06462069691298131</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1885240395798837</v>
+        <v>-18.8524039579231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00904457636691058</v>
+        <v>0.009044576367211133</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +6203,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.720128042791289e-05</v>
+        <v>47.20128040056336</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4455630713144481</v>
+        <v>0.4455630715671095</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +6216,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.70978038088887</v>
+        <v>21.70978038088877</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001572886892344332</v>
+        <v>0.0001572886892344372</v>
       </c>
     </row>
     <row r="8">
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3020.460770200947</v>
+        <v>-30.20460770200949</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02801119460955879</v>
+        <v>0.02801119460955857</v>
       </c>
     </row>
     <row r="9">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1032.367512213431</v>
+        <v>-10.32367512213442</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1909215336693241</v>
+        <v>0.1909215336693198</v>
       </c>
     </row>
     <row r="10">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9011.862003617462</v>
+        <v>90.1186200361747</v>
       </c>
       <c r="C10" t="n">
-        <v>1.445879983882514e-07</v>
+        <v>1.445879983882467e-07</v>
       </c>
     </row>
     <row r="11">
@@ -6268,7 +6268,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-19.76402438938406</v>
+        <v>-19.76402438938407</v>
       </c>
       <c r="C11" t="n">
         <v>0.2804906513850297</v>
@@ -6317,10 +6317,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3988.016756838947</v>
+        <v>3988.016756741341</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0034865978626465</v>
+        <v>0.003486597863646951</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +6330,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.3268528773403</v>
+        <v>142.3268528816663</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02203210140021722</v>
+        <v>0.02203210140020268</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +6343,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91.67186625335847</v>
+        <v>91.67186625455683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0119935224696365</v>
+        <v>0.01199352246851735</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +6356,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1386653612967589</v>
+        <v>-13.86653613030402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03752995726253157</v>
+        <v>0.03752995725217811</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +6369,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.145194217874929e-06</v>
+        <v>5.145194231374575</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9244790355756916</v>
+        <v>0.9244790353788681</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.46035334430445</v>
+        <v>12.46035334430479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01355832154268395</v>
+        <v>0.01355832154268063</v>
       </c>
     </row>
     <row r="8">
@@ -6395,10 +6395,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2262.632755736536</v>
+        <v>-22.62632755736546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08609339108612389</v>
+        <v>0.08609339108612328</v>
       </c>
     </row>
     <row r="9">
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2232.534889385309</v>
+        <v>-22.32534889385317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004085220201139715</v>
+        <v>0.004085220201139579</v>
       </c>
     </row>
     <row r="10">
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8261.978507772805</v>
+        <v>82.61978507772798</v>
       </c>
       <c r="C10" t="n">
-        <v>2.102826631826101e-06</v>
+        <v>2.102826631826116e-06</v>
       </c>
     </row>
     <row r="11">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6359432884073541</v>
+        <v>-0.6359432884073932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9729375640971512</v>
+        <v>0.9729375640971496</v>
       </c>
     </row>
   </sheetData>
@@ -6483,10 +6483,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2336.733964812549</v>
+        <v>2336.733964885914</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1048474271355006</v>
+        <v>0.1048474271233091</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6496,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.570691067093</v>
+        <v>142.5706910865119</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01118251569917568</v>
+        <v>0.01118251569917626</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6509,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.931264465446</v>
+        <v>102.9312644593719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007740368214976634</v>
+        <v>0.007740368218195255</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07992980241757922</v>
+        <v>-7.992980241259784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2509458447637288</v>
+        <v>0.2509458447963557</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.704962190805618e-05</v>
+        <v>-27.04962194131415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6321960641040743</v>
+        <v>0.6321960636781719</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6548,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.41983798819876</v>
+        <v>11.41983798819884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04205126983433063</v>
+        <v>0.04205126983432812</v>
       </c>
     </row>
     <row r="8">
@@ -6561,10 +6561,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1374.82040458243</v>
+        <v>-13.74820404582438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3550243864992998</v>
+        <v>0.3550243864992959</v>
       </c>
     </row>
     <row r="9">
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2094.71578185733</v>
+        <v>-20.9471578185732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009490221769447603</v>
+        <v>0.009490221769447889</v>
       </c>
     </row>
     <row r="10">
@@ -6587,10 +6587,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10644.53557480305</v>
+        <v>106.4453557480303</v>
       </c>
       <c r="C10" t="n">
-        <v>6.291992438500014e-08</v>
+        <v>6.29199243850038e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6600,10 +6600,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.85050248277855</v>
+        <v>23.85050248277865</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2219482633968478</v>
+        <v>0.2219482633968454</v>
       </c>
     </row>
   </sheetData>
@@ -6649,10 +6649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3074.589145065182</v>
+        <v>3074.589145012871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01267557335448783</v>
+        <v>0.01267557335627183</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.4668632030761</v>
+        <v>137.4668632093943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005085733897917136</v>
+        <v>0.005085733897917746</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.19474928876465</v>
+        <v>62.19474928930939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03982729474551308</v>
+        <v>0.03982729474387611</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2185798633603107</v>
+        <v>-21.8579863360439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01738319062625936</v>
+        <v>0.01738319062617403</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.430393323693433e-05</v>
+        <v>94.30393321553096</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4089277851618601</v>
+        <v>0.4089277852688666</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.3354234645854</v>
+        <v>13.3354234645862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003236564051743438</v>
+        <v>0.003236564051741205</v>
       </c>
     </row>
     <row r="8">
@@ -6727,10 +6727,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2638.502650634335</v>
+        <v>-26.3850265063431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06680933365512859</v>
+        <v>0.06680933365513092</v>
       </c>
     </row>
     <row r="9">
@@ -6740,10 +6740,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1343.764816242375</v>
+        <v>-13.43764816242399</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05499815446480306</v>
+        <v>0.05499815446479968</v>
       </c>
     </row>
     <row r="10">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8738.718766044294</v>
+        <v>87.38718766044298</v>
       </c>
       <c r="C10" t="n">
-        <v>6.170988661383915e-08</v>
+        <v>6.170988661383427e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.53219920926921</v>
+        <v>15.53219920926981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3594274162237898</v>
+        <v>0.3594274162237694</v>
       </c>
     </row>
   </sheetData>
@@ -6815,10 +6815,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3355.981066449804</v>
+        <v>3355.981066370176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007963227565652233</v>
+        <v>0.007963227567413387</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.6150200807645</v>
+        <v>138.6150200809161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01060200339281814</v>
+        <v>0.01060200339281652</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.1988577668086</v>
+        <v>65.19885776195849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04776981250793746</v>
+        <v>0.04776981252260543</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6854,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1334235896380589</v>
+        <v>-13.34235896376822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03813168758496868</v>
+        <v>0.03813168758562142</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6867,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.073408952230632e-06</v>
+        <v>7.073408965740299</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8950560491591921</v>
+        <v>0.8950560489615411</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6880,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22.29613284163808</v>
+        <v>22.29613284163802</v>
       </c>
       <c r="C7" t="n">
-        <v>7.996643646562318e-05</v>
+        <v>7.996643646562302e-05</v>
       </c>
     </row>
     <row r="8">
@@ -6893,10 +6893,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1983.127862187635</v>
+        <v>-19.83127862187647</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09986513876177734</v>
+        <v>0.09986513876177572</v>
       </c>
     </row>
     <row r="9">
@@ -6906,10 +6906,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1588.448035510769</v>
+        <v>-15.88448035510774</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03080374981333731</v>
+        <v>0.03080374981333667</v>
       </c>
     </row>
     <row r="10">
@@ -6919,10 +6919,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8986.058598401622</v>
+        <v>89.86058598401601</v>
       </c>
       <c r="C10" t="n">
-        <v>4.365186823086602e-08</v>
+        <v>4.365186823086772e-08</v>
       </c>
     </row>
     <row r="11">
@@ -6932,10 +6932,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-13.88479848039876</v>
+        <v>-13.88479848039891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4283116395558246</v>
+        <v>0.4283116395558203</v>
       </c>
     </row>
   </sheetData>
@@ -6981,10 +6981,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3643.334452534843</v>
+        <v>3643.334452675443</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008735915636253337</v>
+        <v>0.008735915633315574</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6994,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186.9607877737203</v>
+        <v>186.9607877513867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009527989942314676</v>
+        <v>0.0009527989942313459</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +7007,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.8670090157687</v>
+        <v>89.86700901396586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006513900555859115</v>
+        <v>0.006513900556840638</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +7020,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1031108507345057</v>
+        <v>-10.31108507294827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1021680173460555</v>
+        <v>0.1021680173645398</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +7033,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.487610529663988e-05</v>
+        <v>-14.87610533620938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7797816853968571</v>
+        <v>0.7797816848191677</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.13812077985352</v>
+        <v>10.13812077985375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06462611473179602</v>
+        <v>0.06462611473178827</v>
       </c>
     </row>
     <row r="8">
@@ -7059,10 +7059,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1968.539063899915</v>
+        <v>-19.68539063899913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1243575897585037</v>
+        <v>0.1243575897585031</v>
       </c>
     </row>
     <row r="9">
@@ -7072,10 +7072,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2289.020216971629</v>
+        <v>-22.8902021697162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002050517782422922</v>
+        <v>0.002050517782422989</v>
       </c>
     </row>
     <row r="10">
@@ -7085,10 +7085,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10923.10901001937</v>
+        <v>109.2310901001929</v>
       </c>
       <c r="C10" t="n">
-        <v>6.035203746162882e-10</v>
+        <v>6.035203746163739e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7098,10 +7098,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.5911324289770619</v>
+        <v>-0.5911324289770334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9737500302159208</v>
+        <v>0.9737500302159221</v>
       </c>
     </row>
   </sheetData>
@@ -7147,10 +7147,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3521.719392212038</v>
+        <v>3521.71939213951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008433943097942539</v>
+        <v>0.008433943099629729</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +7160,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.4916656104001</v>
+        <v>105.4916656179977</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05909805415415808</v>
+        <v>0.05909805415415368</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +7173,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62.96681482062337</v>
+        <v>62.96681481823912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07109634221314852</v>
+        <v>0.07109634222303271</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1237462080985985</v>
+        <v>-12.37462080916889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05998703454392616</v>
+        <v>0.05998703456115132</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +7199,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.498680005294067e-05</v>
+        <v>-14.98680008046604</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8020616552417597</v>
+        <v>0.8020616548824518</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +7212,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.23548458919189</v>
+        <v>23.23548458919185</v>
       </c>
       <c r="C7" t="n">
-        <v>5.688816396864185e-05</v>
+        <v>5.68881639686397e-05</v>
       </c>
     </row>
     <row r="8">
@@ -7225,10 +7225,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1844.019236318106</v>
+        <v>-18.4401923631811</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1549075411060878</v>
+        <v>0.1549075411060874</v>
       </c>
     </row>
     <row r="9">
@@ -7238,10 +7238,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2026.696723241528</v>
+        <v>-20.26696723241526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007149727430464177</v>
+        <v>0.007149727430464221</v>
       </c>
     </row>
     <row r="10">
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8991.335106303926</v>
+        <v>89.91335106303913</v>
       </c>
       <c r="C10" t="n">
-        <v>9.864512985810713e-08</v>
+        <v>9.864512985810715e-08</v>
       </c>
     </row>
     <row r="11">
@@ -7264,10 +7264,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.16329105724254</v>
+        <v>-10.1632910572426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5730460491042713</v>
+        <v>0.573046049104269</v>
       </c>
     </row>
   </sheetData>
@@ -7313,10 +7313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3137.480338351357</v>
+        <v>3137.480338468217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02604226646721573</v>
+        <v>0.02604226646103725</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +7326,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.0066906268985</v>
+        <v>169.0066906251095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002723115751256291</v>
+        <v>0.002723115751254921</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +7339,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.0640477187243</v>
+        <v>74.06404771182585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03742281884556056</v>
+        <v>0.03742281886250247</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +7352,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1277342641836509</v>
+        <v>-12.77342641862439</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06495713675041083</v>
+        <v>0.0649571367443324</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +7365,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.922348261707877e-07</v>
+        <v>0.8922348060088297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9869224744611066</v>
+        <v>0.9869224747564147</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +7378,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.22680614971691</v>
+        <v>15.22680614971712</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004269120576635441</v>
+        <v>0.0042691205766347</v>
       </c>
     </row>
     <row r="8">
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2132.853790169755</v>
+        <v>-21.32853790169768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1206157005457751</v>
+        <v>0.120615700545774</v>
       </c>
     </row>
     <row r="9">
@@ -7404,10 +7404,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1504.654792372204</v>
+        <v>-15.04654792372199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05729588472834806</v>
+        <v>0.05729588472834888</v>
       </c>
     </row>
     <row r="10">
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9342.223751896108</v>
+        <v>93.42223751896086</v>
       </c>
       <c r="C10" t="n">
-        <v>1.65401478669586e-07</v>
+        <v>1.654014786695947e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7430,10 +7430,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.658361913489445</v>
+        <v>2.658361913489308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8856908747965669</v>
+        <v>0.8856908747965728</v>
       </c>
     </row>
   </sheetData>
@@ -7479,10 +7479,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1711.209658731057</v>
+        <v>1711.209658439591</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2267577242170131</v>
+        <v>0.2267577243043417</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +7492,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.211640937525</v>
+        <v>161.2116409477048</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004857771400748043</v>
+        <v>0.004857771400746103</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +7505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.2323235089889</v>
+        <v>96.23232351192817</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004148391225887324</v>
+        <v>0.004148391224870247</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +7518,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09664121657461827</v>
+        <v>-9.664121657147566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1672660630597027</v>
+        <v>0.1672660630751701</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +7531,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8.918114545499142e-06</v>
+        <v>-8.918114512218835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8789011539737809</v>
+        <v>0.8789011544259739</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +7544,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.96996267493852</v>
+        <v>14.96996267493914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006623089511731921</v>
+        <v>0.006623089511729139</v>
       </c>
     </row>
     <row r="8">
@@ -7557,10 +7557,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1250.025171487324</v>
+        <v>-12.50025171487359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3667872729425217</v>
+        <v>0.3667872729425088</v>
       </c>
     </row>
     <row r="9">
@@ -7570,10 +7570,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1805.79552098366</v>
+        <v>-18.05795520983671</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01591823820066206</v>
+        <v>0.01591823820066139</v>
       </c>
     </row>
     <row r="10">
@@ -7583,10 +7583,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9340.724625690607</v>
+        <v>93.40724625690598</v>
       </c>
       <c r="C10" t="n">
-        <v>6.156521024174281e-08</v>
+        <v>6.156521024174396e-08</v>
       </c>
     </row>
     <row r="11">
@@ -7596,10 +7596,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.29850502398343</v>
+        <v>30.29850502398351</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1050011308757516</v>
+        <v>0.1050011308757512</v>
       </c>
     </row>
   </sheetData>
@@ -7645,10 +7645,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3556.275753059093</v>
+        <v>3556.275753434905</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003178595490885556</v>
+        <v>0.003178595487335595</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>225.7502298645908</v>
+        <v>225.7502298523157</v>
       </c>
       <c r="C3" t="n">
-        <v>2.696237222608383e-05</v>
+        <v>2.696237222608473e-05</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7671,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.72197406554031</v>
+        <v>58.72197405315547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06319402908421153</v>
+        <v>0.06319402913698789</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7684,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1411516831329057</v>
+        <v>-14.11516831061415</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02113367618468781</v>
+        <v>0.02113367621223815</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7697,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.853218817702919e-05</v>
+        <v>28.5321880938987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5725092904152879</v>
+        <v>0.5725092915255774</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7710,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.040315428220479</v>
+        <v>9.040315428220746</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05527485974151847</v>
+        <v>0.0552748597415095</v>
       </c>
     </row>
     <row r="8">
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2389.671252411524</v>
+        <v>-23.89671252411534</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05079246050954434</v>
+        <v>0.05079246050954337</v>
       </c>
     </row>
     <row r="9">
@@ -7736,10 +7736,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1844.473905398359</v>
+        <v>-18.4447390539836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006495423815495539</v>
+        <v>0.006495423815495446</v>
       </c>
     </row>
     <row r="10">
@@ -7749,10 +7749,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10339.11098839055</v>
+        <v>103.3911098839053</v>
       </c>
       <c r="C10" t="n">
-        <v>1.175611844746137e-10</v>
+        <v>1.175611844746252e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.030314607367284</v>
+        <v>2.030314607366895</v>
       </c>
       <c r="C11" t="n">
-        <v>0.904833376660251</v>
+        <v>0.9048333766602694</v>
       </c>
     </row>
   </sheetData>
@@ -7811,10 +7811,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3585.637654652036</v>
+        <v>3585.637654786773</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00621008810084643</v>
+        <v>0.006210088098591191</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7824,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.9176298685207</v>
+        <v>160.9176298553824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003804147863617011</v>
+        <v>0.003804147863615503</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7837,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.41012241417937</v>
+        <v>65.41012240873644</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04675226868260668</v>
+        <v>0.046752268699514</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7850,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1436885796297644</v>
+        <v>-14.3688579624986</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02535127353376902</v>
+        <v>0.02535127353946411</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7863,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.011109010015399e-05</v>
+        <v>10.11109005724774</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8522174932345314</v>
+        <v>0.8522174938487974</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7876,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.37946533276966</v>
+        <v>13.37946533276987</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01204892606197872</v>
+        <v>0.01204892606197687</v>
       </c>
     </row>
     <row r="8">
@@ -7889,7 +7889,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1905.974498551486</v>
+        <v>-19.05974498551484</v>
       </c>
       <c r="C8" t="n">
         <v>0.1208189664006967</v>
@@ -7902,10 +7902,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1810.620414443182</v>
+        <v>-18.10620414443186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01768718792681059</v>
+        <v>0.01768718792681019</v>
       </c>
     </row>
     <row r="10">
@@ -7915,10 +7915,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9462.994606248663</v>
+        <v>94.62994606248651</v>
       </c>
       <c r="C10" t="n">
-        <v>2.201268911776353e-08</v>
+        <v>2.201268911776426e-08</v>
       </c>
     </row>
     <row r="11">
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.222135219192964</v>
+        <v>-1.222135219192801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9457673178621714</v>
+        <v>0.9457673178621788</v>
       </c>
     </row>
   </sheetData>
@@ -7977,10 +7977,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4678.788833266609</v>
+        <v>4678.788833127637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004299294274765422</v>
+        <v>0.0004299294277202821</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7990,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.88416439796357</v>
+        <v>92.88416440144192</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08915762663374446</v>
+        <v>0.08915762663381263</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.4656606775892</v>
+        <v>115.4656606776191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001043098246958551</v>
+        <v>0.001043098246955404</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +8016,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1764088881417841</v>
+        <v>-17.64088881407113</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01773118723442905</v>
+        <v>0.0177311872352942</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +8029,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.665351398471464e-05</v>
+        <v>36.65351399884931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6379776394095504</v>
+        <v>0.6379776392820755</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.631732792514661</v>
+        <v>7.631732792514892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1183022879293017</v>
+        <v>0.1183022879292888</v>
       </c>
     </row>
     <row r="8">
@@ -8055,10 +8055,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2685.401311949506</v>
+        <v>-26.8540131194952</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03511066236015868</v>
+        <v>0.03511066236015754</v>
       </c>
     </row>
     <row r="9">
@@ -8068,10 +8068,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2469.712547323026</v>
+        <v>-24.69712547323024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001317754273332045</v>
+        <v>0.001317754273332054</v>
       </c>
     </row>
     <row r="10">
@@ -8081,10 +8081,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8613.62527065661</v>
+        <v>86.13625270656615</v>
       </c>
       <c r="C10" t="n">
-        <v>6.443596331757698e-06</v>
+        <v>6.443596331757578e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8094,10 +8094,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.374023092555106</v>
+        <v>-0.374023092555003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9837255090218096</v>
+        <v>0.983725509021814</v>
       </c>
     </row>
   </sheetData>
@@ -8143,10 +8143,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3886.77405354351</v>
+        <v>3886.774053642745</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005196022226397348</v>
+        <v>0.005196022224981266</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149.0865805992928</v>
+        <v>149.0865805903759</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00925599039758722</v>
+        <v>0.009255990397587994</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +8169,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.44813693216418</v>
+        <v>71.44813692960619</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04635807478289688</v>
+        <v>0.04635807479023095</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +8182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1488336024672991</v>
+        <v>-14.88336024596963</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03009410333295979</v>
+        <v>0.03009410334277223</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.358436966764588e-06</v>
+        <v>3.358436958515213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.951599487151136</v>
+        <v>0.9515994872696165</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +8208,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.02893290321391</v>
+        <v>11.02893290321429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03173978030309123</v>
+        <v>0.03173978030308382</v>
       </c>
     </row>
     <row r="8">
@@ -8221,10 +8221,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2586.912160429069</v>
+        <v>-25.86912160429076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06411969816207155</v>
+        <v>0.06411969816207046</v>
       </c>
     </row>
     <row r="9">
@@ -8234,10 +8234,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2223.11637611873</v>
+        <v>-22.23116376118726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004526929076287767</v>
+        <v>0.00452692907628791</v>
       </c>
     </row>
     <row r="10">
@@ -8247,10 +8247,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9684.718048883142</v>
+        <v>96.84718048883148</v>
       </c>
       <c r="C10" t="n">
-        <v>2.069457363387322e-07</v>
+        <v>2.069457363387273e-07</v>
       </c>
     </row>
     <row r="11">
@@ -8260,10 +8260,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.679458218377874</v>
+        <v>4.67945821837775</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7997843838126713</v>
+        <v>0.799784383812677</v>
       </c>
     </row>
   </sheetData>
@@ -8309,10 +8309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3315.738492270723</v>
+        <v>3315.738492549025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009980909392222709</v>
+        <v>0.009980909385023513</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +8322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.2476757824414</v>
+        <v>162.2476757776446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003082731043812859</v>
+        <v>0.003082731043812023</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +8335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.70347399223647</v>
+        <v>72.70347398545113</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02816634994816026</v>
+        <v>0.02816634996208288</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +8348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1317029175866947</v>
+        <v>-13.17029175842246</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03978831414562979</v>
+        <v>0.03978831415003306</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +8361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.105890418509958e-06</v>
+        <v>6.105890407125088</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9089262365672673</v>
+        <v>0.9089262367361228</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +8374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.78605468820518</v>
+        <v>12.78605468820515</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01602303797357672</v>
+        <v>0.01602303797357662</v>
       </c>
     </row>
     <row r="8">
@@ -8387,10 +8387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2047.592198258524</v>
+        <v>-20.47592198258548</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1118395327447506</v>
+        <v>0.1118395327447464</v>
       </c>
     </row>
     <row r="9">
@@ -8400,10 +8400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2036.602755918963</v>
+        <v>-20.36602755918956</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006618737186393186</v>
+        <v>0.006618737186393321</v>
       </c>
     </row>
     <row r="10">
@@ -8413,10 +8413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9222.902478880365</v>
+        <v>92.22902478880357</v>
       </c>
       <c r="C10" t="n">
-        <v>5.017039125278057e-08</v>
+        <v>5.017039125278273e-08</v>
       </c>
     </row>
     <row r="11">
@@ -8426,10 +8426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.514005718069285</v>
+        <v>8.514005718068972</v>
       </c>
       <c r="C11" t="n">
-        <v>0.660623294516357</v>
+        <v>0.6606232945163695</v>
       </c>
     </row>
   </sheetData>
@@ -8475,10 +8475,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3581.633194708084</v>
+        <v>3581.633194552733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003925379219472688</v>
+        <v>0.003925379221291311</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +8488,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205.7525944143343</v>
+        <v>205.7525944206105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001386323178010971</v>
+        <v>0.0001386323178010969</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +8501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78.74106973153374</v>
+        <v>78.74106972922809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0180445608748308</v>
+        <v>0.01804456087796075</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +8514,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09747886646633347</v>
+        <v>-9.747886646337646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1307075827194491</v>
+        <v>0.1307075827322458</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +8527,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.91969139014481e-06</v>
+        <v>3.919691386609159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9395095205395499</v>
+        <v>0.9395095205938997</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +8540,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.508151413906331</v>
+        <v>9.508151413906809</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04219042441129328</v>
+        <v>0.04219042441128083</v>
       </c>
     </row>
     <row r="8">
@@ -8553,10 +8553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2251.161922189168</v>
+        <v>-22.51161922189198</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06154078130884678</v>
+        <v>0.06154078130884311</v>
       </c>
     </row>
     <row r="9">
@@ -8566,10 +8566,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2205.828646358551</v>
+        <v>-22.05828646358567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002172857324899699</v>
+        <v>0.00217285732489954</v>
       </c>
     </row>
     <row r="10">
@@ -8579,10 +8579,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10854.01710453296</v>
+        <v>108.5401710453291</v>
       </c>
       <c r="C10" t="n">
-        <v>5.948558567939921e-11</v>
+        <v>5.948558567940526e-11</v>
       </c>
     </row>
     <row r="11">
@@ -8592,10 +8592,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2967739050515945</v>
+        <v>0.2967739050514382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9856470540685386</v>
+        <v>0.9856470540685461</v>
       </c>
     </row>
   </sheetData>
@@ -8641,10 +8641,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1060.421329944353</v>
+        <v>1060.42133003506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4227583741357958</v>
+        <v>0.4227583740941474</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8654,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.6661615910884</v>
+        <v>113.6661615891428</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03134795578504893</v>
+        <v>0.03134795578504589</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8667,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.2682670347276</v>
+        <v>112.2682670308763</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009043262599841367</v>
+        <v>0.0009043262603017618</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1081392618110971</v>
+        <v>-10.81392618120779</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09177058839372229</v>
+        <v>0.09177058839043432</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8693,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.598965191925943e-05</v>
+        <v>25.98965191212329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6629026242388623</v>
+        <v>0.6629026243220358</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8706,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.50982017041417</v>
+        <v>21.50982017041428</v>
       </c>
       <c r="C7" t="n">
-        <v>4.745657994463646e-05</v>
+        <v>4.745657994462875e-05</v>
       </c>
     </row>
     <row r="8">
@@ -8719,10 +8719,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-740.6123655757756</v>
+        <v>-7.406123655757806</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5353362015842766</v>
+        <v>0.5353362015842742</v>
       </c>
     </row>
     <row r="9">
@@ -8732,10 +8732,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1381.68361473096</v>
+        <v>-13.81683614730963</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04984742414789618</v>
+        <v>0.04984742414789575</v>
       </c>
     </row>
     <row r="10">
@@ -8745,10 +8745,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8637.199700548783</v>
+        <v>86.37199700548774</v>
       </c>
       <c r="C10" t="n">
-        <v>1.066951654850401e-07</v>
+        <v>1.066951654850416e-07</v>
       </c>
     </row>
     <row r="11">
@@ -8758,10 +8758,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.85694422639434</v>
+        <v>27.85694422639437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1149904967950842</v>
+        <v>0.1149904967950849</v>
       </c>
     </row>
   </sheetData>
